--- a/trunk/SRS/Trazabilidad/SRS[Alimnova]TrazabilidadRequerimientosV1.6.0.xlsx
+++ b/trunk/SRS/Trazabilidad/SRS[Alimnova]TrazabilidadRequerimientosV1.6.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="3270" windowWidth="15405" windowHeight="3600"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="9615" windowHeight="8595"/>
   </bookViews>
   <sheets>
     <sheet name="ESTADO DEL REQ" sheetId="7" r:id="rId1"/>
@@ -1521,7 +1521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1750,6 +1750,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1808,24 +1826,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1891,6 +1891,33 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -1924,31 +1951,40 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1969,15 +2005,6 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -1990,32 +2017,8 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2393,9 +2396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I125" sqref="I125"/>
+      <selection pane="topRight" activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2408,88 +2411,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="92" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="93" t="s">
+      <c r="A2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="95"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
       <c r="G2" s="81"/>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="99" t="s">
         <v>207</v>
       </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="97"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="106" t="s">
+      <c r="A3" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="86" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="91"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="97"/>
     </row>
     <row r="4" spans="1:20" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="107"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="80" t="s">
         <v>213</v>
       </c>
@@ -2550,7 +2553,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="14">
-        <f>C5/100</f>
+        <f t="shared" ref="B5:B36" si="0">C5/100</f>
         <v>0</v>
       </c>
       <c r="C5" s="56">
@@ -2566,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="46">
-        <f>F5*B5</f>
+        <f t="shared" ref="G5:G36" si="1">F5*B5</f>
         <v>0</v>
       </c>
       <c r="H5" s="46">
@@ -2614,7 +2617,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="14">
-        <f>C6/100</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="56">
@@ -2630,7 +2633,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="46">
-        <f>F6*B6</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="H6" s="53">
@@ -2666,7 +2669,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="14">
-        <f>C7/100</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C7" s="56">
@@ -2682,7 +2685,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="46">
-        <f>F7*B7</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H7" s="53">
@@ -2718,7 +2721,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="14">
-        <f>C8/100</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C8" s="56">
@@ -2734,7 +2737,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="46">
-        <f>F8*B8</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H8" s="53"/>
@@ -2768,7 +2771,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="14">
-        <f>C9/100</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C9" s="56">
@@ -2784,7 +2787,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="46">
-        <f>F9*B9</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="H9" s="53">
@@ -2820,7 +2823,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="14">
-        <f>C10/100</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C10" s="56">
@@ -2836,7 +2839,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="46">
-        <f>F10*B10</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="H10" s="53">
@@ -2872,7 +2875,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="14">
-        <f>C11/100</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C11" s="56">
@@ -2888,7 +2891,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="46">
-        <f>F11*B11</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="H11" s="53"/>
@@ -2922,7 +2925,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="14">
-        <f>C12/100</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C12" s="56">
@@ -2938,7 +2941,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="46">
-        <f>F12*B12</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="H12" s="52">
@@ -2974,7 +2977,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="14">
-        <f>C13/100</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C13" s="56">
@@ -2990,7 +2993,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="46">
-        <f>F13*B13</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="H13" s="53">
@@ -3026,7 +3029,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="14">
-        <f>C14/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C14" s="56">
@@ -3042,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="46">
-        <f>F14*B14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H14" s="46">
@@ -3090,7 +3093,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="14">
-        <f>C15/100</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C15" s="56">
@@ -3106,7 +3109,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="46">
-        <f>F15*B15</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="H15" s="53">
@@ -3142,7 +3145,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="14">
-        <f>C16/100</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C16" s="56">
@@ -3158,7 +3161,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="46">
-        <f>F16*B16</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="H16" s="50"/>
@@ -3192,7 +3195,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="14">
-        <f>C17/100</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C17" s="56">
@@ -3208,7 +3211,7 @@
         <v>80</v>
       </c>
       <c r="G17" s="46">
-        <f>F17*B17</f>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="H17" s="50"/>
@@ -3242,7 +3245,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="14">
-        <f>C18/100</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C18" s="56">
@@ -3258,7 +3261,7 @@
         <v>100</v>
       </c>
       <c r="G18" s="46">
-        <f>F18*B18</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="H18" s="53">
@@ -3290,11 +3293,11 @@
       <c r="T18" s="50"/>
     </row>
     <row r="19" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="28" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="14">
-        <f>C19/100</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C19" s="56">
@@ -3310,7 +3313,7 @@
         <v>40</v>
       </c>
       <c r="G19" s="46">
-        <f>F19*B19</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="H19" s="50"/>
@@ -3340,11 +3343,11 @@
       <c r="T19" s="50"/>
     </row>
     <row r="20" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="14">
-        <f>C20/100</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C20" s="56">
@@ -3360,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="46">
-        <f>F20*B20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H20" s="50"/>
@@ -3394,7 +3397,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="14">
-        <f>C21/100</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C21" s="56">
@@ -3410,7 +3413,7 @@
         <v>40</v>
       </c>
       <c r="G21" s="46">
-        <f>F21*B21</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="H21" s="50"/>
@@ -3444,7 +3447,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="14">
-        <f>C22/100</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C22" s="56">
@@ -3460,7 +3463,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="46">
-        <f>F22*B22</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H22" s="50"/>
@@ -3490,11 +3493,11 @@
       <c r="T22" s="50"/>
     </row>
     <row r="23" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="14">
-        <f>C23/100</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C23" s="56">
@@ -3510,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="46">
-        <f>F23*B23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H23" s="50"/>
@@ -3544,7 +3547,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="14">
-        <f>C24/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C24" s="56">
@@ -3560,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="46">
-        <f>F24*B24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H24" s="46">
@@ -3608,7 +3611,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="14">
-        <f>C25/100</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C25" s="56">
@@ -3624,7 +3627,7 @@
         <v>100</v>
       </c>
       <c r="G25" s="46">
-        <f>F25*B25</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="H25" s="53">
@@ -3660,7 +3663,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="14">
-        <f>C26/100</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C26" s="56">
@@ -3676,7 +3679,7 @@
         <v>100</v>
       </c>
       <c r="G26" s="46">
-        <f>F26*B26</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="H26" s="50"/>
@@ -3710,7 +3713,7 @@
         <v>33</v>
       </c>
       <c r="B27" s="14">
-        <f>C27/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C27" s="56">
@@ -3726,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="46">
-        <f>F27*B27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="46">
@@ -3774,7 +3777,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="14">
-        <f>C28/100</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C28" s="56">
@@ -3790,7 +3793,7 @@
         <v>100</v>
       </c>
       <c r="G28" s="46">
-        <f>F28*B28</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H28" s="50"/>
@@ -3824,7 +3827,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="14">
-        <f>C29/100</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C29" s="56">
@@ -3840,7 +3843,7 @@
         <v>100</v>
       </c>
       <c r="G29" s="46">
-        <f>F29*B29</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H29" s="49">
@@ -3876,7 +3879,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="14">
-        <f>C30/100</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C30" s="56">
@@ -3892,7 +3895,7 @@
         <v>100</v>
       </c>
       <c r="G30" s="46">
-        <f>F30*B30</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H30" s="50"/>
@@ -3926,7 +3929,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="14">
-        <f>C31/100</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C31" s="56">
@@ -3942,7 +3945,7 @@
         <v>100</v>
       </c>
       <c r="G31" s="46">
-        <f>F31*B31</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H31" s="49">
@@ -3974,11 +3977,11 @@
       <c r="T31" s="50"/>
     </row>
     <row r="32" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="28" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="14">
-        <f>C32/100</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C32" s="56">
@@ -3994,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="46">
-        <f>F32*B32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H32" s="50"/>
@@ -4024,11 +4027,11 @@
       <c r="T32" s="50"/>
     </row>
     <row r="33" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="28" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="14">
-        <f>C33/100</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C33" s="56">
@@ -4044,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="46">
-        <f>F33*B33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H33" s="50"/>
@@ -4074,11 +4077,11 @@
       <c r="T33" s="50"/>
     </row>
     <row r="34" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="28" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="14">
-        <f>C34/100</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C34" s="56">
@@ -4094,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="46">
-        <f>F34*B34</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H34" s="50"/>
@@ -4124,11 +4127,11 @@
       <c r="T34" s="50"/>
     </row>
     <row r="35" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="28" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="14">
-        <f>C35/100</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C35" s="56">
@@ -4144,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="46">
-        <f>F35*B35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H35" s="50"/>
@@ -4174,11 +4177,11 @@
       <c r="T35" s="50"/>
     </row>
     <row r="36" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="28" t="s">
         <v>42</v>
       </c>
       <c r="B36" s="14">
-        <f>C36/100</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C36" s="56">
@@ -4194,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="46">
-        <f>F36*B36</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H36" s="50"/>
@@ -4224,11 +4227,11 @@
       <c r="T36" s="50"/>
     </row>
     <row r="37" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="28" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="14">
-        <f>C37/100</f>
+        <f t="shared" ref="B37:B68" si="2">C37/100</f>
         <v>1</v>
       </c>
       <c r="C37" s="56">
@@ -4244,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="46">
-        <f>F37*B37</f>
+        <f t="shared" ref="G37:G68" si="3">F37*B37</f>
         <v>0</v>
       </c>
       <c r="H37" s="50"/>
@@ -4274,11 +4277,11 @@
       <c r="T37" s="50"/>
     </row>
     <row r="38" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B38" s="14">
-        <f>C38/100</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C38" s="56">
@@ -4294,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="46">
-        <f>F38*B38</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H38" s="50"/>
@@ -4324,11 +4327,11 @@
       <c r="T38" s="50"/>
     </row>
     <row r="39" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="28" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="14">
-        <f>C39/100</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C39" s="56">
@@ -4344,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="46">
-        <f>F39*B39</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H39" s="50"/>
@@ -4374,11 +4377,11 @@
       <c r="T39" s="50"/>
     </row>
     <row r="40" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="28" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="14">
-        <f>C40/100</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C40" s="56">
@@ -4394,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="46">
-        <f>F40*B40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H40" s="50"/>
@@ -4424,11 +4427,11 @@
       <c r="T40" s="50"/>
     </row>
     <row r="41" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="28" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="14">
-        <f>C41/100</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C41" s="56">
@@ -4444,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="46">
-        <f>F41*B41</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H41" s="50"/>
@@ -4474,11 +4477,11 @@
       <c r="T41" s="50"/>
     </row>
     <row r="42" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B42" s="14">
-        <f>C42/100</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C42" s="56">
@@ -4494,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="46">
-        <f>F42*B42</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H42" s="50"/>
@@ -4524,11 +4527,11 @@
       <c r="T42" s="50"/>
     </row>
     <row r="43" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="28" t="s">
         <v>49</v>
       </c>
       <c r="B43" s="14">
-        <f>C43/100</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C43" s="56">
@@ -4544,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="46">
-        <f>F43*B43</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H43" s="50"/>
@@ -4578,7 +4581,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="14">
-        <f>C44/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C44" s="56">
@@ -4594,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="46">
-        <f>F44*B44</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H44" s="46">
@@ -4638,11 +4641,11 @@
       </c>
     </row>
     <row r="45" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="28" t="s">
         <v>51</v>
       </c>
       <c r="B45" s="14">
-        <f>C45/100</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C45" s="56">
@@ -4658,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="46">
-        <f>F45*B45</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H45" s="50"/>
@@ -4688,11 +4691,11 @@
       <c r="T45" s="50"/>
     </row>
     <row r="46" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B46" s="14">
-        <f>C46/100</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C46" s="56">
@@ -4708,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="46">
-        <f>F46*B46</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H46" s="50"/>
@@ -4738,11 +4741,11 @@
       <c r="T46" s="50"/>
     </row>
     <row r="47" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="28" t="s">
         <v>53</v>
       </c>
       <c r="B47" s="14">
-        <f>C47/100</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C47" s="56">
@@ -4758,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="46">
-        <f>F47*B47</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H47" s="50"/>
@@ -4788,11 +4791,11 @@
       <c r="T47" s="50"/>
     </row>
     <row r="48" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="43" t="s">
+      <c r="A48" s="28" t="s">
         <v>54</v>
       </c>
       <c r="B48" s="14">
-        <f>C48/100</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C48" s="56">
@@ -4808,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="46">
-        <f>F48*B48</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H48" s="50"/>
@@ -4842,7 +4845,7 @@
         <v>55</v>
       </c>
       <c r="B49" s="14">
-        <f>C49/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C49" s="56">
@@ -4858,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="46">
-        <f>F49*B49</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H49" s="46">
@@ -4902,11 +4905,11 @@
       </c>
     </row>
     <row r="50" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="28" t="s">
         <v>56</v>
       </c>
       <c r="B50" s="14">
-        <f>C50/100</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C50" s="56">
@@ -4922,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="46">
-        <f>F50*B50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H50" s="50"/>
@@ -4952,11 +4955,11 @@
       <c r="T50" s="50"/>
     </row>
     <row r="51" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="28" t="s">
         <v>57</v>
       </c>
       <c r="B51" s="14">
-        <f>C51/100</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C51" s="56">
@@ -4972,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="46">
-        <f>F51*B51</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H51" s="50"/>
@@ -5002,11 +5005,11 @@
       <c r="T51" s="50"/>
     </row>
     <row r="52" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="43" t="s">
+      <c r="A52" s="28" t="s">
         <v>58</v>
       </c>
       <c r="B52" s="14">
-        <f>C52/100</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C52" s="56">
@@ -5022,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="46">
-        <f>F52*B52</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H52" s="50"/>
@@ -5052,11 +5055,11 @@
       <c r="T52" s="50"/>
     </row>
     <row r="53" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="28" t="s">
         <v>59</v>
       </c>
       <c r="B53" s="14">
-        <f>C53/100</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C53" s="56">
@@ -5072,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="46">
-        <f>F53*B53</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H53" s="50"/>
@@ -5102,11 +5105,11 @@
       <c r="T53" s="50"/>
     </row>
     <row r="54" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A54" s="43" t="s">
+      <c r="A54" s="28" t="s">
         <v>60</v>
       </c>
       <c r="B54" s="14">
-        <f>C54/100</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C54" s="56">
@@ -5122,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="46">
-        <f>F54*B54</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H54" s="50"/>
@@ -5152,11 +5155,11 @@
       <c r="T54" s="50"/>
     </row>
     <row r="55" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A55" s="43" t="s">
+      <c r="A55" s="28" t="s">
         <v>61</v>
       </c>
       <c r="B55" s="14">
-        <f>C55/100</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C55" s="56">
@@ -5172,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="46">
-        <f>F55*B55</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H55" s="50"/>
@@ -5206,7 +5209,7 @@
         <v>62</v>
       </c>
       <c r="B56" s="14">
-        <f>C56/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C56" s="56">
@@ -5222,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="46">
-        <f>F56*B56</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H56" s="46">
@@ -5266,11 +5269,11 @@
       </c>
     </row>
     <row r="57" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="43" t="s">
+      <c r="A57" s="28" t="s">
         <v>63</v>
       </c>
       <c r="B57" s="14">
-        <f>C57/100</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C57" s="56">
@@ -5286,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="46">
-        <f>F57*B57</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H57" s="50"/>
@@ -5316,11 +5319,11 @@
       <c r="T57" s="50"/>
     </row>
     <row r="58" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A58" s="43" t="s">
+      <c r="A58" s="28" t="s">
         <v>64</v>
       </c>
       <c r="B58" s="14">
-        <f>C58/100</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C58" s="56">
@@ -5336,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="46">
-        <f>F58*B58</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H58" s="50"/>
@@ -5366,11 +5369,11 @@
       <c r="T58" s="50"/>
     </row>
     <row r="59" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A59" s="43" t="s">
+      <c r="A59" s="28" t="s">
         <v>65</v>
       </c>
       <c r="B59" s="14">
-        <f>C59/100</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C59" s="56">
@@ -5386,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="46">
-        <f>F59*B59</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H59" s="50"/>
@@ -5416,11 +5419,11 @@
       <c r="T59" s="50"/>
     </row>
     <row r="60" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="28" t="s">
         <v>66</v>
       </c>
       <c r="B60" s="14">
-        <f>C60/100</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C60" s="56">
@@ -5436,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="46">
-        <f>F60*B60</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H60" s="50"/>
@@ -5470,7 +5473,7 @@
         <v>67</v>
       </c>
       <c r="B61" s="14">
-        <f>C61/100</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C61" s="56">
@@ -5483,11 +5486,11 @@
         <v>40258</v>
       </c>
       <c r="F61" s="46">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G61" s="46">
-        <f>F61*B61</f>
-        <v>180</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="H61" s="50"/>
       <c r="I61" s="46">
@@ -5520,7 +5523,7 @@
         <v>68</v>
       </c>
       <c r="B62" s="14">
-        <f>C62/100</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C62" s="56">
@@ -5536,7 +5539,7 @@
         <v>100</v>
       </c>
       <c r="G62" s="46">
-        <f>F62*B62</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="H62" s="53">
@@ -5572,7 +5575,7 @@
         <v>69</v>
       </c>
       <c r="B63" s="14">
-        <f>C63/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C63" s="56">
@@ -5588,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="46">
-        <f>F63*B63</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H63" s="46">
@@ -5636,7 +5639,7 @@
         <v>70</v>
       </c>
       <c r="B64" s="14">
-        <f>C64/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C64" s="56">
@@ -5652,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="46">
-        <f>F64*B64</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H64" s="46">
@@ -5696,11 +5699,11 @@
       </c>
     </row>
     <row r="65" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A65" s="43" t="s">
+      <c r="A65" s="28" t="s">
         <v>71</v>
       </c>
       <c r="B65" s="14">
-        <f>C65/100</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C65" s="56">
@@ -5716,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="46">
-        <f>F65*B65</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H65" s="50"/>
@@ -5746,11 +5749,11 @@
       <c r="T65" s="50"/>
     </row>
     <row r="66" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A66" s="43" t="s">
+      <c r="A66" s="28" t="s">
         <v>72</v>
       </c>
       <c r="B66" s="14">
-        <f>C66/100</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C66" s="56">
@@ -5766,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="46">
-        <f>F66*B66</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H66" s="50"/>
@@ -5796,11 +5799,11 @@
       <c r="T66" s="50"/>
     </row>
     <row r="67" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A67" s="43" t="s">
+      <c r="A67" s="28" t="s">
         <v>73</v>
       </c>
       <c r="B67" s="14">
-        <f>C67/100</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C67" s="56">
@@ -5816,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="46">
-        <f>F67*B67</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H67" s="50"/>
@@ -5846,11 +5849,11 @@
       <c r="T67" s="50"/>
     </row>
     <row r="68" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A68" s="43" t="s">
+      <c r="A68" s="28" t="s">
         <v>74</v>
       </c>
       <c r="B68" s="14">
-        <f>C68/100</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C68" s="56">
@@ -5866,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="46">
-        <f>F68*B68</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H68" s="50"/>
@@ -5896,11 +5899,11 @@
       <c r="T68" s="50"/>
     </row>
     <row r="69" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A69" s="43" t="s">
+      <c r="A69" s="28" t="s">
         <v>75</v>
       </c>
       <c r="B69" s="14">
-        <f>C69/100</f>
+        <f t="shared" ref="B69:B100" si="4">C69/100</f>
         <v>3</v>
       </c>
       <c r="C69" s="56">
@@ -5916,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="46">
-        <f>F69*B69</f>
+        <f t="shared" ref="G69:G100" si="5">F69*B69</f>
         <v>0</v>
       </c>
       <c r="H69" s="50"/>
@@ -5946,11 +5949,11 @@
       <c r="T69" s="50"/>
     </row>
     <row r="70" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A70" s="44" t="s">
+      <c r="A70" s="173" t="s">
         <v>76</v>
       </c>
       <c r="B70" s="14">
-        <f>C70/100</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="C70" s="57">
@@ -5966,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="46">
-        <f>F70*B70</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H70" s="50"/>
@@ -5996,11 +5999,11 @@
       <c r="T70" s="50"/>
     </row>
     <row r="71" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A71" s="44" t="s">
+      <c r="A71" s="173" t="s">
         <v>77</v>
       </c>
       <c r="B71" s="14">
-        <f>C71/100</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C71" s="57">
@@ -6016,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="46">
-        <f>F71*B71</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H71" s="50"/>
@@ -6046,11 +6049,11 @@
       <c r="T71" s="50"/>
     </row>
     <row r="72" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" s="44" t="s">
+      <c r="A72" s="173" t="s">
         <v>78</v>
       </c>
       <c r="B72" s="14">
-        <f>C72/100</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C72" s="56">
@@ -6066,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="46">
-        <f>F72*B72</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H72" s="50"/>
@@ -6096,11 +6099,11 @@
       <c r="T72" s="50"/>
     </row>
     <row r="73" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A73" s="44" t="s">
+      <c r="A73" s="173" t="s">
         <v>79</v>
       </c>
       <c r="B73" s="14">
-        <f>C73/100</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="C73" s="56">
@@ -6116,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="46">
-        <f>F73*B73</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H73" s="50"/>
@@ -6150,7 +6153,7 @@
         <v>80</v>
       </c>
       <c r="B74" s="14">
-        <f>C74/100</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="C74" s="56">
@@ -6166,7 +6169,7 @@
         <v>100</v>
       </c>
       <c r="G74" s="46">
-        <f>F74*B74</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="H74" s="53">
@@ -6198,11 +6201,11 @@
       <c r="T74" s="50"/>
     </row>
     <row r="75" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A75" s="44" t="s">
+      <c r="A75" s="173" t="s">
         <v>81</v>
       </c>
       <c r="B75" s="14">
-        <f>C75/100</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="C75" s="56">
@@ -6218,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="46">
-        <f>F75*B75</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H75" s="50"/>
@@ -6252,7 +6255,7 @@
         <v>82</v>
       </c>
       <c r="B76" s="14">
-        <f>C76/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C76" s="56">
@@ -6268,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="46">
-        <f>F76*B76</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H76" s="46">
@@ -6316,7 +6319,7 @@
         <v>83</v>
       </c>
       <c r="B77" s="14">
-        <f>C77/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C77" s="56">
@@ -6332,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="46">
-        <f>F77*B77</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H77" s="46">
@@ -6380,7 +6383,7 @@
         <v>84</v>
       </c>
       <c r="B78" s="14">
-        <f>C78/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C78" s="56">
@@ -6396,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="46">
-        <f>F78*B78</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H78" s="46">
@@ -6444,7 +6447,7 @@
         <v>85</v>
       </c>
       <c r="B79" s="14">
-        <f>C79/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C79" s="56">
@@ -6460,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="46">
-        <f>F79*B79</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H79" s="46">
@@ -6508,7 +6511,7 @@
         <v>86</v>
       </c>
       <c r="B80" s="14">
-        <f>C80/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C80" s="56">
@@ -6524,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="46">
-        <f>F80*B80</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H80" s="46">
@@ -6572,7 +6575,7 @@
         <v>87</v>
       </c>
       <c r="B81" s="14">
-        <f>C81/100</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="C81" s="56">
@@ -6585,11 +6588,11 @@
         <v>40262</v>
       </c>
       <c r="F81" s="46">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G81" s="46">
-        <f>F81*B81</f>
-        <v>170</v>
+        <f t="shared" si="5"/>
+        <v>200</v>
       </c>
       <c r="H81" s="53">
         <v>40263</v>
@@ -6624,7 +6627,7 @@
         <v>88</v>
       </c>
       <c r="B82" s="14">
-        <f>C82/100</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="C82" s="56">
@@ -6640,7 +6643,7 @@
         <v>15</v>
       </c>
       <c r="G82" s="46">
-        <f>F82*B82</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="H82" s="53">
@@ -6676,7 +6679,7 @@
         <v>89</v>
       </c>
       <c r="B83" s="14">
-        <f>C83/100</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="C83" s="56">
@@ -6692,7 +6695,7 @@
         <v>10</v>
       </c>
       <c r="G83" s="46">
-        <f>F83*B83</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="H83" s="53">
@@ -6728,7 +6731,7 @@
         <v>90</v>
       </c>
       <c r="B84" s="14">
-        <f>C84/100</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C84" s="56">
@@ -6741,11 +6744,11 @@
         <v>40262</v>
       </c>
       <c r="F84" s="46">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G84" s="46">
-        <f>F84*B84</f>
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
       <c r="H84" s="53">
         <v>40263</v>
@@ -6780,7 +6783,7 @@
         <v>91</v>
       </c>
       <c r="B85" s="14">
-        <f>C85/100</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C85" s="56">
@@ -6796,7 +6799,7 @@
         <v>60</v>
       </c>
       <c r="G85" s="46">
-        <f>F85*B85</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="H85" s="53">
@@ -6832,7 +6835,7 @@
         <v>92</v>
       </c>
       <c r="B86" s="14">
-        <f>C86/100</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C86" s="56">
@@ -6848,7 +6851,7 @@
         <v>60</v>
       </c>
       <c r="G86" s="46">
-        <f>F86*B86</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="H86" s="53">
@@ -6884,7 +6887,7 @@
         <v>93</v>
       </c>
       <c r="B87" s="14">
-        <f>C87/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C87" s="56">
@@ -6900,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="46">
-        <f>F87*B87</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H87" s="46">
@@ -6948,7 +6951,7 @@
         <v>94</v>
       </c>
       <c r="B88" s="14">
-        <f>C88/100</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C88" s="56">
@@ -6964,7 +6967,7 @@
         <v>70</v>
       </c>
       <c r="G88" s="46">
-        <f>F88*B88</f>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="H88" s="53">
@@ -7000,7 +7003,7 @@
         <v>95</v>
       </c>
       <c r="B89" s="14">
-        <f>C89/100</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="C89" s="56">
@@ -7016,7 +7019,7 @@
         <v>60</v>
       </c>
       <c r="G89" s="46">
-        <f>F89*B89</f>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="H89" s="53">
@@ -7052,7 +7055,7 @@
         <v>96</v>
       </c>
       <c r="B90" s="14">
-        <f>C90/100</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="C90" s="56">
@@ -7068,7 +7071,7 @@
         <v>70</v>
       </c>
       <c r="G90" s="46">
-        <f>F90*B90</f>
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="H90" s="53">
@@ -7104,7 +7107,7 @@
         <v>97</v>
       </c>
       <c r="B91" s="14">
-        <f>C91/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C91" s="56">
@@ -7120,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="46">
-        <f>F91*B91</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H91" s="46">
@@ -7168,7 +7171,7 @@
         <v>98</v>
       </c>
       <c r="B92" s="14">
-        <f>C92/100</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C92" s="56">
@@ -7184,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="46">
-        <f>F92*B92</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H92" s="50"/>
@@ -7218,7 +7221,7 @@
         <v>99</v>
       </c>
       <c r="B93" s="14">
-        <f>C93/100</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C93" s="56">
@@ -7234,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="46">
-        <f>F93*B93</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H93" s="50"/>
@@ -7268,7 +7271,7 @@
         <v>100</v>
       </c>
       <c r="B94" s="14">
-        <f>C94/100</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C94" s="56">
@@ -7284,7 +7287,7 @@
         <v>100</v>
       </c>
       <c r="G94" s="46">
-        <f>F94*B94</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H94" s="53">
@@ -7320,7 +7323,7 @@
         <v>101</v>
       </c>
       <c r="B95" s="14">
-        <f>C95/100</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C95" s="56">
@@ -7336,7 +7339,7 @@
         <v>100</v>
       </c>
       <c r="G95" s="46">
-        <f>F95*B95</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H95" s="53">
@@ -7372,7 +7375,7 @@
         <v>102</v>
       </c>
       <c r="B96" s="14">
-        <f>C96/100</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C96" s="56">
@@ -7388,7 +7391,7 @@
         <v>100</v>
       </c>
       <c r="G96" s="46">
-        <f>F96*B96</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H96" s="53">
@@ -7424,7 +7427,7 @@
         <v>103</v>
       </c>
       <c r="B97" s="14">
-        <f>C97/100</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C97" s="56">
@@ -7440,7 +7443,7 @@
         <v>100</v>
       </c>
       <c r="G97" s="46">
-        <f>F97*B97</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H97" s="53">
@@ -7476,7 +7479,7 @@
         <v>104</v>
       </c>
       <c r="B98" s="14">
-        <f>C98/100</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C98" s="56">
@@ -7492,7 +7495,7 @@
         <v>100</v>
       </c>
       <c r="G98" s="46">
-        <f>F98*B98</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H98" s="53">
@@ -7528,7 +7531,7 @@
         <v>105</v>
       </c>
       <c r="B99" s="14">
-        <f>C99/100</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C99" s="56">
@@ -7544,7 +7547,7 @@
         <v>100</v>
       </c>
       <c r="G99" s="46">
-        <f>F99*B99</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H99" s="53">
@@ -7580,7 +7583,7 @@
         <v>106</v>
       </c>
       <c r="B100" s="14">
-        <f>C100/100</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C100" s="56">
@@ -7596,7 +7599,7 @@
         <v>100</v>
       </c>
       <c r="G100" s="46">
-        <f>F100*B100</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H100" s="53">
@@ -7632,7 +7635,7 @@
         <v>107</v>
       </c>
       <c r="B101" s="14">
-        <f>C101/100</f>
+        <f t="shared" ref="B101:B132" si="6">C101/100</f>
         <v>2</v>
       </c>
       <c r="C101" s="56">
@@ -7648,7 +7651,7 @@
         <v>100</v>
       </c>
       <c r="G101" s="46">
-        <f>F101*B101</f>
+        <f t="shared" ref="G101:G132" si="7">F101*B101</f>
         <v>200</v>
       </c>
       <c r="H101" s="53">
@@ -7684,7 +7687,7 @@
         <v>108</v>
       </c>
       <c r="B102" s="14">
-        <f>C102/100</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C102" s="56">
@@ -7700,7 +7703,7 @@
         <v>10</v>
       </c>
       <c r="G102" s="46">
-        <f>F102*B102</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="H102" s="53">
@@ -7736,7 +7739,7 @@
         <v>109</v>
       </c>
       <c r="B103" s="14">
-        <f>C103/100</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C103" s="56">
@@ -7752,7 +7755,7 @@
         <v>100</v>
       </c>
       <c r="G103" s="46">
-        <f>F103*B103</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="H103" s="53">
@@ -7788,7 +7791,7 @@
         <v>110</v>
       </c>
       <c r="B104" s="14">
-        <f>C104/100</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C104" s="56">
@@ -7804,7 +7807,7 @@
         <v>100</v>
       </c>
       <c r="G104" s="46">
-        <f>F104*B104</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="H104" s="53">
@@ -7840,7 +7843,7 @@
         <v>111</v>
       </c>
       <c r="B105" s="14">
-        <f>C105/100</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C105" s="56">
@@ -7856,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="G105" s="46">
-        <f>F105*B105</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H105" s="50"/>
@@ -7890,7 +7893,7 @@
         <v>112</v>
       </c>
       <c r="B106" s="14">
-        <f>C106/100</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C106" s="56">
@@ -7906,7 +7909,7 @@
         <v>70</v>
       </c>
       <c r="G106" s="46">
-        <f>F106*B106</f>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="H106" s="53">
@@ -7942,7 +7945,7 @@
         <v>113</v>
       </c>
       <c r="B107" s="14">
-        <f>C107/100</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C107" s="56">
@@ -7958,7 +7961,7 @@
         <v>10</v>
       </c>
       <c r="G107" s="46">
-        <f>F107*B107</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="H107" s="53">
@@ -7994,7 +7997,7 @@
         <v>114</v>
       </c>
       <c r="B108" s="14">
-        <f>C108/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C108" s="56">
@@ -8010,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="G108" s="46">
-        <f>F108*B108</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H108" s="46">
@@ -8058,7 +8061,7 @@
         <v>115</v>
       </c>
       <c r="B109" s="14">
-        <f>C109/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C109" s="56">
@@ -8074,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="G109" s="46">
-        <f>F109*B109</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H109" s="46">
@@ -8122,7 +8125,7 @@
         <v>116</v>
       </c>
       <c r="B110" s="14">
-        <f>C110/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C110" s="56">
@@ -8138,7 +8141,7 @@
         <v>0</v>
       </c>
       <c r="G110" s="46">
-        <f>F110*B110</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H110" s="46">
@@ -8186,7 +8189,7 @@
         <v>117</v>
       </c>
       <c r="B111" s="14">
-        <f>C111/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C111" s="56">
@@ -8202,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="G111" s="46">
-        <f>F111*B111</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H111" s="46">
@@ -8250,7 +8253,7 @@
         <v>118</v>
       </c>
       <c r="B112" s="14">
-        <f>C112/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C112" s="56">
@@ -8266,7 +8269,7 @@
         <v>0</v>
       </c>
       <c r="G112" s="46">
-        <f>F112*B112</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H112" s="46">
@@ -8314,7 +8317,7 @@
         <v>119</v>
       </c>
       <c r="B113" s="14">
-        <f>C113/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C113" s="56">
@@ -8330,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="G113" s="46">
-        <f>F113*B113</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H113" s="46">
@@ -8378,7 +8381,7 @@
         <v>120</v>
       </c>
       <c r="B114" s="14">
-        <f>C114/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C114" s="56">
@@ -8394,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="G114" s="46">
-        <f>F114*B114</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H114" s="46">
@@ -8442,7 +8445,7 @@
         <v>121</v>
       </c>
       <c r="B115" s="14">
-        <f>C115/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C115" s="56">
@@ -8458,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="G115" s="46">
-        <f>F115*B115</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H115" s="46">
@@ -8506,7 +8509,7 @@
         <v>122</v>
       </c>
       <c r="B116" s="14">
-        <f>C116/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C116" s="56">
@@ -8522,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="G116" s="46">
-        <f>F116*B116</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H116" s="46">
@@ -8570,7 +8573,7 @@
         <v>123</v>
       </c>
       <c r="B117" s="14">
-        <f>C117/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C117" s="56">
@@ -8586,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="G117" s="46">
-        <f>F117*B117</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H117" s="46">
@@ -8634,7 +8637,7 @@
         <v>124</v>
       </c>
       <c r="B118" s="14">
-        <f>C118/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C118" s="56">
@@ -8650,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="G118" s="46">
-        <f>F118*B118</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H118" s="46">
@@ -8698,7 +8701,7 @@
         <v>125</v>
       </c>
       <c r="B119" s="14">
-        <f>C119/100</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C119" s="56">
@@ -8714,7 +8717,7 @@
         <v>0</v>
       </c>
       <c r="G119" s="46">
-        <f>F119*B119</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H119" s="52"/>
@@ -8748,7 +8751,7 @@
         <v>126</v>
       </c>
       <c r="B120" s="14">
-        <f>C120/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C120" s="56">
@@ -8764,7 +8767,7 @@
         <v>0</v>
       </c>
       <c r="G120" s="46">
-        <f>F120*B120</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H120" s="46">
@@ -8812,7 +8815,7 @@
         <v>127</v>
       </c>
       <c r="B121" s="14">
-        <f>C121/100</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C121" s="56">
@@ -8828,7 +8831,7 @@
         <v>100</v>
       </c>
       <c r="G121" s="46">
-        <f>F121*B121</f>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="H121" s="53">
@@ -8864,7 +8867,7 @@
         <v>128</v>
       </c>
       <c r="B122" s="14">
-        <f>C122/100</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C122" s="56">
@@ -8880,7 +8883,7 @@
         <v>100</v>
       </c>
       <c r="G122" s="46">
-        <f>F122*B122</f>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="H122" s="54"/>
@@ -8914,7 +8917,7 @@
         <v>129</v>
       </c>
       <c r="B123" s="14">
-        <f>C123/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C123" s="56">
@@ -8930,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="G123" s="46">
-        <f>F123*B123</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H123" s="46">
@@ -8978,7 +8981,7 @@
         <v>130</v>
       </c>
       <c r="B124" s="14">
-        <f>C124/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C124" s="56">
@@ -8990,45 +8993,58 @@
       <c r="E124" s="49">
         <v>40258</v>
       </c>
-      <c r="F124" s="46">
-        <v>0</v>
-      </c>
-      <c r="G124" s="46">
-        <f>F124*B124</f>
-        <v>0</v>
-      </c>
-      <c r="H124" s="54"/>
-      <c r="I124" s="46">
-        <v>0</v>
-      </c>
-      <c r="J124" s="50"/>
-      <c r="K124" s="46">
-        <v>0</v>
-      </c>
-      <c r="L124" s="50"/>
-      <c r="M124" s="46">
-        <v>0</v>
-      </c>
-      <c r="N124" s="50"/>
-      <c r="O124" s="46">
-        <v>0</v>
-      </c>
-      <c r="P124" s="50"/>
-      <c r="Q124" s="46">
-        <v>0</v>
-      </c>
-      <c r="R124" s="50"/>
-      <c r="S124" s="46">
-        <v>0</v>
-      </c>
-      <c r="T124" s="50"/>
+      <c r="F124" s="56">
+        <v>0</v>
+      </c>
+      <c r="G124" s="56">
+        <v>0</v>
+      </c>
+      <c r="H124" s="56">
+        <v>0</v>
+      </c>
+      <c r="I124" s="56">
+        <v>0</v>
+      </c>
+      <c r="J124" s="56">
+        <v>0</v>
+      </c>
+      <c r="K124" s="56">
+        <v>0</v>
+      </c>
+      <c r="L124" s="56">
+        <v>0</v>
+      </c>
+      <c r="M124" s="56">
+        <v>0</v>
+      </c>
+      <c r="N124" s="56">
+        <v>0</v>
+      </c>
+      <c r="O124" s="56">
+        <v>0</v>
+      </c>
+      <c r="P124" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="56">
+        <v>0</v>
+      </c>
+      <c r="R124" s="56">
+        <v>0</v>
+      </c>
+      <c r="S124" s="56">
+        <v>0</v>
+      </c>
+      <c r="T124" s="56">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A125" s="44" t="s">
         <v>131</v>
       </c>
       <c r="B125" s="14">
-        <f>C125/100</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C125" s="56">
@@ -9044,7 +9060,7 @@
         <v>100</v>
       </c>
       <c r="G125" s="46">
-        <f>F125*B125</f>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="H125" s="54"/>
@@ -9074,30 +9090,30 @@
       <c r="T125" s="50"/>
     </row>
     <row r="126" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A126" s="104" t="s">
+      <c r="A126" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="B126" s="105"/>
+      <c r="B126" s="85"/>
       <c r="C126" s="59">
         <f>SUM(C5:C125)</f>
         <v>12700</v>
       </c>
-      <c r="D126" s="84" t="s">
+      <c r="D126" s="90" t="s">
         <v>217</v>
       </c>
-      <c r="E126" s="85"/>
-      <c r="F126" s="86"/>
+      <c r="E126" s="91"/>
+      <c r="F126" s="92"/>
       <c r="G126" s="46">
         <f>SUM(G5:G125)</f>
-        <v>6850</v>
-      </c>
-      <c r="H126" s="108" t="s">
+        <v>6950</v>
+      </c>
+      <c r="H126" s="88" t="s">
         <v>218</v>
       </c>
-      <c r="I126" s="109"/>
+      <c r="I126" s="89"/>
       <c r="J126" s="69">
         <f>(G126*100)/C126</f>
-        <v>53.937007874015748</v>
+        <v>54.724409448818896</v>
       </c>
       <c r="K126" s="46"/>
       <c r="L126" s="50"/>
@@ -9111,33 +9127,33 @@
       <c r="T126" s="50"/>
     </row>
     <row r="127" spans="1:20" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A127" s="87" t="s">
+      <c r="A127" s="93" t="s">
         <v>0</v>
       </c>
       <c r="B127" s="43"/>
       <c r="C127" s="43"/>
-      <c r="D127" s="89" t="s">
+      <c r="D127" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="E127" s="90"/>
-      <c r="F127" s="90"/>
-      <c r="G127" s="90"/>
-      <c r="H127" s="90"/>
-      <c r="I127" s="90"/>
-      <c r="J127" s="90"/>
-      <c r="K127" s="90"/>
-      <c r="L127" s="90"/>
-      <c r="M127" s="90"/>
-      <c r="N127" s="90"/>
-      <c r="O127" s="90"/>
-      <c r="P127" s="90"/>
-      <c r="Q127" s="90"/>
-      <c r="R127" s="90"/>
-      <c r="S127" s="90"/>
-      <c r="T127" s="91"/>
+      <c r="E127" s="96"/>
+      <c r="F127" s="96"/>
+      <c r="G127" s="96"/>
+      <c r="H127" s="96"/>
+      <c r="I127" s="96"/>
+      <c r="J127" s="96"/>
+      <c r="K127" s="96"/>
+      <c r="L127" s="96"/>
+      <c r="M127" s="96"/>
+      <c r="N127" s="96"/>
+      <c r="O127" s="96"/>
+      <c r="P127" s="96"/>
+      <c r="Q127" s="96"/>
+      <c r="R127" s="96"/>
+      <c r="S127" s="96"/>
+      <c r="T127" s="97"/>
     </row>
     <row r="128" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A128" s="88"/>
+      <c r="A128" s="94"/>
       <c r="B128" s="55" t="s">
         <v>214</v>
       </c>
@@ -10603,11 +10619,6 @@
     <row r="160" spans="1:24" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="D126:F126"/>
-    <mergeCell ref="A3:A4"/>
     <mergeCell ref="A127:A128"/>
     <mergeCell ref="D127:T127"/>
     <mergeCell ref="D1:T1"/>
@@ -10616,9 +10627,14 @@
     <mergeCell ref="H2:R2"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="C3:T3"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="D126:F126"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D13 D15:D23 D25:D26 D28:D43 D45:D48 D50:D55 D57:D62 D65:D75 D81:D86 D88:D90 D92:D107 D119 D121:D122 D129:D159 D125">
-    <cfRule type="dataBar" priority="80">
+    <cfRule type="dataBar" priority="82">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -10627,6 +10643,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
+    <cfRule type="iconSet" priority="81">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="20"/>
+        <cfvo type="num" val="100"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:T5">
+    <cfRule type="iconSet" priority="80">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="20"/>
+        <cfvo type="num" val="100"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:T14">
     <cfRule type="iconSet" priority="79">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10635,7 +10669,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:T5">
+  <conditionalFormatting sqref="D14">
     <cfRule type="iconSet" priority="78">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10644,7 +10678,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:T14">
+  <conditionalFormatting sqref="D24">
     <cfRule type="iconSet" priority="77">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10653,7 +10687,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="D27">
     <cfRule type="iconSet" priority="76">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10662,7 +10696,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="F27:T27">
     <cfRule type="iconSet" priority="75">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10671,7 +10705,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
+  <conditionalFormatting sqref="F24:T24">
     <cfRule type="iconSet" priority="74">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10680,7 +10714,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:T27">
+  <conditionalFormatting sqref="D44">
     <cfRule type="iconSet" priority="73">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10689,7 +10723,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:T24">
+  <conditionalFormatting sqref="F44:T44">
     <cfRule type="iconSet" priority="72">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10698,7 +10732,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D49">
     <cfRule type="iconSet" priority="71">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10707,7 +10741,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:T44">
+  <conditionalFormatting sqref="F49:T49">
     <cfRule type="iconSet" priority="70">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10716,7 +10750,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D56">
     <cfRule type="iconSet" priority="69">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10725,7 +10759,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49:T49">
+  <conditionalFormatting sqref="F56:T56">
     <cfRule type="iconSet" priority="68">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10734,7 +10768,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D63:D64">
     <cfRule type="iconSet" priority="67">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10743,7 +10777,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56:T56">
+  <conditionalFormatting sqref="F63:T64">
     <cfRule type="iconSet" priority="66">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10752,7 +10786,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63:D64">
+  <conditionalFormatting sqref="F76:T80">
     <cfRule type="iconSet" priority="65">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10761,7 +10795,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F63:T64">
+  <conditionalFormatting sqref="D76:D80">
     <cfRule type="iconSet" priority="64">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10770,7 +10804,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76:T80">
+  <conditionalFormatting sqref="D87">
     <cfRule type="iconSet" priority="63">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10779,7 +10813,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76:D80">
+  <conditionalFormatting sqref="D91">
     <cfRule type="iconSet" priority="62">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10788,7 +10822,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
+  <conditionalFormatting sqref="F87:T87">
     <cfRule type="iconSet" priority="61">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10797,7 +10831,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D91">
+  <conditionalFormatting sqref="F91:T91">
     <cfRule type="iconSet" priority="60">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10806,7 +10840,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:T87">
+  <conditionalFormatting sqref="D108:D118">
     <cfRule type="iconSet" priority="59">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10815,7 +10849,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F91:T91">
+  <conditionalFormatting sqref="F108:T118">
     <cfRule type="iconSet" priority="58">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10824,7 +10858,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D108:D118">
+  <conditionalFormatting sqref="D120">
     <cfRule type="iconSet" priority="57">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10833,7 +10867,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108:T118">
+  <conditionalFormatting sqref="F120:T120">
     <cfRule type="iconSet" priority="56">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10842,7 +10876,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D120">
+  <conditionalFormatting sqref="D123:D124">
     <cfRule type="iconSet" priority="55">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10851,7 +10885,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F120:T120">
+  <conditionalFormatting sqref="F123:T123">
     <cfRule type="iconSet" priority="54">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10860,26 +10894,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D123:D124">
-    <cfRule type="iconSet" priority="53">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="20"/>
-        <cfvo type="num" val="100"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F123:T123">
-    <cfRule type="iconSet" priority="52">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="20"/>
-        <cfvo type="num" val="100"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F6:G13 F15:G23 F25:G26 F28:G43 F45:G48 F50:G55 F57:G62 F65:G75 F81:G86 F88:G90 F92:G107 F119:G119 F121:G122 F129:G159 G14 G24 G27 G44 G49 G56 G63:G64 G76:G80 G87 G91 G108:G118 G120 G123:G125 F124:F125">
-    <cfRule type="dataBar" priority="51">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -10888,7 +10904,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I13 I15:I23 I25:I26 I28:I43 I45:I48 I50:I55 I57:I62 I65:I75 I81:I86 I88:I90 I92:I107 I119 I121:I122 I129:I159 I124:I125">
-    <cfRule type="dataBar" priority="50">
+    <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -10897,7 +10913,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K13 K15:K23 K25:K26 K28:K43 K45:K48 K50:K55 K57:K62 K65:K75 K81:K86 K88:K90 K92:K107 K119 K121:K122 K124:K126 K129:K159">
-    <cfRule type="dataBar" priority="49">
+    <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -10906,7 +10922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M13 M15:M23 M25:M26 M28:M43 M45:M48 M50:M55 M57:M62 M65:M75 M81:M86 M88:M90 M92:M107 M119 M121:M122 M124:M126 M129:M159">
-    <cfRule type="dataBar" priority="48">
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -10915,7 +10931,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:O13 O15:O23 O25:O26 O28:O43 O45:O48 O50:O55 O57:O62 O65:O75 O81:O86 O88:O90 O92:O107 O119 O121:O122 O124:O126 O129:O159">
-    <cfRule type="dataBar" priority="47">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -10924,7 +10940,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q13 Q15:Q23 Q25:Q26 Q28:Q43 Q45:Q48 Q50:Q55 Q57:Q62 Q65:Q75 Q81:Q86 Q88:Q90 Q92:Q107 Q119 Q121:Q122 Q124:Q126 Q129:Q159">
-    <cfRule type="dataBar" priority="46">
+    <cfRule type="dataBar" priority="48">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -10933,7 +10949,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S13 S15:S23 S25:S26 S28:S43 S45:S48 S50:S55 S57:S62 S65:S75 S81:S86 S88:S90 S92:S107 S119 S121:S122 S124:S126 S129:S159">
-    <cfRule type="dataBar" priority="45">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -10942,6 +10958,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
+    <cfRule type="iconSet" priority="46">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="20"/>
+        <cfvo type="num" val="100"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="iconSet" priority="45">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="20"/>
+        <cfvo type="num" val="100"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
     <cfRule type="iconSet" priority="44">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10950,7 +10984,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
+  <conditionalFormatting sqref="C27">
     <cfRule type="iconSet" priority="43">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10959,7 +10993,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="C44">
     <cfRule type="iconSet" priority="42">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10968,7 +11002,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
+  <conditionalFormatting sqref="C49">
     <cfRule type="iconSet" priority="41">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10977,7 +11011,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
+  <conditionalFormatting sqref="C56">
     <cfRule type="iconSet" priority="40">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10986,7 +11020,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
+  <conditionalFormatting sqref="C63:C64">
     <cfRule type="iconSet" priority="39">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -10995,7 +11029,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
+  <conditionalFormatting sqref="C76:C80">
     <cfRule type="iconSet" priority="38">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -11004,7 +11038,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63:C64">
+  <conditionalFormatting sqref="C87">
     <cfRule type="iconSet" priority="37">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -11013,7 +11047,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C76:C80">
+  <conditionalFormatting sqref="C91">
     <cfRule type="iconSet" priority="36">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -11022,7 +11056,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
+  <conditionalFormatting sqref="C108:C118">
     <cfRule type="iconSet" priority="35">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -11031,7 +11065,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C91">
+  <conditionalFormatting sqref="C120">
     <cfRule type="iconSet" priority="34">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -11040,7 +11074,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C118">
+  <conditionalFormatting sqref="C123:C124">
     <cfRule type="iconSet" priority="33">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -11049,8 +11083,125 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G126">
+    <cfRule type="dataBar" priority="32">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="12800"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="iconSet" priority="31">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="20"/>
+        <cfvo type="num" val="100"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="iconSet" priority="30">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="20"/>
+        <cfvo type="num" val="100"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="iconSet" priority="29">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="20"/>
+        <cfvo type="num" val="100"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="iconSet" priority="28">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="20"/>
+        <cfvo type="num" val="100"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="iconSet" priority="27">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="20"/>
+        <cfvo type="num" val="100"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="iconSet" priority="26">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="20"/>
+        <cfvo type="num" val="100"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="iconSet" priority="25">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="20"/>
+        <cfvo type="num" val="100"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63:C64">
+    <cfRule type="iconSet" priority="24">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="20"/>
+        <cfvo type="num" val="100"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76:C80">
+    <cfRule type="iconSet" priority="23">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="20"/>
+        <cfvo type="num" val="100"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="iconSet" priority="22">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="20"/>
+        <cfvo type="num" val="100"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91">
+    <cfRule type="iconSet" priority="21">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="20"/>
+        <cfvo type="num" val="100"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108:C118">
+    <cfRule type="iconSet" priority="20">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="20"/>
+        <cfvo type="num" val="100"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C120">
-    <cfRule type="iconSet" priority="32">
+    <cfRule type="iconSet" priority="19">
       <iconSet>
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="20"/>
@@ -11059,123 +11210,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C123:C124">
-    <cfRule type="iconSet" priority="31">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="20"/>
-        <cfvo type="num" val="100"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G126">
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="12800"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="iconSet" priority="29">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="20"/>
-        <cfvo type="num" val="100"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="iconSet" priority="28">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="20"/>
-        <cfvo type="num" val="100"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="iconSet" priority="27">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="20"/>
-        <cfvo type="num" val="100"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="iconSet" priority="26">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="20"/>
-        <cfvo type="num" val="100"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="iconSet" priority="25">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="20"/>
-        <cfvo type="num" val="100"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="iconSet" priority="24">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="20"/>
-        <cfvo type="num" val="100"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="iconSet" priority="23">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="20"/>
-        <cfvo type="num" val="100"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63:C64">
-    <cfRule type="iconSet" priority="22">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="20"/>
-        <cfvo type="num" val="100"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C76:C80">
-    <cfRule type="iconSet" priority="21">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="20"/>
-        <cfvo type="num" val="100"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="iconSet" priority="20">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="20"/>
-        <cfvo type="num" val="100"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91">
-    <cfRule type="iconSet" priority="19">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="20"/>
-        <cfvo type="num" val="100"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C118">
     <cfRule type="iconSet" priority="18">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -11184,7 +11218,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C120">
+  <conditionalFormatting sqref="F5:H5">
     <cfRule type="iconSet" priority="17">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -11193,7 +11227,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C123:C124">
+  <conditionalFormatting sqref="F14:H14">
     <cfRule type="iconSet" priority="16">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -11202,7 +11236,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:H5">
+  <conditionalFormatting sqref="F27:H27">
     <cfRule type="iconSet" priority="15">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -11211,7 +11245,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:H14">
+  <conditionalFormatting sqref="F24:H24">
     <cfRule type="iconSet" priority="14">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -11220,7 +11254,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:H27">
+  <conditionalFormatting sqref="F44:H44">
     <cfRule type="iconSet" priority="13">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -11229,7 +11263,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:H24">
+  <conditionalFormatting sqref="F49:H49">
     <cfRule type="iconSet" priority="12">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -11238,7 +11272,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:H44">
+  <conditionalFormatting sqref="F56:H56">
     <cfRule type="iconSet" priority="11">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -11247,7 +11281,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49:H49">
+  <conditionalFormatting sqref="F63:H64">
     <cfRule type="iconSet" priority="10">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -11256,7 +11290,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56:H56">
+  <conditionalFormatting sqref="F76:H80">
     <cfRule type="iconSet" priority="9">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -11265,7 +11299,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F63:H64">
+  <conditionalFormatting sqref="F87:H87">
     <cfRule type="iconSet" priority="8">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -11274,7 +11308,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76:H80">
+  <conditionalFormatting sqref="F91:H91">
     <cfRule type="iconSet" priority="7">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -11283,7 +11317,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:H87">
+  <conditionalFormatting sqref="F108:H118">
     <cfRule type="iconSet" priority="6">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -11292,7 +11326,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F91:H91">
+  <conditionalFormatting sqref="F120:H120">
     <cfRule type="iconSet" priority="5">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -11301,7 +11335,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108:H118">
+  <conditionalFormatting sqref="F123:H123">
     <cfRule type="iconSet" priority="4">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -11310,16 +11344,16 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F120:H120">
-    <cfRule type="iconSet" priority="3">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="20"/>
+  <conditionalFormatting sqref="F6:G13 F15:G23 F25:G26 F28:G43 F45:G48 F50:G55 F57:G62 F65:G75 F81:G86 F88:G90 F92:G107 F119:G119 F121:G122 G14 G24 G27 G44 G49 G56 G63:G64 G76:G80 G87 G91 G108:G118 G120 G123:G125 F124:F125">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
-      </iconSet>
+        <color rgb="FFFFFF00"/>
+      </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F123:H123">
+  <conditionalFormatting sqref="F124:T124">
     <cfRule type="iconSet" priority="2">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -11328,13 +11362,13 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:G13 F15:G23 F25:G26 F28:G43 F45:G48 F50:G55 F57:G62 F65:G75 F81:G86 F88:G90 F92:G107 F119:G119 F121:G122 G14 G24 G27 G44 G49 G56 G63:G64 G76:G80 G87 G91 G108:G118 G120 G123:G125 F124:F125">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="num" val="0"/>
+  <conditionalFormatting sqref="F124:T124">
+    <cfRule type="iconSet" priority="1">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="20"/>
         <cfvo type="num" val="100"/>
-        <color rgb="FFFFFF00"/>
-      </dataBar>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28134,14 +28168,14 @@
   <sheetData>
     <row r="1" spans="1:55" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:55" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="142" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
       <c r="G2" s="62"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
@@ -28193,8 +28227,8 @@
       <c r="BC2" s="13"/>
     </row>
     <row r="3" spans="1:55" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A3" s="134"/>
-      <c r="B3" s="134"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="143"/>
       <c r="C3" s="67" t="s">
         <v>220</v>
       </c>
@@ -28207,41 +28241,41 @@
       <c r="F3" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="135"/>
-      <c r="T3" s="135"/>
-      <c r="U3" s="135"/>
-      <c r="V3" s="135"/>
-      <c r="W3" s="135"/>
-      <c r="X3" s="135"/>
-      <c r="Y3" s="135"/>
-      <c r="Z3" s="135"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="135"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="135"/>
-      <c r="AH3" s="135"/>
-      <c r="AI3" s="135"/>
-      <c r="AJ3" s="135"/>
-      <c r="AK3" s="135"/>
-      <c r="AL3" s="135"/>
-      <c r="AM3" s="135"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="144"/>
+      <c r="T3" s="144"/>
+      <c r="U3" s="144"/>
+      <c r="V3" s="144"/>
+      <c r="W3" s="144"/>
+      <c r="X3" s="144"/>
+      <c r="Y3" s="144"/>
+      <c r="Z3" s="144"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="144"/>
+      <c r="AC3" s="144"/>
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="144"/>
+      <c r="AF3" s="144"/>
+      <c r="AG3" s="144"/>
+      <c r="AH3" s="144"/>
+      <c r="AI3" s="144"/>
+      <c r="AJ3" s="144"/>
+      <c r="AK3" s="144"/>
+      <c r="AL3" s="144"/>
+      <c r="AM3" s="144"/>
     </row>
     <row r="4" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="140" t="s">
         <v>165</v>
       </c>
       <c r="B4" s="66" t="s">
@@ -28257,19 +28291,19 @@
       <c r="F4" s="65"/>
     </row>
     <row r="5" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="131"/>
+      <c r="A5" s="140"/>
       <c r="B5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="145" t="s">
         <v>279</v>
       </c>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="138"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="147"/>
     </row>
     <row r="6" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="131"/>
+      <c r="A6" s="140"/>
       <c r="B6" s="66" t="s">
         <v>13</v>
       </c>
@@ -28283,7 +28317,7 @@
       <c r="F6" s="65"/>
     </row>
     <row r="7" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="131"/>
+      <c r="A7" s="140"/>
       <c r="B7" s="66" t="s">
         <v>14</v>
       </c>
@@ -28297,7 +28331,7 @@
       <c r="F7" s="65"/>
     </row>
     <row r="8" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="131"/>
+      <c r="A8" s="140"/>
       <c r="B8" s="66" t="s">
         <v>15</v>
       </c>
@@ -28311,7 +28345,7 @@
       <c r="F8" s="65"/>
     </row>
     <row r="9" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="131"/>
+      <c r="A9" s="140"/>
       <c r="B9" s="66" t="s">
         <v>16</v>
       </c>
@@ -28325,7 +28359,7 @@
       <c r="F9" s="65"/>
     </row>
     <row r="10" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="131"/>
+      <c r="A10" s="140"/>
       <c r="B10" s="60" t="s">
         <v>17</v>
       </c>
@@ -28339,7 +28373,7 @@
       <c r="F10" s="65"/>
     </row>
     <row r="11" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="131"/>
+      <c r="A11" s="140"/>
       <c r="B11" s="60" t="s">
         <v>18</v>
       </c>
@@ -28353,7 +28387,7 @@
       <c r="F11" s="65"/>
     </row>
     <row r="12" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="131"/>
+      <c r="A12" s="140"/>
       <c r="B12" s="60" t="s">
         <v>19</v>
       </c>
@@ -28367,7 +28401,7 @@
       <c r="F12" s="65"/>
     </row>
     <row r="13" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="131"/>
+      <c r="A13" s="140"/>
       <c r="B13" s="60" t="s">
         <v>20</v>
       </c>
@@ -28381,7 +28415,7 @@
       <c r="F13" s="65"/>
     </row>
     <row r="14" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="131"/>
+      <c r="A14" s="140"/>
       <c r="B14" s="60" t="s">
         <v>22</v>
       </c>
@@ -28395,7 +28429,7 @@
       <c r="F14" s="65"/>
     </row>
     <row r="15" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="131"/>
+      <c r="A15" s="140"/>
       <c r="B15" s="60" t="s">
         <v>23</v>
       </c>
@@ -28409,7 +28443,7 @@
       <c r="F15" s="65"/>
     </row>
     <row r="16" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="131"/>
+      <c r="A16" s="140"/>
       <c r="B16" s="60" t="s">
         <v>21</v>
       </c>
@@ -28423,7 +28457,7 @@
       <c r="F16" s="65"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="131"/>
+      <c r="A17" s="140"/>
       <c r="B17" s="60" t="s">
         <v>24</v>
       </c>
@@ -28437,7 +28471,7 @@
       <c r="F17" s="65"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="131"/>
+      <c r="A18" s="140"/>
       <c r="B18" s="60" t="s">
         <v>25</v>
       </c>
@@ -28451,7 +28485,7 @@
       <c r="F18" s="65"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="131"/>
+      <c r="A19" s="140"/>
       <c r="B19" s="60" t="s">
         <v>26</v>
       </c>
@@ -28465,7 +28499,7 @@
       <c r="F19" s="65"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="131"/>
+      <c r="A20" s="140"/>
       <c r="B20" s="60" t="s">
         <v>27</v>
       </c>
@@ -28479,7 +28513,7 @@
       <c r="F20" s="65"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="131"/>
+      <c r="A21" s="140"/>
       <c r="B21" s="60" t="s">
         <v>28</v>
       </c>
@@ -28493,7 +28527,7 @@
       <c r="F21" s="65"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="131"/>
+      <c r="A22" s="140"/>
       <c r="B22" s="60" t="s">
         <v>29</v>
       </c>
@@ -28507,7 +28541,7 @@
       <c r="F22" s="65"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="131"/>
+      <c r="A23" s="140"/>
       <c r="B23" s="60" t="s">
         <v>30</v>
       </c>
@@ -28521,7 +28555,7 @@
       <c r="F23" s="65"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="131"/>
+      <c r="A24" s="140"/>
       <c r="B24" s="60" t="s">
         <v>31</v>
       </c>
@@ -28535,7 +28569,7 @@
       <c r="F24" s="65"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="131"/>
+      <c r="A25" s="140"/>
       <c r="B25" s="60" t="s">
         <v>32</v>
       </c>
@@ -28549,7 +28583,7 @@
       <c r="F25" s="65"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="131"/>
+      <c r="A26" s="140"/>
       <c r="B26" s="60" t="s">
         <v>33</v>
       </c>
@@ -28563,7 +28597,7 @@
       <c r="F26" s="65"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="131"/>
+      <c r="A27" s="140"/>
       <c r="B27" s="60" t="s">
         <v>34</v>
       </c>
@@ -28577,7 +28611,7 @@
       <c r="F27" s="65"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="131"/>
+      <c r="A28" s="140"/>
       <c r="B28" s="60" t="s">
         <v>35</v>
       </c>
@@ -28591,7 +28625,7 @@
       <c r="F28" s="65"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="131"/>
+      <c r="A29" s="140"/>
       <c r="B29" s="60" t="s">
         <v>36</v>
       </c>
@@ -28605,7 +28639,7 @@
       <c r="F29" s="65"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="131"/>
+      <c r="A30" s="140"/>
       <c r="B30" s="60" t="s">
         <v>37</v>
       </c>
@@ -28619,7 +28653,7 @@
       <c r="F30" s="65"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="131"/>
+      <c r="A31" s="140"/>
       <c r="B31" s="60" t="s">
         <v>38</v>
       </c>
@@ -28633,7 +28667,7 @@
       <c r="F31" s="65"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="131"/>
+      <c r="A32" s="140"/>
       <c r="B32" s="60" t="s">
         <v>39</v>
       </c>
@@ -28647,7 +28681,7 @@
       <c r="F32" s="65"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="131"/>
+      <c r="A33" s="140"/>
       <c r="B33" s="60" t="s">
         <v>40</v>
       </c>
@@ -28661,7 +28695,7 @@
       <c r="F33" s="65"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="131"/>
+      <c r="A34" s="140"/>
       <c r="B34" s="60" t="s">
         <v>41</v>
       </c>
@@ -28675,7 +28709,7 @@
       <c r="F34" s="65"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="131"/>
+      <c r="A35" s="140"/>
       <c r="B35" s="60" t="s">
         <v>42</v>
       </c>
@@ -28689,7 +28723,7 @@
       <c r="F35" s="65"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="131"/>
+      <c r="A36" s="140"/>
       <c r="B36" s="60" t="s">
         <v>43</v>
       </c>
@@ -28703,7 +28737,7 @@
       <c r="F36" s="65"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="131"/>
+      <c r="A37" s="140"/>
       <c r="B37" s="60" t="s">
         <v>44</v>
       </c>
@@ -28717,7 +28751,7 @@
       <c r="F37" s="65"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="131"/>
+      <c r="A38" s="140"/>
       <c r="B38" s="60" t="s">
         <v>45</v>
       </c>
@@ -28731,7 +28765,7 @@
       <c r="F38" s="65"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="131"/>
+      <c r="A39" s="140"/>
       <c r="B39" s="60" t="s">
         <v>46</v>
       </c>
@@ -28745,7 +28779,7 @@
       <c r="F39" s="65"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="131"/>
+      <c r="A40" s="140"/>
       <c r="B40" s="60" t="s">
         <v>47</v>
       </c>
@@ -28759,7 +28793,7 @@
       <c r="F40" s="65"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="131"/>
+      <c r="A41" s="140"/>
       <c r="B41" s="60" t="s">
         <v>48</v>
       </c>
@@ -28773,7 +28807,7 @@
       <c r="F41" s="65"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="131"/>
+      <c r="A42" s="140"/>
       <c r="B42" s="60" t="s">
         <v>49</v>
       </c>
@@ -28787,7 +28821,7 @@
       <c r="F42" s="65"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="131"/>
+      <c r="A43" s="140"/>
       <c r="B43" s="60" t="s">
         <v>50</v>
       </c>
@@ -28801,7 +28835,7 @@
       <c r="F43" s="65"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="131"/>
+      <c r="A44" s="140"/>
       <c r="B44" s="60" t="s">
         <v>51</v>
       </c>
@@ -28815,7 +28849,7 @@
       <c r="F44" s="65"/>
     </row>
     <row r="45" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="131"/>
+      <c r="A45" s="140"/>
       <c r="B45" s="60" t="s">
         <v>52</v>
       </c>
@@ -28829,7 +28863,7 @@
       <c r="F45" s="65"/>
     </row>
     <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="131"/>
+      <c r="A46" s="140"/>
       <c r="B46" s="60" t="s">
         <v>53</v>
       </c>
@@ -28843,7 +28877,7 @@
       <c r="F46" s="65"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="131"/>
+      <c r="A47" s="140"/>
       <c r="B47" s="60" t="s">
         <v>54</v>
       </c>
@@ -28857,7 +28891,7 @@
       <c r="F47" s="65"/>
     </row>
     <row r="48" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="131"/>
+      <c r="A48" s="140"/>
       <c r="B48" s="60" t="s">
         <v>55</v>
       </c>
@@ -28871,7 +28905,7 @@
       <c r="F48" s="65"/>
     </row>
     <row r="49" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A49" s="131"/>
+      <c r="A49" s="140"/>
       <c r="B49" s="60" t="s">
         <v>56</v>
       </c>
@@ -28885,7 +28919,7 @@
       <c r="F49" s="65"/>
     </row>
     <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A50" s="131"/>
+      <c r="A50" s="140"/>
       <c r="B50" s="60" t="s">
         <v>57</v>
       </c>
@@ -28899,7 +28933,7 @@
       <c r="F50" s="65"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A51" s="131"/>
+      <c r="A51" s="140"/>
       <c r="B51" s="60" t="s">
         <v>39</v>
       </c>
@@ -28913,7 +28947,7 @@
       <c r="F51" s="65"/>
     </row>
     <row r="52" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="131"/>
+      <c r="A52" s="140"/>
       <c r="B52" s="60" t="s">
         <v>59</v>
       </c>
@@ -28927,7 +28961,7 @@
       <c r="F52" s="65"/>
     </row>
     <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A53" s="131"/>
+      <c r="A53" s="140"/>
       <c r="B53" s="60" t="s">
         <v>60</v>
       </c>
@@ -28941,7 +28975,7 @@
       <c r="F53" s="65"/>
     </row>
     <row r="54" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A54" s="131"/>
+      <c r="A54" s="140"/>
       <c r="B54" s="60" t="s">
         <v>61</v>
       </c>
@@ -28955,7 +28989,7 @@
       <c r="F54" s="65"/>
     </row>
     <row r="55" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A55" s="131"/>
+      <c r="A55" s="140"/>
       <c r="B55" s="60" t="s">
         <v>62</v>
       </c>
@@ -28969,7 +29003,7 @@
       <c r="F55" s="65"/>
     </row>
     <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="131"/>
+      <c r="A56" s="140"/>
       <c r="B56" s="60" t="s">
         <v>63</v>
       </c>
@@ -28983,7 +29017,7 @@
       <c r="F56" s="65"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="131"/>
+      <c r="A57" s="140"/>
       <c r="B57" s="60" t="s">
         <v>64</v>
       </c>
@@ -28997,7 +29031,7 @@
       <c r="F57" s="65"/>
     </row>
     <row r="58" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A58" s="131"/>
+      <c r="A58" s="140"/>
       <c r="B58" s="60" t="s">
         <v>65</v>
       </c>
@@ -29011,7 +29045,7 @@
       <c r="F58" s="65"/>
     </row>
     <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A59" s="131"/>
+      <c r="A59" s="140"/>
       <c r="B59" s="60" t="s">
         <v>66</v>
       </c>
@@ -29025,7 +29059,7 @@
       <c r="F59" s="65"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A60" s="131"/>
+      <c r="A60" s="140"/>
       <c r="B60" s="60" t="s">
         <v>67</v>
       </c>
@@ -29039,7 +29073,7 @@
       <c r="F60" s="65"/>
     </row>
     <row r="61" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A61" s="131"/>
+      <c r="A61" s="140"/>
       <c r="B61" s="60" t="s">
         <v>68</v>
       </c>
@@ -29053,19 +29087,19 @@
       <c r="F61" s="65"/>
     </row>
     <row r="62" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="131"/>
+      <c r="A62" s="140"/>
       <c r="B62" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="136" t="s">
+      <c r="C62" s="145" t="s">
         <v>279</v>
       </c>
-      <c r="D62" s="137"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="138"/>
+      <c r="D62" s="146"/>
+      <c r="E62" s="146"/>
+      <c r="F62" s="147"/>
     </row>
     <row r="63" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A63" s="131"/>
+      <c r="A63" s="140"/>
       <c r="B63" s="60" t="s">
         <v>70</v>
       </c>
@@ -29079,67 +29113,67 @@
       <c r="F63" s="65"/>
     </row>
     <row r="64" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A64" s="131"/>
+      <c r="A64" s="140"/>
       <c r="B64" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="C64" s="136" t="s">
+      <c r="C64" s="145" t="s">
         <v>279</v>
       </c>
-      <c r="D64" s="137"/>
-      <c r="E64" s="137"/>
-      <c r="F64" s="138"/>
+      <c r="D64" s="146"/>
+      <c r="E64" s="146"/>
+      <c r="F64" s="147"/>
     </row>
     <row r="65" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A65" s="131"/>
+      <c r="A65" s="140"/>
       <c r="B65" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="136" t="s">
+      <c r="C65" s="145" t="s">
         <v>279</v>
       </c>
-      <c r="D65" s="137"/>
-      <c r="E65" s="137"/>
-      <c r="F65" s="138"/>
+      <c r="D65" s="146"/>
+      <c r="E65" s="146"/>
+      <c r="F65" s="147"/>
     </row>
     <row r="66" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A66" s="131"/>
+      <c r="A66" s="140"/>
       <c r="B66" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C66" s="136" t="s">
+      <c r="C66" s="145" t="s">
         <v>279</v>
       </c>
-      <c r="D66" s="137"/>
-      <c r="E66" s="137"/>
-      <c r="F66" s="138"/>
+      <c r="D66" s="146"/>
+      <c r="E66" s="146"/>
+      <c r="F66" s="147"/>
     </row>
     <row r="67" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A67" s="131"/>
+      <c r="A67" s="140"/>
       <c r="B67" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="136" t="s">
+      <c r="C67" s="145" t="s">
         <v>279</v>
       </c>
-      <c r="D67" s="137"/>
-      <c r="E67" s="137"/>
-      <c r="F67" s="138"/>
+      <c r="D67" s="146"/>
+      <c r="E67" s="146"/>
+      <c r="F67" s="147"/>
     </row>
     <row r="68" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A68" s="131"/>
+      <c r="A68" s="140"/>
       <c r="B68" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="136" t="s">
+      <c r="C68" s="145" t="s">
         <v>279</v>
       </c>
-      <c r="D68" s="137"/>
-      <c r="E68" s="137"/>
-      <c r="F68" s="138"/>
+      <c r="D68" s="146"/>
+      <c r="E68" s="146"/>
+      <c r="F68" s="147"/>
     </row>
     <row r="69" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A69" s="131"/>
+      <c r="A69" s="140"/>
       <c r="B69" s="61" t="s">
         <v>76</v>
       </c>
@@ -29151,7 +29185,7 @@
       <c r="F69" s="65"/>
     </row>
     <row r="70" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A70" s="131"/>
+      <c r="A70" s="140"/>
       <c r="B70" s="61" t="s">
         <v>77</v>
       </c>
@@ -29165,7 +29199,7 @@
       <c r="F70" s="65"/>
     </row>
     <row r="71" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A71" s="131"/>
+      <c r="A71" s="140"/>
       <c r="B71" s="61" t="s">
         <v>78</v>
       </c>
@@ -29179,7 +29213,7 @@
       <c r="F71" s="65"/>
     </row>
     <row r="72" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" s="131"/>
+      <c r="A72" s="140"/>
       <c r="B72" s="61" t="s">
         <v>79</v>
       </c>
@@ -29193,7 +29227,7 @@
       <c r="F72" s="65"/>
     </row>
     <row r="73" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A73" s="131"/>
+      <c r="A73" s="140"/>
       <c r="B73" s="61" t="s">
         <v>80</v>
       </c>
@@ -29207,7 +29241,7 @@
       <c r="F73" s="65"/>
     </row>
     <row r="74" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A74" s="131"/>
+      <c r="A74" s="140"/>
       <c r="B74" s="61" t="s">
         <v>81</v>
       </c>
@@ -29221,7 +29255,7 @@
       <c r="F74" s="65"/>
     </row>
     <row r="75" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A75" s="131"/>
+      <c r="A75" s="140"/>
       <c r="B75" s="61" t="s">
         <v>82</v>
       </c>
@@ -29235,7 +29269,7 @@
       <c r="F75" s="65"/>
     </row>
     <row r="76" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A76" s="131"/>
+      <c r="A76" s="140"/>
       <c r="B76" s="61" t="s">
         <v>83</v>
       </c>
@@ -29249,7 +29283,7 @@
       <c r="F76" s="65"/>
     </row>
     <row r="77" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A77" s="131"/>
+      <c r="A77" s="140"/>
       <c r="B77" s="61" t="s">
         <v>84</v>
       </c>
@@ -29263,7 +29297,7 @@
       <c r="F77" s="65"/>
     </row>
     <row r="78" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A78" s="131"/>
+      <c r="A78" s="140"/>
       <c r="B78" s="61" t="s">
         <v>85</v>
       </c>
@@ -29277,7 +29311,7 @@
       <c r="F78" s="65"/>
     </row>
     <row r="79" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A79" s="131"/>
+      <c r="A79" s="140"/>
       <c r="B79" s="61" t="s">
         <v>86</v>
       </c>
@@ -29291,7 +29325,7 @@
       <c r="F79" s="65"/>
     </row>
     <row r="80" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A80" s="131"/>
+      <c r="A80" s="140"/>
       <c r="B80" s="61" t="s">
         <v>87</v>
       </c>
@@ -29305,7 +29339,7 @@
       <c r="F80" s="65"/>
     </row>
     <row r="81" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A81" s="131"/>
+      <c r="A81" s="140"/>
       <c r="B81" s="61" t="s">
         <v>202</v>
       </c>
@@ -29319,7 +29353,7 @@
       <c r="F81" s="65"/>
     </row>
     <row r="82" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A82" s="131"/>
+      <c r="A82" s="140"/>
       <c r="B82" s="61" t="s">
         <v>89</v>
       </c>
@@ -29333,7 +29367,7 @@
       <c r="F82" s="65"/>
     </row>
     <row r="83" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A83" s="131"/>
+      <c r="A83" s="140"/>
       <c r="B83" s="61" t="s">
         <v>90</v>
       </c>
@@ -29347,7 +29381,7 @@
       <c r="F83" s="65"/>
     </row>
     <row r="84" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A84" s="131"/>
+      <c r="A84" s="140"/>
       <c r="B84" s="61" t="s">
         <v>91</v>
       </c>
@@ -29361,7 +29395,7 @@
       <c r="F84" s="65"/>
     </row>
     <row r="85" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A85" s="131"/>
+      <c r="A85" s="140"/>
       <c r="B85" s="61" t="s">
         <v>92</v>
       </c>
@@ -29375,7 +29409,7 @@
       <c r="F85" s="65"/>
     </row>
     <row r="86" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A86" s="131"/>
+      <c r="A86" s="140"/>
       <c r="B86" s="61" t="s">
         <v>93</v>
       </c>
@@ -29389,7 +29423,7 @@
       <c r="F86" s="65"/>
     </row>
     <row r="87" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A87" s="131"/>
+      <c r="A87" s="140"/>
       <c r="B87" s="61" t="s">
         <v>94</v>
       </c>
@@ -29403,7 +29437,7 @@
       <c r="F87" s="65"/>
     </row>
     <row r="88" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A88" s="131"/>
+      <c r="A88" s="140"/>
       <c r="B88" s="61" t="s">
         <v>95</v>
       </c>
@@ -29417,7 +29451,7 @@
       <c r="F88" s="65"/>
     </row>
     <row r="89" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A89" s="131"/>
+      <c r="A89" s="140"/>
       <c r="B89" s="61" t="s">
         <v>96</v>
       </c>
@@ -29431,7 +29465,7 @@
       <c r="F89" s="65"/>
     </row>
     <row r="90" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A90" s="131"/>
+      <c r="A90" s="140"/>
       <c r="B90" s="61" t="s">
         <v>97</v>
       </c>
@@ -29445,7 +29479,7 @@
       <c r="F90" s="65"/>
     </row>
     <row r="91" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A91" s="131"/>
+      <c r="A91" s="140"/>
       <c r="B91" s="61" t="s">
         <v>98</v>
       </c>
@@ -29459,7 +29493,7 @@
       <c r="F91" s="65"/>
     </row>
     <row r="92" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A92" s="131"/>
+      <c r="A92" s="140"/>
       <c r="B92" s="61" t="s">
         <v>100</v>
       </c>
@@ -29473,7 +29507,7 @@
       <c r="F92" s="65"/>
     </row>
     <row r="93" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A93" s="131"/>
+      <c r="A93" s="140"/>
       <c r="B93" s="61" t="s">
         <v>101</v>
       </c>
@@ -29487,7 +29521,7 @@
       <c r="F93" s="65"/>
     </row>
     <row r="94" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A94" s="131"/>
+      <c r="A94" s="140"/>
       <c r="B94" s="61" t="s">
         <v>102</v>
       </c>
@@ -29501,7 +29535,7 @@
       <c r="F94" s="65"/>
     </row>
     <row r="95" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A95" s="131"/>
+      <c r="A95" s="140"/>
       <c r="B95" s="61" t="s">
         <v>103</v>
       </c>
@@ -29515,7 +29549,7 @@
       <c r="F95" s="65"/>
     </row>
     <row r="96" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A96" s="131"/>
+      <c r="A96" s="140"/>
       <c r="B96" s="61" t="s">
         <v>104</v>
       </c>
@@ -29529,7 +29563,7 @@
       <c r="F96" s="65"/>
     </row>
     <row r="97" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A97" s="131"/>
+      <c r="A97" s="140"/>
       <c r="B97" s="61" t="s">
         <v>105</v>
       </c>
@@ -29543,7 +29577,7 @@
       <c r="F97" s="65"/>
     </row>
     <row r="98" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A98" s="131"/>
+      <c r="A98" s="140"/>
       <c r="B98" s="61" t="s">
         <v>106</v>
       </c>
@@ -29557,7 +29591,7 @@
       <c r="F98" s="65"/>
     </row>
     <row r="99" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A99" s="131"/>
+      <c r="A99" s="140"/>
       <c r="B99" s="61" t="s">
         <v>107</v>
       </c>
@@ -29571,7 +29605,7 @@
       <c r="F99" s="65"/>
     </row>
     <row r="100" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A100" s="131"/>
+      <c r="A100" s="140"/>
       <c r="B100" s="61" t="s">
         <v>108</v>
       </c>
@@ -29585,7 +29619,7 @@
       <c r="F100" s="65"/>
     </row>
     <row r="101" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A101" s="131"/>
+      <c r="A101" s="140"/>
       <c r="B101" s="61" t="s">
         <v>109</v>
       </c>
@@ -29599,7 +29633,7 @@
       <c r="F101" s="65"/>
     </row>
     <row r="102" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A102" s="131"/>
+      <c r="A102" s="140"/>
       <c r="B102" s="61" t="s">
         <v>110</v>
       </c>
@@ -29613,7 +29647,7 @@
       <c r="F102" s="65"/>
     </row>
     <row r="103" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A103" s="131"/>
+      <c r="A103" s="140"/>
       <c r="B103" s="61" t="s">
         <v>111</v>
       </c>
@@ -29627,7 +29661,7 @@
       <c r="F103" s="65"/>
     </row>
     <row r="104" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A104" s="131"/>
+      <c r="A104" s="140"/>
       <c r="B104" s="61" t="s">
         <v>112</v>
       </c>
@@ -29641,7 +29675,7 @@
       <c r="F104" s="65"/>
     </row>
     <row r="105" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A105" s="131"/>
+      <c r="A105" s="140"/>
       <c r="B105" s="61" t="s">
         <v>113</v>
       </c>
@@ -29655,139 +29689,139 @@
       <c r="F105" s="73"/>
     </row>
     <row r="106" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A106" s="131"/>
+      <c r="A106" s="140"/>
       <c r="B106" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="C106" s="142" t="s">
+      <c r="C106" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="D106" s="143"/>
-      <c r="E106" s="143"/>
-      <c r="F106" s="144"/>
+      <c r="D106" s="135"/>
+      <c r="E106" s="135"/>
+      <c r="F106" s="136"/>
     </row>
     <row r="107" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A107" s="131"/>
+      <c r="A107" s="140"/>
       <c r="B107" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="C107" s="142" t="s">
+      <c r="C107" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="D107" s="143"/>
-      <c r="E107" s="143"/>
-      <c r="F107" s="144"/>
+      <c r="D107" s="135"/>
+      <c r="E107" s="135"/>
+      <c r="F107" s="136"/>
     </row>
     <row r="108" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A108" s="131"/>
+      <c r="A108" s="140"/>
       <c r="B108" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="C108" s="142" t="s">
+      <c r="C108" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="D108" s="143"/>
-      <c r="E108" s="143"/>
-      <c r="F108" s="144"/>
+      <c r="D108" s="135"/>
+      <c r="E108" s="135"/>
+      <c r="F108" s="136"/>
     </row>
     <row r="109" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A109" s="131"/>
+      <c r="A109" s="140"/>
       <c r="B109" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="C109" s="142" t="s">
+      <c r="C109" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="D109" s="143"/>
-      <c r="E109" s="143"/>
-      <c r="F109" s="144"/>
+      <c r="D109" s="135"/>
+      <c r="E109" s="135"/>
+      <c r="F109" s="136"/>
     </row>
     <row r="110" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A110" s="131"/>
+      <c r="A110" s="140"/>
       <c r="B110" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="C110" s="142" t="s">
+      <c r="C110" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="D110" s="143"/>
-      <c r="E110" s="143"/>
-      <c r="F110" s="144"/>
+      <c r="D110" s="135"/>
+      <c r="E110" s="135"/>
+      <c r="F110" s="136"/>
     </row>
     <row r="111" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A111" s="131"/>
+      <c r="A111" s="140"/>
       <c r="B111" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="C111" s="142" t="s">
+      <c r="C111" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="D111" s="143"/>
-      <c r="E111" s="143"/>
-      <c r="F111" s="144"/>
+      <c r="D111" s="135"/>
+      <c r="E111" s="135"/>
+      <c r="F111" s="136"/>
     </row>
     <row r="112" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A112" s="131"/>
+      <c r="A112" s="140"/>
       <c r="B112" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="C112" s="142" t="s">
+      <c r="C112" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="D112" s="143"/>
-      <c r="E112" s="143"/>
-      <c r="F112" s="144"/>
+      <c r="D112" s="135"/>
+      <c r="E112" s="135"/>
+      <c r="F112" s="136"/>
     </row>
     <row r="113" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A113" s="131"/>
+      <c r="A113" s="140"/>
       <c r="B113" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="C113" s="142" t="s">
+      <c r="C113" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="D113" s="143"/>
-      <c r="E113" s="143"/>
-      <c r="F113" s="144"/>
+      <c r="D113" s="135"/>
+      <c r="E113" s="135"/>
+      <c r="F113" s="136"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A114" s="131"/>
+      <c r="A114" s="140"/>
       <c r="B114" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="C114" s="142" t="s">
+      <c r="C114" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="D114" s="143"/>
-      <c r="E114" s="143"/>
-      <c r="F114" s="144"/>
+      <c r="D114" s="135"/>
+      <c r="E114" s="135"/>
+      <c r="F114" s="136"/>
     </row>
     <row r="115" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A115" s="131"/>
+      <c r="A115" s="140"/>
       <c r="B115" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="C115" s="142" t="s">
+      <c r="C115" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="D115" s="143"/>
-      <c r="E115" s="143"/>
-      <c r="F115" s="144"/>
+      <c r="D115" s="135"/>
+      <c r="E115" s="135"/>
+      <c r="F115" s="136"/>
     </row>
     <row r="116" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A116" s="131"/>
+      <c r="A116" s="140"/>
       <c r="B116" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="C116" s="142" t="s">
+      <c r="C116" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="D116" s="143"/>
-      <c r="E116" s="143"/>
-      <c r="F116" s="144"/>
+      <c r="D116" s="135"/>
+      <c r="E116" s="135"/>
+      <c r="F116" s="136"/>
     </row>
     <row r="117" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A117" s="131"/>
+      <c r="A117" s="140"/>
       <c r="B117" s="72" t="s">
         <v>125</v>
       </c>
@@ -29801,7 +29835,7 @@
       <c r="F117" s="73"/>
     </row>
     <row r="118" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A118" s="131"/>
+      <c r="A118" s="140"/>
       <c r="B118" s="72" t="s">
         <v>126</v>
       </c>
@@ -29815,7 +29849,7 @@
       <c r="F118" s="73"/>
     </row>
     <row r="119" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A119" s="131"/>
+      <c r="A119" s="140"/>
       <c r="B119" s="72" t="s">
         <v>127</v>
       </c>
@@ -29829,7 +29863,7 @@
       <c r="F119" s="73"/>
     </row>
     <row r="120" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A120" s="131"/>
+      <c r="A120" s="140"/>
       <c r="B120" s="61" t="s">
         <v>128</v>
       </c>
@@ -29843,7 +29877,7 @@
       <c r="F120" s="73"/>
     </row>
     <row r="121" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A121" s="131"/>
+      <c r="A121" s="140"/>
       <c r="B121" s="61" t="s">
         <v>129</v>
       </c>
@@ -29857,7 +29891,7 @@
       <c r="F121" s="73"/>
     </row>
     <row r="122" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A122" s="131"/>
+      <c r="A122" s="140"/>
       <c r="B122" s="61" t="s">
         <v>131</v>
       </c>
@@ -29871,7 +29905,7 @@
       <c r="F122" s="73"/>
     </row>
     <row r="123" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A123" s="131"/>
+      <c r="A123" s="140"/>
       <c r="B123" s="58"/>
       <c r="C123" s="73"/>
       <c r="D123" s="73"/>
@@ -29879,7 +29913,7 @@
       <c r="F123" s="73"/>
     </row>
     <row r="124" spans="1:6" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A124" s="131"/>
+      <c r="A124" s="140"/>
       <c r="B124" s="58"/>
       <c r="C124" s="73"/>
       <c r="D124" s="73"/>
@@ -29887,65 +29921,65 @@
       <c r="F124" s="73"/>
     </row>
     <row r="125" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A125" s="139"/>
-      <c r="B125" s="140"/>
-      <c r="C125" s="140"/>
-      <c r="D125" s="140"/>
-      <c r="E125" s="140"/>
-      <c r="F125" s="141"/>
+      <c r="A125" s="148"/>
+      <c r="B125" s="149"/>
+      <c r="C125" s="149"/>
+      <c r="D125" s="149"/>
+      <c r="E125" s="149"/>
+      <c r="F125" s="150"/>
     </row>
     <row r="126" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A126" s="132" t="s">
+      <c r="A126" s="141" t="s">
         <v>177</v>
       </c>
       <c r="B126" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="C126" s="142" t="s">
+      <c r="C126" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="D126" s="143"/>
-      <c r="E126" s="143"/>
-      <c r="F126" s="144"/>
+      <c r="D126" s="135"/>
+      <c r="E126" s="135"/>
+      <c r="F126" s="136"/>
     </row>
     <row r="127" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A127" s="132"/>
+      <c r="A127" s="141"/>
       <c r="B127" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C127" s="142" t="s">
+      <c r="C127" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="D127" s="143"/>
-      <c r="E127" s="143"/>
-      <c r="F127" s="144"/>
+      <c r="D127" s="135"/>
+      <c r="E127" s="135"/>
+      <c r="F127" s="136"/>
     </row>
     <row r="128" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A128" s="132"/>
+      <c r="A128" s="141"/>
       <c r="B128" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="C128" s="142" t="s">
+      <c r="C128" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="D128" s="143"/>
-      <c r="E128" s="143"/>
-      <c r="F128" s="144"/>
+      <c r="D128" s="135"/>
+      <c r="E128" s="135"/>
+      <c r="F128" s="136"/>
     </row>
     <row r="129" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A129" s="132"/>
+      <c r="A129" s="141"/>
       <c r="B129" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="C129" s="142" t="s">
+      <c r="C129" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="D129" s="143"/>
-      <c r="E129" s="143"/>
-      <c r="F129" s="144"/>
+      <c r="D129" s="135"/>
+      <c r="E129" s="135"/>
+      <c r="F129" s="136"/>
     </row>
     <row r="130" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A130" s="132"/>
+      <c r="A130" s="141"/>
       <c r="B130" s="60" t="s">
         <v>139</v>
       </c>
@@ -29959,31 +29993,31 @@
       <c r="F130" s="77"/>
     </row>
     <row r="131" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A131" s="132"/>
+      <c r="A131" s="141"/>
       <c r="B131" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="C131" s="145" t="s">
+      <c r="C131" s="131" t="s">
         <v>243</v>
       </c>
-      <c r="D131" s="146"/>
-      <c r="E131" s="146"/>
-      <c r="F131" s="147"/>
+      <c r="D131" s="132"/>
+      <c r="E131" s="132"/>
+      <c r="F131" s="133"/>
     </row>
     <row r="132" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A132" s="132"/>
+      <c r="A132" s="141"/>
       <c r="B132" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="C132" s="145" t="s">
+      <c r="C132" s="131" t="s">
         <v>243</v>
       </c>
-      <c r="D132" s="146"/>
-      <c r="E132" s="146"/>
-      <c r="F132" s="147"/>
+      <c r="D132" s="132"/>
+      <c r="E132" s="132"/>
+      <c r="F132" s="133"/>
     </row>
     <row r="133" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A133" s="132"/>
+      <c r="A133" s="141"/>
       <c r="B133" s="60" t="s">
         <v>142</v>
       </c>
@@ -29997,7 +30031,7 @@
       <c r="F133" s="65"/>
     </row>
     <row r="134" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A134" s="132"/>
+      <c r="A134" s="141"/>
       <c r="B134" s="60" t="s">
         <v>143</v>
       </c>
@@ -30011,79 +30045,79 @@
       <c r="F134" s="65"/>
     </row>
     <row r="135" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A135" s="132"/>
+      <c r="A135" s="141"/>
       <c r="B135" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="C135" s="145" t="s">
+      <c r="C135" s="131" t="s">
         <v>243</v>
       </c>
-      <c r="D135" s="146"/>
-      <c r="E135" s="146"/>
-      <c r="F135" s="147"/>
+      <c r="D135" s="132"/>
+      <c r="E135" s="132"/>
+      <c r="F135" s="133"/>
     </row>
     <row r="136" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A136" s="132"/>
+      <c r="A136" s="141"/>
       <c r="B136" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="C136" s="145" t="s">
+      <c r="C136" s="131" t="s">
         <v>243</v>
       </c>
-      <c r="D136" s="146"/>
-      <c r="E136" s="146"/>
-      <c r="F136" s="147"/>
+      <c r="D136" s="132"/>
+      <c r="E136" s="132"/>
+      <c r="F136" s="133"/>
     </row>
     <row r="137" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A137" s="132"/>
+      <c r="A137" s="141"/>
       <c r="B137" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="C137" s="145" t="s">
+      <c r="C137" s="131" t="s">
         <v>243</v>
       </c>
-      <c r="D137" s="146"/>
-      <c r="E137" s="146"/>
-      <c r="F137" s="147"/>
+      <c r="D137" s="132"/>
+      <c r="E137" s="132"/>
+      <c r="F137" s="133"/>
     </row>
     <row r="138" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A138" s="132"/>
+      <c r="A138" s="141"/>
       <c r="B138" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C138" s="145" t="s">
+      <c r="C138" s="131" t="s">
         <v>243</v>
       </c>
-      <c r="D138" s="146"/>
-      <c r="E138" s="146"/>
-      <c r="F138" s="147"/>
+      <c r="D138" s="132"/>
+      <c r="E138" s="132"/>
+      <c r="F138" s="133"/>
     </row>
     <row r="139" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A139" s="132"/>
+      <c r="A139" s="141"/>
       <c r="B139" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="C139" s="145" t="s">
+      <c r="C139" s="131" t="s">
         <v>243</v>
       </c>
-      <c r="D139" s="146"/>
-      <c r="E139" s="146"/>
-      <c r="F139" s="147"/>
+      <c r="D139" s="132"/>
+      <c r="E139" s="132"/>
+      <c r="F139" s="133"/>
     </row>
     <row r="140" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A140" s="132"/>
+      <c r="A140" s="141"/>
       <c r="B140" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="C140" s="145" t="s">
+      <c r="C140" s="131" t="s">
         <v>243</v>
       </c>
-      <c r="D140" s="146"/>
-      <c r="E140" s="146"/>
-      <c r="F140" s="147"/>
+      <c r="D140" s="132"/>
+      <c r="E140" s="132"/>
+      <c r="F140" s="133"/>
     </row>
     <row r="141" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A141" s="132"/>
+      <c r="A141" s="141"/>
       <c r="B141" s="60" t="s">
         <v>151</v>
       </c>
@@ -30097,7 +30131,7 @@
       <c r="F141" s="65"/>
     </row>
     <row r="142" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A142" s="132"/>
+      <c r="A142" s="141"/>
       <c r="B142" s="60" t="s">
         <v>152</v>
       </c>
@@ -30111,7 +30145,7 @@
       <c r="F142" s="65"/>
     </row>
     <row r="143" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A143" s="132"/>
+      <c r="A143" s="141"/>
       <c r="B143" s="60" t="s">
         <v>153</v>
       </c>
@@ -30125,7 +30159,7 @@
       <c r="F143" s="65"/>
     </row>
     <row r="144" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A144" s="132"/>
+      <c r="A144" s="141"/>
       <c r="B144" s="60" t="s">
         <v>154</v>
       </c>
@@ -30139,19 +30173,19 @@
       <c r="F144" s="65"/>
     </row>
     <row r="145" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A145" s="132"/>
+      <c r="A145" s="141"/>
       <c r="B145" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="C145" s="148" t="s">
+      <c r="C145" s="137" t="s">
         <v>280</v>
       </c>
-      <c r="D145" s="149"/>
-      <c r="E145" s="149"/>
-      <c r="F145" s="150"/>
+      <c r="D145" s="138"/>
+      <c r="E145" s="138"/>
+      <c r="F145" s="139"/>
     </row>
     <row r="146" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A146" s="132"/>
+      <c r="A146" s="141"/>
       <c r="B146" s="60" t="s">
         <v>156</v>
       </c>
@@ -30165,7 +30199,7 @@
       <c r="F146" s="65"/>
     </row>
     <row r="147" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A147" s="132"/>
+      <c r="A147" s="141"/>
       <c r="B147" s="60" t="s">
         <v>157</v>
       </c>
@@ -30179,7 +30213,7 @@
       <c r="F147" s="65"/>
     </row>
     <row r="148" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A148" s="132"/>
+      <c r="A148" s="141"/>
       <c r="B148" s="60" t="s">
         <v>158</v>
       </c>
@@ -30193,31 +30227,31 @@
       <c r="F148" s="65"/>
     </row>
     <row r="149" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A149" s="132"/>
+      <c r="A149" s="141"/>
       <c r="B149" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="C149" s="145" t="s">
+      <c r="C149" s="131" t="s">
         <v>243</v>
       </c>
-      <c r="D149" s="146"/>
-      <c r="E149" s="146"/>
-      <c r="F149" s="147"/>
+      <c r="D149" s="132"/>
+      <c r="E149" s="132"/>
+      <c r="F149" s="133"/>
     </row>
     <row r="150" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A150" s="132"/>
+      <c r="A150" s="141"/>
       <c r="B150" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="C150" s="145" t="s">
+      <c r="C150" s="131" t="s">
         <v>243</v>
       </c>
-      <c r="D150" s="146"/>
-      <c r="E150" s="146"/>
-      <c r="F150" s="147"/>
+      <c r="D150" s="132"/>
+      <c r="E150" s="132"/>
+      <c r="F150" s="133"/>
     </row>
     <row r="151" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A151" s="132"/>
+      <c r="A151" s="141"/>
       <c r="B151" s="60" t="s">
         <v>208</v>
       </c>
@@ -30229,19 +30263,19 @@
       <c r="F151" s="65"/>
     </row>
     <row r="152" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A152" s="132"/>
+      <c r="A152" s="141"/>
       <c r="B152" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="C152" s="145" t="s">
+      <c r="C152" s="131" t="s">
         <v>243</v>
       </c>
-      <c r="D152" s="146"/>
-      <c r="E152" s="146"/>
-      <c r="F152" s="147"/>
+      <c r="D152" s="132"/>
+      <c r="E152" s="132"/>
+      <c r="F152" s="133"/>
     </row>
     <row r="153" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A153" s="132"/>
+      <c r="A153" s="141"/>
       <c r="B153" s="60" t="s">
         <v>210</v>
       </c>
@@ -30255,7 +30289,7 @@
       <c r="F153" s="65"/>
     </row>
     <row r="154" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A154" s="132"/>
+      <c r="A154" s="141"/>
       <c r="B154" s="60" t="s">
         <v>211</v>
       </c>
@@ -30269,19 +30303,19 @@
       <c r="F154" s="65"/>
     </row>
     <row r="155" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A155" s="132"/>
+      <c r="A155" s="141"/>
       <c r="B155" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="C155" s="145" t="s">
+      <c r="C155" s="131" t="s">
         <v>243</v>
       </c>
-      <c r="D155" s="146"/>
-      <c r="E155" s="146"/>
-      <c r="F155" s="147"/>
+      <c r="D155" s="132"/>
+      <c r="E155" s="132"/>
+      <c r="F155" s="133"/>
     </row>
     <row r="156" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A156" s="132"/>
+      <c r="A156" s="141"/>
       <c r="B156" s="60" t="s">
         <v>188</v>
       </c>
@@ -30293,7 +30327,7 @@
       <c r="F156" s="65"/>
     </row>
     <row r="157" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A157" s="132"/>
+      <c r="A157" s="141"/>
       <c r="B157" s="61" t="s">
         <v>189</v>
       </c>
@@ -30305,7 +30339,7 @@
       <c r="F157" s="65"/>
     </row>
     <row r="158" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A158" s="132"/>
+      <c r="A158" s="141"/>
       <c r="B158" s="61" t="s">
         <v>190</v>
       </c>
@@ -30317,7 +30351,7 @@
       <c r="F158" s="65"/>
     </row>
     <row r="159" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A159" s="132"/>
+      <c r="A159" s="141"/>
       <c r="B159" s="61" t="s">
         <v>191</v>
       </c>
@@ -30329,7 +30363,7 @@
       <c r="F159" s="65"/>
     </row>
     <row r="160" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A160" s="132"/>
+      <c r="A160" s="141"/>
       <c r="B160" s="61" t="s">
         <v>192</v>
       </c>
@@ -30343,31 +30377,6 @@
     <row r="161" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C150:F150"/>
-    <mergeCell ref="C152:F152"/>
-    <mergeCell ref="C155:F155"/>
-    <mergeCell ref="C116:F116"/>
-    <mergeCell ref="C145:F145"/>
-    <mergeCell ref="C135:F135"/>
-    <mergeCell ref="C136:F136"/>
-    <mergeCell ref="C137:F137"/>
-    <mergeCell ref="C138:F138"/>
-    <mergeCell ref="C139:F139"/>
-    <mergeCell ref="C140:F140"/>
-    <mergeCell ref="C128:F128"/>
-    <mergeCell ref="C129:F129"/>
-    <mergeCell ref="C131:F131"/>
-    <mergeCell ref="C132:F132"/>
-    <mergeCell ref="C112:F112"/>
-    <mergeCell ref="C113:F113"/>
-    <mergeCell ref="C114:F114"/>
-    <mergeCell ref="C115:F115"/>
-    <mergeCell ref="C149:F149"/>
-    <mergeCell ref="C107:F107"/>
-    <mergeCell ref="C108:F108"/>
-    <mergeCell ref="C109:F109"/>
-    <mergeCell ref="C110:F110"/>
-    <mergeCell ref="C111:F111"/>
     <mergeCell ref="A4:A124"/>
     <mergeCell ref="A126:A160"/>
     <mergeCell ref="A2:F2"/>
@@ -30384,6 +30393,31 @@
     <mergeCell ref="C126:F126"/>
     <mergeCell ref="C127:F127"/>
     <mergeCell ref="C106:F106"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="C109:F109"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="C112:F112"/>
+    <mergeCell ref="C113:F113"/>
+    <mergeCell ref="C114:F114"/>
+    <mergeCell ref="C115:F115"/>
+    <mergeCell ref="C149:F149"/>
+    <mergeCell ref="C150:F150"/>
+    <mergeCell ref="C152:F152"/>
+    <mergeCell ref="C155:F155"/>
+    <mergeCell ref="C116:F116"/>
+    <mergeCell ref="C145:F145"/>
+    <mergeCell ref="C135:F135"/>
+    <mergeCell ref="C136:F136"/>
+    <mergeCell ref="C137:F137"/>
+    <mergeCell ref="C138:F138"/>
+    <mergeCell ref="C139:F139"/>
+    <mergeCell ref="C140:F140"/>
+    <mergeCell ref="C128:F128"/>
+    <mergeCell ref="C129:F129"/>
+    <mergeCell ref="C131:F131"/>
+    <mergeCell ref="C132:F132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30411,26 +30445,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="163" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="153"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="165"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A2" s="154"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="168"/>
     </row>
     <row r="3" spans="1:6" s="71" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="162"/>
-      <c r="B3" s="163"/>
+      <c r="A3" s="171"/>
+      <c r="B3" s="172"/>
       <c r="C3" s="70" t="s">
         <v>220</v>
       </c>
@@ -30445,7 +30479,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="140" t="s">
         <v>165</v>
       </c>
       <c r="B4" s="60" t="s">
@@ -30463,7 +30497,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="131"/>
+      <c r="A5" s="140"/>
       <c r="B5" s="60" t="s">
         <v>12</v>
       </c>
@@ -30479,7 +30513,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="131"/>
+      <c r="A6" s="140"/>
       <c r="B6" s="60" t="s">
         <v>13</v>
       </c>
@@ -30495,7 +30529,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="131"/>
+      <c r="A7" s="140"/>
       <c r="B7" s="60" t="s">
         <v>14</v>
       </c>
@@ -30507,7 +30541,7 @@
       <c r="F7" s="65"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="131"/>
+      <c r="A8" s="140"/>
       <c r="B8" s="60" t="s">
         <v>15</v>
       </c>
@@ -30523,7 +30557,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="131"/>
+      <c r="A9" s="140"/>
       <c r="B9" s="60" t="s">
         <v>16</v>
       </c>
@@ -30539,19 +30573,19 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="131"/>
+      <c r="A10" s="140"/>
       <c r="B10" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="164" t="s">
+      <c r="C10" s="151" t="s">
         <v>242</v>
       </c>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="166"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="153"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="131"/>
+      <c r="A11" s="140"/>
       <c r="B11" s="60" t="s">
         <v>18</v>
       </c>
@@ -30565,7 +30599,7 @@
       <c r="F11" s="65"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="131"/>
+      <c r="A12" s="140"/>
       <c r="B12" s="60" t="s">
         <v>19</v>
       </c>
@@ -30581,7 +30615,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="131"/>
+      <c r="A13" s="140"/>
       <c r="B13" s="60" t="s">
         <v>20</v>
       </c>
@@ -30595,7 +30629,7 @@
       <c r="F13" s="65"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="131"/>
+      <c r="A14" s="140"/>
       <c r="B14" s="60" t="s">
         <v>21</v>
       </c>
@@ -30611,7 +30645,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="131"/>
+      <c r="A15" s="140"/>
       <c r="B15" s="60" t="s">
         <v>22</v>
       </c>
@@ -30627,7 +30661,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="131"/>
+      <c r="A16" s="140"/>
       <c r="B16" s="60" t="s">
         <v>23</v>
       </c>
@@ -30643,7 +30677,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="131"/>
+      <c r="A17" s="140"/>
       <c r="B17" s="60" t="s">
         <v>24</v>
       </c>
@@ -30659,7 +30693,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="131"/>
+      <c r="A18" s="140"/>
       <c r="B18" s="60" t="s">
         <v>25</v>
       </c>
@@ -30673,7 +30707,7 @@
       <c r="F18" s="65"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="131"/>
+      <c r="A19" s="140"/>
       <c r="B19" s="60" t="s">
         <v>26</v>
       </c>
@@ -30687,7 +30721,7 @@
       <c r="F19" s="65"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="131"/>
+      <c r="A20" s="140"/>
       <c r="B20" s="60" t="s">
         <v>27</v>
       </c>
@@ -30701,7 +30735,7 @@
       <c r="F20" s="65"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="131"/>
+      <c r="A21" s="140"/>
       <c r="B21" s="60" t="s">
         <v>28</v>
       </c>
@@ -30715,7 +30749,7 @@
       <c r="F21" s="65"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="131"/>
+      <c r="A22" s="140"/>
       <c r="B22" s="60" t="s">
         <v>29</v>
       </c>
@@ -30729,7 +30763,7 @@
       <c r="F22" s="65"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="131"/>
+      <c r="A23" s="140"/>
       <c r="B23" s="60" t="s">
         <v>30</v>
       </c>
@@ -30743,7 +30777,7 @@
       <c r="F23" s="65"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="131"/>
+      <c r="A24" s="140"/>
       <c r="B24" s="60" t="s">
         <v>31</v>
       </c>
@@ -30757,7 +30791,7 @@
       <c r="F24" s="65"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="131"/>
+      <c r="A25" s="140"/>
       <c r="B25" s="60" t="s">
         <v>32</v>
       </c>
@@ -30771,7 +30805,7 @@
       <c r="F25" s="65"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="131"/>
+      <c r="A26" s="140"/>
       <c r="B26" s="60" t="s">
         <v>33</v>
       </c>
@@ -30785,19 +30819,19 @@
       <c r="F26" s="65"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="131"/>
+      <c r="A27" s="140"/>
       <c r="B27" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="164" t="s">
+      <c r="C27" s="151" t="s">
         <v>242</v>
       </c>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="166"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="153"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="131"/>
+      <c r="A28" s="140"/>
       <c r="B28" s="60" t="s">
         <v>35</v>
       </c>
@@ -30811,7 +30845,7 @@
       <c r="F28" s="65"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="131"/>
+      <c r="A29" s="140"/>
       <c r="B29" s="60" t="s">
         <v>36</v>
       </c>
@@ -30825,7 +30859,7 @@
       <c r="F29" s="65"/>
     </row>
     <row r="30" spans="1:6" ht="17.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A30" s="131"/>
+      <c r="A30" s="140"/>
       <c r="B30" s="60" t="s">
         <v>37</v>
       </c>
@@ -30841,7 +30875,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="131"/>
+      <c r="A31" s="140"/>
       <c r="B31" s="60" t="s">
         <v>38</v>
       </c>
@@ -30855,7 +30889,7 @@
       <c r="F31" s="65"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="131"/>
+      <c r="A32" s="140"/>
       <c r="B32" s="60" t="s">
         <v>39</v>
       </c>
@@ -30869,7 +30903,7 @@
       <c r="F32" s="65"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="131"/>
+      <c r="A33" s="140"/>
       <c r="B33" s="60" t="s">
         <v>40</v>
       </c>
@@ -30883,7 +30917,7 @@
       <c r="F33" s="65"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="131"/>
+      <c r="A34" s="140"/>
       <c r="B34" s="60" t="s">
         <v>41</v>
       </c>
@@ -30897,7 +30931,7 @@
       <c r="F34" s="65"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="131"/>
+      <c r="A35" s="140"/>
       <c r="B35" s="60" t="s">
         <v>42</v>
       </c>
@@ -30911,7 +30945,7 @@
       <c r="F35" s="65"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="131"/>
+      <c r="A36" s="140"/>
       <c r="B36" s="60" t="s">
         <v>43</v>
       </c>
@@ -30925,7 +30959,7 @@
       <c r="F36" s="65"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="131"/>
+      <c r="A37" s="140"/>
       <c r="B37" s="60" t="s">
         <v>44</v>
       </c>
@@ -30939,7 +30973,7 @@
       <c r="F37" s="65"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="131"/>
+      <c r="A38" s="140"/>
       <c r="B38" s="60" t="s">
         <v>45</v>
       </c>
@@ -30953,7 +30987,7 @@
       <c r="F38" s="65"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="131"/>
+      <c r="A39" s="140"/>
       <c r="B39" s="60" t="s">
         <v>46</v>
       </c>
@@ -30967,7 +31001,7 @@
       <c r="F39" s="65"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="131"/>
+      <c r="A40" s="140"/>
       <c r="B40" s="60" t="s">
         <v>47</v>
       </c>
@@ -30981,7 +31015,7 @@
       <c r="F40" s="65"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="131"/>
+      <c r="A41" s="140"/>
       <c r="B41" s="60" t="s">
         <v>38</v>
       </c>
@@ -30995,7 +31029,7 @@
       <c r="F41" s="65"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="131"/>
+      <c r="A42" s="140"/>
       <c r="B42" s="60" t="s">
         <v>49</v>
       </c>
@@ -31009,7 +31043,7 @@
       <c r="F42" s="65"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="131"/>
+      <c r="A43" s="140"/>
       <c r="B43" s="60" t="s">
         <v>50</v>
       </c>
@@ -31023,7 +31057,7 @@
       <c r="F43" s="65"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="131"/>
+      <c r="A44" s="140"/>
       <c r="B44" s="60" t="s">
         <v>51</v>
       </c>
@@ -31037,7 +31071,7 @@
       <c r="F44" s="65"/>
     </row>
     <row r="45" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="131"/>
+      <c r="A45" s="140"/>
       <c r="B45" s="60" t="s">
         <v>52</v>
       </c>
@@ -31051,7 +31085,7 @@
       <c r="F45" s="65"/>
     </row>
     <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="131"/>
+      <c r="A46" s="140"/>
       <c r="B46" s="60" t="s">
         <v>53</v>
       </c>
@@ -31065,7 +31099,7 @@
       <c r="F46" s="65"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="131"/>
+      <c r="A47" s="140"/>
       <c r="B47" s="60" t="s">
         <v>54</v>
       </c>
@@ -31079,7 +31113,7 @@
       <c r="F47" s="65"/>
     </row>
     <row r="48" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="131"/>
+      <c r="A48" s="140"/>
       <c r="B48" s="60" t="s">
         <v>55</v>
       </c>
@@ -31093,7 +31127,7 @@
       <c r="F48" s="65"/>
     </row>
     <row r="49" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A49" s="131"/>
+      <c r="A49" s="140"/>
       <c r="B49" s="60" t="s">
         <v>56</v>
       </c>
@@ -31107,7 +31141,7 @@
       <c r="F49" s="65"/>
     </row>
     <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A50" s="131"/>
+      <c r="A50" s="140"/>
       <c r="B50" s="60" t="s">
         <v>57</v>
       </c>
@@ -31121,7 +31155,7 @@
       <c r="F50" s="65"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A51" s="131"/>
+      <c r="A51" s="140"/>
       <c r="B51" s="60" t="s">
         <v>219</v>
       </c>
@@ -31135,7 +31169,7 @@
       <c r="F51" s="65"/>
     </row>
     <row r="52" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="131"/>
+      <c r="A52" s="140"/>
       <c r="B52" s="60" t="s">
         <v>59</v>
       </c>
@@ -31149,7 +31183,7 @@
       <c r="F52" s="65"/>
     </row>
     <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A53" s="131"/>
+      <c r="A53" s="140"/>
       <c r="B53" s="60" t="s">
         <v>60</v>
       </c>
@@ -31163,7 +31197,7 @@
       <c r="F53" s="65"/>
     </row>
     <row r="54" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A54" s="131"/>
+      <c r="A54" s="140"/>
       <c r="B54" s="60" t="s">
         <v>61</v>
       </c>
@@ -31177,7 +31211,7 @@
       <c r="F54" s="65"/>
     </row>
     <row r="55" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A55" s="131"/>
+      <c r="A55" s="140"/>
       <c r="B55" s="60" t="s">
         <v>62</v>
       </c>
@@ -31191,7 +31225,7 @@
       <c r="F55" s="65"/>
     </row>
     <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="131"/>
+      <c r="A56" s="140"/>
       <c r="B56" s="60" t="s">
         <v>63</v>
       </c>
@@ -31205,7 +31239,7 @@
       <c r="F56" s="65"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="131"/>
+      <c r="A57" s="140"/>
       <c r="B57" s="60" t="s">
         <v>64</v>
       </c>
@@ -31219,7 +31253,7 @@
       <c r="F57" s="65"/>
     </row>
     <row r="58" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A58" s="131"/>
+      <c r="A58" s="140"/>
       <c r="B58" s="60" t="s">
         <v>65</v>
       </c>
@@ -31233,7 +31267,7 @@
       <c r="F58" s="65"/>
     </row>
     <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A59" s="131"/>
+      <c r="A59" s="140"/>
       <c r="B59" s="60" t="s">
         <v>66</v>
       </c>
@@ -31247,7 +31281,7 @@
       <c r="F59" s="65"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A60" s="131"/>
+      <c r="A60" s="140"/>
       <c r="B60" s="60" t="s">
         <v>67</v>
       </c>
@@ -31261,7 +31295,7 @@
       <c r="F60" s="65"/>
     </row>
     <row r="61" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A61" s="131"/>
+      <c r="A61" s="140"/>
       <c r="B61" s="60" t="s">
         <v>68</v>
       </c>
@@ -31275,7 +31309,7 @@
       <c r="F61" s="65"/>
     </row>
     <row r="62" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="131"/>
+      <c r="A62" s="140"/>
       <c r="B62" s="60" t="s">
         <v>69</v>
       </c>
@@ -31289,7 +31323,7 @@
       <c r="F62" s="65"/>
     </row>
     <row r="63" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A63" s="131"/>
+      <c r="A63" s="140"/>
       <c r="B63" s="60" t="s">
         <v>70</v>
       </c>
@@ -31303,7 +31337,7 @@
       <c r="F63" s="65"/>
     </row>
     <row r="64" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A64" s="131"/>
+      <c r="A64" s="140"/>
       <c r="B64" s="60" t="s">
         <v>71</v>
       </c>
@@ -31317,7 +31351,7 @@
       <c r="F64" s="65"/>
     </row>
     <row r="65" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A65" s="131"/>
+      <c r="A65" s="140"/>
       <c r="B65" s="60" t="s">
         <v>72</v>
       </c>
@@ -31331,7 +31365,7 @@
       <c r="F65" s="65"/>
     </row>
     <row r="66" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A66" s="131"/>
+      <c r="A66" s="140"/>
       <c r="B66" s="60" t="s">
         <v>73</v>
       </c>
@@ -31345,7 +31379,7 @@
       <c r="F66" s="65"/>
     </row>
     <row r="67" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A67" s="131"/>
+      <c r="A67" s="140"/>
       <c r="B67" s="60" t="s">
         <v>74</v>
       </c>
@@ -31359,7 +31393,7 @@
       <c r="F67" s="65"/>
     </row>
     <row r="68" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A68" s="131"/>
+      <c r="A68" s="140"/>
       <c r="B68" s="60" t="s">
         <v>75</v>
       </c>
@@ -31373,7 +31407,7 @@
       <c r="F68" s="65"/>
     </row>
     <row r="69" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A69" s="131"/>
+      <c r="A69" s="140"/>
       <c r="B69" s="61" t="s">
         <v>76</v>
       </c>
@@ -31387,7 +31421,7 @@
       <c r="F69" s="65"/>
     </row>
     <row r="70" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A70" s="131"/>
+      <c r="A70" s="140"/>
       <c r="B70" s="61" t="s">
         <v>77</v>
       </c>
@@ -31401,7 +31435,7 @@
       <c r="F70" s="65"/>
     </row>
     <row r="71" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A71" s="131"/>
+      <c r="A71" s="140"/>
       <c r="B71" s="61" t="s">
         <v>78</v>
       </c>
@@ -31415,7 +31449,7 @@
       <c r="F71" s="65"/>
     </row>
     <row r="72" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" s="131"/>
+      <c r="A72" s="140"/>
       <c r="B72" s="61" t="s">
         <v>79</v>
       </c>
@@ -31429,7 +31463,7 @@
       <c r="F72" s="65"/>
     </row>
     <row r="73" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A73" s="131"/>
+      <c r="A73" s="140"/>
       <c r="B73" s="61" t="s">
         <v>80</v>
       </c>
@@ -31443,7 +31477,7 @@
       <c r="F73" s="65"/>
     </row>
     <row r="74" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A74" s="131"/>
+      <c r="A74" s="140"/>
       <c r="B74" s="61" t="s">
         <v>81</v>
       </c>
@@ -31457,7 +31491,7 @@
       <c r="F74" s="65"/>
     </row>
     <row r="75" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A75" s="131"/>
+      <c r="A75" s="140"/>
       <c r="B75" s="61" t="s">
         <v>82</v>
       </c>
@@ -31471,7 +31505,7 @@
       <c r="F75" s="65"/>
     </row>
     <row r="76" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A76" s="131"/>
+      <c r="A76" s="140"/>
       <c r="B76" s="61" t="s">
         <v>83</v>
       </c>
@@ -31485,7 +31519,7 @@
       <c r="F76" s="65"/>
     </row>
     <row r="77" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A77" s="131"/>
+      <c r="A77" s="140"/>
       <c r="B77" s="61" t="s">
         <v>84</v>
       </c>
@@ -31499,7 +31533,7 @@
       <c r="F77" s="65"/>
     </row>
     <row r="78" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A78" s="131"/>
+      <c r="A78" s="140"/>
       <c r="B78" s="61" t="s">
         <v>85</v>
       </c>
@@ -31513,7 +31547,7 @@
       <c r="F78" s="65"/>
     </row>
     <row r="79" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A79" s="131"/>
+      <c r="A79" s="140"/>
       <c r="B79" s="61" t="s">
         <v>86</v>
       </c>
@@ -31527,475 +31561,475 @@
       <c r="F79" s="65"/>
     </row>
     <row r="80" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A80" s="131"/>
+      <c r="A80" s="140"/>
       <c r="B80" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="167" t="s">
+      <c r="C80" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D80" s="168"/>
-      <c r="E80" s="168"/>
-      <c r="F80" s="169"/>
+      <c r="D80" s="161"/>
+      <c r="E80" s="161"/>
+      <c r="F80" s="162"/>
     </row>
     <row r="81" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A81" s="131"/>
+      <c r="A81" s="140"/>
       <c r="B81" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="C81" s="167" t="s">
+      <c r="C81" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D81" s="168"/>
-      <c r="E81" s="168"/>
-      <c r="F81" s="169"/>
+      <c r="D81" s="161"/>
+      <c r="E81" s="161"/>
+      <c r="F81" s="162"/>
     </row>
     <row r="82" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A82" s="131"/>
+      <c r="A82" s="140"/>
       <c r="B82" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="167" t="s">
+      <c r="C82" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D82" s="168"/>
-      <c r="E82" s="168"/>
-      <c r="F82" s="169"/>
+      <c r="D82" s="161"/>
+      <c r="E82" s="161"/>
+      <c r="F82" s="162"/>
     </row>
     <row r="83" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A83" s="131"/>
+      <c r="A83" s="140"/>
       <c r="B83" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C83" s="167" t="s">
+      <c r="C83" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D83" s="168"/>
-      <c r="E83" s="168"/>
-      <c r="F83" s="169"/>
+      <c r="D83" s="161"/>
+      <c r="E83" s="161"/>
+      <c r="F83" s="162"/>
     </row>
     <row r="84" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A84" s="131"/>
+      <c r="A84" s="140"/>
       <c r="B84" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="C84" s="167" t="s">
+      <c r="C84" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D84" s="168"/>
-      <c r="E84" s="168"/>
-      <c r="F84" s="169"/>
+      <c r="D84" s="161"/>
+      <c r="E84" s="161"/>
+      <c r="F84" s="162"/>
     </row>
     <row r="85" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A85" s="131"/>
+      <c r="A85" s="140"/>
       <c r="B85" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="C85" s="167" t="s">
+      <c r="C85" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D85" s="168"/>
-      <c r="E85" s="168"/>
-      <c r="F85" s="169"/>
+      <c r="D85" s="161"/>
+      <c r="E85" s="161"/>
+      <c r="F85" s="162"/>
     </row>
     <row r="86" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A86" s="131"/>
+      <c r="A86" s="140"/>
       <c r="B86" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="C86" s="167" t="s">
+      <c r="C86" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D86" s="168"/>
-      <c r="E86" s="168"/>
-      <c r="F86" s="169"/>
+      <c r="D86" s="161"/>
+      <c r="E86" s="161"/>
+      <c r="F86" s="162"/>
     </row>
     <row r="87" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A87" s="131"/>
+      <c r="A87" s="140"/>
       <c r="B87" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="C87" s="167" t="s">
+      <c r="C87" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D87" s="168"/>
-      <c r="E87" s="168"/>
-      <c r="F87" s="169"/>
+      <c r="D87" s="161"/>
+      <c r="E87" s="161"/>
+      <c r="F87" s="162"/>
     </row>
     <row r="88" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A88" s="131"/>
+      <c r="A88" s="140"/>
       <c r="B88" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="C88" s="167" t="s">
+      <c r="C88" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D88" s="168"/>
-      <c r="E88" s="168"/>
-      <c r="F88" s="169"/>
+      <c r="D88" s="161"/>
+      <c r="E88" s="161"/>
+      <c r="F88" s="162"/>
     </row>
     <row r="89" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A89" s="131"/>
+      <c r="A89" s="140"/>
       <c r="B89" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="C89" s="167" t="s">
+      <c r="C89" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D89" s="168"/>
-      <c r="E89" s="168"/>
-      <c r="F89" s="169"/>
+      <c r="D89" s="161"/>
+      <c r="E89" s="161"/>
+      <c r="F89" s="162"/>
     </row>
     <row r="90" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A90" s="131"/>
+      <c r="A90" s="140"/>
       <c r="B90" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="C90" s="167" t="s">
+      <c r="C90" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D90" s="168"/>
-      <c r="E90" s="168"/>
-      <c r="F90" s="169"/>
+      <c r="D90" s="161"/>
+      <c r="E90" s="161"/>
+      <c r="F90" s="162"/>
     </row>
     <row r="91" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A91" s="131"/>
+      <c r="A91" s="140"/>
       <c r="B91" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="167" t="s">
+      <c r="C91" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D91" s="168"/>
-      <c r="E91" s="168"/>
-      <c r="F91" s="169"/>
+      <c r="D91" s="161"/>
+      <c r="E91" s="161"/>
+      <c r="F91" s="162"/>
     </row>
     <row r="92" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A92" s="131"/>
+      <c r="A92" s="140"/>
       <c r="B92" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="C92" s="167" t="s">
+      <c r="C92" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D92" s="168"/>
-      <c r="E92" s="168"/>
-      <c r="F92" s="169"/>
+      <c r="D92" s="161"/>
+      <c r="E92" s="161"/>
+      <c r="F92" s="162"/>
     </row>
     <row r="93" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A93" s="131"/>
+      <c r="A93" s="140"/>
       <c r="B93" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="C93" s="167" t="s">
+      <c r="C93" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D93" s="168"/>
-      <c r="E93" s="168"/>
-      <c r="F93" s="169"/>
+      <c r="D93" s="161"/>
+      <c r="E93" s="161"/>
+      <c r="F93" s="162"/>
     </row>
     <row r="94" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A94" s="131"/>
+      <c r="A94" s="140"/>
       <c r="B94" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="167" t="s">
+      <c r="C94" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D94" s="168"/>
-      <c r="E94" s="168"/>
-      <c r="F94" s="169"/>
+      <c r="D94" s="161"/>
+      <c r="E94" s="161"/>
+      <c r="F94" s="162"/>
     </row>
     <row r="95" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A95" s="131"/>
+      <c r="A95" s="140"/>
       <c r="B95" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="C95" s="167" t="s">
+      <c r="C95" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D95" s="168"/>
-      <c r="E95" s="168"/>
-      <c r="F95" s="169"/>
+      <c r="D95" s="161"/>
+      <c r="E95" s="161"/>
+      <c r="F95" s="162"/>
     </row>
     <row r="96" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A96" s="131"/>
+      <c r="A96" s="140"/>
       <c r="B96" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="C96" s="167" t="s">
+      <c r="C96" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D96" s="168"/>
-      <c r="E96" s="168"/>
-      <c r="F96" s="169"/>
+      <c r="D96" s="161"/>
+      <c r="E96" s="161"/>
+      <c r="F96" s="162"/>
     </row>
     <row r="97" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A97" s="131"/>
+      <c r="A97" s="140"/>
       <c r="B97" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="C97" s="167" t="s">
+      <c r="C97" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D97" s="168"/>
-      <c r="E97" s="168"/>
-      <c r="F97" s="169"/>
+      <c r="D97" s="161"/>
+      <c r="E97" s="161"/>
+      <c r="F97" s="162"/>
     </row>
     <row r="98" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A98" s="131"/>
+      <c r="A98" s="140"/>
       <c r="B98" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="C98" s="167" t="s">
+      <c r="C98" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D98" s="168"/>
-      <c r="E98" s="168"/>
-      <c r="F98" s="169"/>
+      <c r="D98" s="161"/>
+      <c r="E98" s="161"/>
+      <c r="F98" s="162"/>
     </row>
     <row r="99" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A99" s="131"/>
+      <c r="A99" s="140"/>
       <c r="B99" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C99" s="167" t="s">
+      <c r="C99" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D99" s="168"/>
-      <c r="E99" s="168"/>
-      <c r="F99" s="169"/>
+      <c r="D99" s="161"/>
+      <c r="E99" s="161"/>
+      <c r="F99" s="162"/>
     </row>
     <row r="100" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A100" s="131"/>
+      <c r="A100" s="140"/>
       <c r="B100" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="C100" s="167" t="s">
+      <c r="C100" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D100" s="168"/>
-      <c r="E100" s="168"/>
-      <c r="F100" s="169"/>
+      <c r="D100" s="161"/>
+      <c r="E100" s="161"/>
+      <c r="F100" s="162"/>
     </row>
     <row r="101" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A101" s="131"/>
+      <c r="A101" s="140"/>
       <c r="B101" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="C101" s="167" t="s">
+      <c r="C101" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D101" s="168"/>
-      <c r="E101" s="168"/>
-      <c r="F101" s="169"/>
+      <c r="D101" s="161"/>
+      <c r="E101" s="161"/>
+      <c r="F101" s="162"/>
     </row>
     <row r="102" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A102" s="131"/>
+      <c r="A102" s="140"/>
       <c r="B102" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="C102" s="167" t="s">
+      <c r="C102" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D102" s="168"/>
-      <c r="E102" s="168"/>
-      <c r="F102" s="169"/>
+      <c r="D102" s="161"/>
+      <c r="E102" s="161"/>
+      <c r="F102" s="162"/>
     </row>
     <row r="103" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A103" s="131"/>
+      <c r="A103" s="140"/>
       <c r="B103" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="C103" s="167" t="s">
+      <c r="C103" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D103" s="168"/>
-      <c r="E103" s="168"/>
-      <c r="F103" s="169"/>
+      <c r="D103" s="161"/>
+      <c r="E103" s="161"/>
+      <c r="F103" s="162"/>
     </row>
     <row r="104" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A104" s="131"/>
+      <c r="A104" s="140"/>
       <c r="B104" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C104" s="167" t="s">
+      <c r="C104" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D104" s="168"/>
-      <c r="E104" s="168"/>
-      <c r="F104" s="169"/>
+      <c r="D104" s="161"/>
+      <c r="E104" s="161"/>
+      <c r="F104" s="162"/>
     </row>
     <row r="105" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A105" s="131"/>
+      <c r="A105" s="140"/>
       <c r="B105" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C105" s="167" t="s">
+      <c r="C105" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D105" s="168"/>
-      <c r="E105" s="168"/>
-      <c r="F105" s="169"/>
+      <c r="D105" s="161"/>
+      <c r="E105" s="161"/>
+      <c r="F105" s="162"/>
     </row>
     <row r="106" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A106" s="131"/>
+      <c r="A106" s="140"/>
       <c r="B106" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="C106" s="167" t="s">
+      <c r="C106" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D106" s="168"/>
-      <c r="E106" s="168"/>
-      <c r="F106" s="169"/>
+      <c r="D106" s="161"/>
+      <c r="E106" s="161"/>
+      <c r="F106" s="162"/>
     </row>
     <row r="107" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A107" s="131"/>
+      <c r="A107" s="140"/>
       <c r="B107" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="C107" s="170" t="s">
+      <c r="C107" s="157" t="s">
         <v>243</v>
       </c>
-      <c r="D107" s="171"/>
-      <c r="E107" s="171"/>
-      <c r="F107" s="172"/>
+      <c r="D107" s="158"/>
+      <c r="E107" s="158"/>
+      <c r="F107" s="159"/>
     </row>
     <row r="108" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A108" s="131"/>
+      <c r="A108" s="140"/>
       <c r="B108" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="C108" s="170" t="s">
+      <c r="C108" s="157" t="s">
         <v>243</v>
       </c>
-      <c r="D108" s="171"/>
-      <c r="E108" s="171"/>
-      <c r="F108" s="172"/>
+      <c r="D108" s="158"/>
+      <c r="E108" s="158"/>
+      <c r="F108" s="159"/>
     </row>
     <row r="109" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A109" s="131"/>
+      <c r="A109" s="140"/>
       <c r="B109" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="C109" s="170" t="s">
+      <c r="C109" s="157" t="s">
         <v>243</v>
       </c>
-      <c r="D109" s="171"/>
-      <c r="E109" s="171"/>
-      <c r="F109" s="172"/>
+      <c r="D109" s="158"/>
+      <c r="E109" s="158"/>
+      <c r="F109" s="159"/>
     </row>
     <row r="110" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A110" s="131"/>
+      <c r="A110" s="140"/>
       <c r="B110" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="C110" s="170" t="s">
+      <c r="C110" s="157" t="s">
         <v>243</v>
       </c>
-      <c r="D110" s="171"/>
-      <c r="E110" s="171"/>
-      <c r="F110" s="172"/>
+      <c r="D110" s="158"/>
+      <c r="E110" s="158"/>
+      <c r="F110" s="159"/>
     </row>
     <row r="111" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A111" s="131"/>
+      <c r="A111" s="140"/>
       <c r="B111" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="C111" s="170" t="s">
+      <c r="C111" s="157" t="s">
         <v>243</v>
       </c>
-      <c r="D111" s="171"/>
-      <c r="E111" s="171"/>
-      <c r="F111" s="172"/>
+      <c r="D111" s="158"/>
+      <c r="E111" s="158"/>
+      <c r="F111" s="159"/>
     </row>
     <row r="112" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A112" s="131"/>
+      <c r="A112" s="140"/>
       <c r="B112" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="C112" s="170" t="s">
+      <c r="C112" s="157" t="s">
         <v>243</v>
       </c>
-      <c r="D112" s="171"/>
-      <c r="E112" s="171"/>
-      <c r="F112" s="172"/>
+      <c r="D112" s="158"/>
+      <c r="E112" s="158"/>
+      <c r="F112" s="159"/>
     </row>
     <row r="113" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A113" s="131"/>
+      <c r="A113" s="140"/>
       <c r="B113" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="C113" s="170" t="s">
+      <c r="C113" s="157" t="s">
         <v>243</v>
       </c>
-      <c r="D113" s="171"/>
-      <c r="E113" s="171"/>
-      <c r="F113" s="172"/>
+      <c r="D113" s="158"/>
+      <c r="E113" s="158"/>
+      <c r="F113" s="159"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A114" s="131"/>
+      <c r="A114" s="140"/>
       <c r="B114" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="C114" s="170" t="s">
+      <c r="C114" s="157" t="s">
         <v>243</v>
       </c>
-      <c r="D114" s="171"/>
-      <c r="E114" s="171"/>
-      <c r="F114" s="172"/>
+      <c r="D114" s="158"/>
+      <c r="E114" s="158"/>
+      <c r="F114" s="159"/>
     </row>
     <row r="115" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A115" s="131"/>
+      <c r="A115" s="140"/>
       <c r="B115" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C115" s="170" t="s">
+      <c r="C115" s="157" t="s">
         <v>243</v>
       </c>
-      <c r="D115" s="171"/>
-      <c r="E115" s="171"/>
-      <c r="F115" s="172"/>
+      <c r="D115" s="158"/>
+      <c r="E115" s="158"/>
+      <c r="F115" s="159"/>
     </row>
     <row r="116" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A116" s="131"/>
+      <c r="A116" s="140"/>
       <c r="B116" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="C116" s="170" t="s">
+      <c r="C116" s="157" t="s">
         <v>243</v>
       </c>
-      <c r="D116" s="171"/>
-      <c r="E116" s="171"/>
-      <c r="F116" s="172"/>
+      <c r="D116" s="158"/>
+      <c r="E116" s="158"/>
+      <c r="F116" s="159"/>
     </row>
     <row r="117" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A117" s="131"/>
+      <c r="A117" s="140"/>
       <c r="B117" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="C117" s="170" t="s">
+      <c r="C117" s="157" t="s">
         <v>243</v>
       </c>
-      <c r="D117" s="171"/>
-      <c r="E117" s="171"/>
-      <c r="F117" s="172"/>
+      <c r="D117" s="158"/>
+      <c r="E117" s="158"/>
+      <c r="F117" s="159"/>
     </row>
     <row r="118" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A118" s="131"/>
+      <c r="A118" s="140"/>
       <c r="B118" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="C118" s="167" t="s">
+      <c r="C118" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="D118" s="168"/>
-      <c r="E118" s="168"/>
-      <c r="F118" s="169"/>
+      <c r="D118" s="161"/>
+      <c r="E118" s="161"/>
+      <c r="F118" s="162"/>
     </row>
     <row r="119" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A119" s="131"/>
+      <c r="A119" s="140"/>
       <c r="B119" s="61" t="s">
         <v>126</v>
       </c>
@@ -32007,7 +32041,7 @@
       <c r="F119" s="65"/>
     </row>
     <row r="120" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A120" s="131"/>
+      <c r="A120" s="140"/>
       <c r="B120" s="61" t="s">
         <v>127</v>
       </c>
@@ -32019,7 +32053,7 @@
       <c r="F120" s="65"/>
     </row>
     <row r="121" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A121" s="131"/>
+      <c r="A121" s="140"/>
       <c r="B121" s="61" t="s">
         <v>128</v>
       </c>
@@ -32031,7 +32065,7 @@
       <c r="F121" s="65"/>
     </row>
     <row r="122" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A122" s="131"/>
+      <c r="A122" s="140"/>
       <c r="B122" s="61" t="s">
         <v>129</v>
       </c>
@@ -32041,7 +32075,7 @@
       <c r="F122" s="64"/>
     </row>
     <row r="123" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A123" s="131"/>
+      <c r="A123" s="140"/>
       <c r="B123" s="61" t="s">
         <v>249</v>
       </c>
@@ -32053,7 +32087,7 @@
       <c r="F123" s="65"/>
     </row>
     <row r="124" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A124" s="131"/>
+      <c r="A124" s="140"/>
       <c r="B124" s="61" t="s">
         <v>131</v>
       </c>
@@ -32072,93 +32106,93 @@
       <c r="F125" s="65"/>
     </row>
     <row r="126" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A126" s="160" t="s">
+      <c r="A126" s="169" t="s">
         <v>177</v>
       </c>
       <c r="B126" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="C126" s="170" t="s">
+      <c r="C126" s="157" t="s">
         <v>243</v>
       </c>
-      <c r="D126" s="171"/>
-      <c r="E126" s="171"/>
-      <c r="F126" s="172"/>
+      <c r="D126" s="158"/>
+      <c r="E126" s="158"/>
+      <c r="F126" s="159"/>
     </row>
     <row r="127" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A127" s="161"/>
+      <c r="A127" s="170"/>
       <c r="B127" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C127" s="170" t="s">
+      <c r="C127" s="157" t="s">
         <v>243</v>
       </c>
-      <c r="D127" s="171"/>
-      <c r="E127" s="171"/>
-      <c r="F127" s="172"/>
+      <c r="D127" s="158"/>
+      <c r="E127" s="158"/>
+      <c r="F127" s="159"/>
     </row>
     <row r="128" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A128" s="161"/>
+      <c r="A128" s="170"/>
       <c r="B128" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="C128" s="170" t="s">
+      <c r="C128" s="157" t="s">
         <v>243</v>
       </c>
-      <c r="D128" s="171"/>
-      <c r="E128" s="171"/>
-      <c r="F128" s="172"/>
+      <c r="D128" s="158"/>
+      <c r="E128" s="158"/>
+      <c r="F128" s="159"/>
     </row>
     <row r="129" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A129" s="161"/>
+      <c r="A129" s="170"/>
       <c r="B129" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="C129" s="170" t="s">
+      <c r="C129" s="157" t="s">
         <v>243</v>
       </c>
-      <c r="D129" s="171"/>
-      <c r="E129" s="171"/>
-      <c r="F129" s="172"/>
+      <c r="D129" s="158"/>
+      <c r="E129" s="158"/>
+      <c r="F129" s="159"/>
     </row>
     <row r="130" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A130" s="161"/>
+      <c r="A130" s="170"/>
       <c r="B130" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="C130" s="164" t="s">
+      <c r="C130" s="151" t="s">
         <v>242</v>
       </c>
-      <c r="D130" s="165"/>
-      <c r="E130" s="165"/>
-      <c r="F130" s="166"/>
+      <c r="D130" s="152"/>
+      <c r="E130" s="152"/>
+      <c r="F130" s="153"/>
     </row>
     <row r="131" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A131" s="161"/>
+      <c r="A131" s="170"/>
       <c r="B131" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="C131" s="157" t="s">
+      <c r="C131" s="154" t="s">
         <v>243</v>
       </c>
-      <c r="D131" s="158"/>
-      <c r="E131" s="158"/>
-      <c r="F131" s="159"/>
+      <c r="D131" s="155"/>
+      <c r="E131" s="155"/>
+      <c r="F131" s="156"/>
     </row>
     <row r="132" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A132" s="161"/>
+      <c r="A132" s="170"/>
       <c r="B132" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="C132" s="157" t="s">
+      <c r="C132" s="154" t="s">
         <v>243</v>
       </c>
-      <c r="D132" s="158"/>
-      <c r="E132" s="158"/>
-      <c r="F132" s="159"/>
+      <c r="D132" s="155"/>
+      <c r="E132" s="155"/>
+      <c r="F132" s="156"/>
     </row>
     <row r="133" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A133" s="161"/>
+      <c r="A133" s="170"/>
       <c r="B133" s="60" t="s">
         <v>142</v>
       </c>
@@ -32169,7 +32203,7 @@
       <c r="F133" s="65"/>
     </row>
     <row r="134" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A134" s="161"/>
+      <c r="A134" s="170"/>
       <c r="B134" s="60" t="s">
         <v>143</v>
       </c>
@@ -32181,79 +32215,79 @@
       <c r="F134" s="65"/>
     </row>
     <row r="135" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A135" s="161"/>
+      <c r="A135" s="170"/>
       <c r="B135" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="C135" s="157" t="s">
+      <c r="C135" s="154" t="s">
         <v>243</v>
       </c>
-      <c r="D135" s="158"/>
-      <c r="E135" s="158"/>
-      <c r="F135" s="159"/>
+      <c r="D135" s="155"/>
+      <c r="E135" s="155"/>
+      <c r="F135" s="156"/>
     </row>
     <row r="136" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A136" s="161"/>
+      <c r="A136" s="170"/>
       <c r="B136" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="C136" s="157" t="s">
+      <c r="C136" s="154" t="s">
         <v>243</v>
       </c>
-      <c r="D136" s="158"/>
-      <c r="E136" s="158"/>
-      <c r="F136" s="159"/>
+      <c r="D136" s="155"/>
+      <c r="E136" s="155"/>
+      <c r="F136" s="156"/>
     </row>
     <row r="137" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A137" s="161"/>
+      <c r="A137" s="170"/>
       <c r="B137" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="C137" s="157" t="s">
+      <c r="C137" s="154" t="s">
         <v>243</v>
       </c>
-      <c r="D137" s="158"/>
-      <c r="E137" s="158"/>
-      <c r="F137" s="159"/>
+      <c r="D137" s="155"/>
+      <c r="E137" s="155"/>
+      <c r="F137" s="156"/>
     </row>
     <row r="138" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A138" s="161"/>
+      <c r="A138" s="170"/>
       <c r="B138" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C138" s="157" t="s">
+      <c r="C138" s="154" t="s">
         <v>243</v>
       </c>
-      <c r="D138" s="158"/>
-      <c r="E138" s="158"/>
-      <c r="F138" s="159"/>
+      <c r="D138" s="155"/>
+      <c r="E138" s="155"/>
+      <c r="F138" s="156"/>
     </row>
     <row r="139" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A139" s="161"/>
+      <c r="A139" s="170"/>
       <c r="B139" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="C139" s="157" t="s">
+      <c r="C139" s="154" t="s">
         <v>243</v>
       </c>
-      <c r="D139" s="158"/>
-      <c r="E139" s="158"/>
-      <c r="F139" s="159"/>
+      <c r="D139" s="155"/>
+      <c r="E139" s="155"/>
+      <c r="F139" s="156"/>
     </row>
     <row r="140" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A140" s="161"/>
+      <c r="A140" s="170"/>
       <c r="B140" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="C140" s="157" t="s">
+      <c r="C140" s="154" t="s">
         <v>243</v>
       </c>
-      <c r="D140" s="158"/>
-      <c r="E140" s="158"/>
-      <c r="F140" s="159"/>
+      <c r="D140" s="155"/>
+      <c r="E140" s="155"/>
+      <c r="F140" s="156"/>
     </row>
     <row r="141" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A141" s="161"/>
+      <c r="A141" s="170"/>
       <c r="B141" s="60" t="s">
         <v>151</v>
       </c>
@@ -32264,7 +32298,7 @@
       <c r="F141" s="65"/>
     </row>
     <row r="142" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A142" s="161"/>
+      <c r="A142" s="170"/>
       <c r="B142" s="60" t="s">
         <v>152</v>
       </c>
@@ -32276,7 +32310,7 @@
       <c r="F142" s="65"/>
     </row>
     <row r="143" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A143" s="161"/>
+      <c r="A143" s="170"/>
       <c r="B143" s="60" t="s">
         <v>153</v>
       </c>
@@ -32290,7 +32324,7 @@
       <c r="F143" s="78"/>
     </row>
     <row r="144" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A144" s="161"/>
+      <c r="A144" s="170"/>
       <c r="B144" s="60" t="s">
         <v>154</v>
       </c>
@@ -32304,7 +32338,7 @@
       <c r="F144" s="78"/>
     </row>
     <row r="145" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A145" s="161"/>
+      <c r="A145" s="170"/>
       <c r="B145" s="60" t="s">
         <v>155</v>
       </c>
@@ -32318,7 +32352,7 @@
       <c r="F145" s="65"/>
     </row>
     <row r="146" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A146" s="161"/>
+      <c r="A146" s="170"/>
       <c r="B146" s="60" t="s">
         <v>156</v>
       </c>
@@ -32332,7 +32366,7 @@
       <c r="F146" s="65"/>
     </row>
     <row r="147" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A147" s="161"/>
+      <c r="A147" s="170"/>
       <c r="B147" s="60" t="s">
         <v>157</v>
       </c>
@@ -32346,7 +32380,7 @@
       <c r="F147" s="65"/>
     </row>
     <row r="148" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A148" s="161"/>
+      <c r="A148" s="170"/>
       <c r="B148" s="60" t="s">
         <v>158</v>
       </c>
@@ -32360,103 +32394,103 @@
       <c r="F148" s="65"/>
     </row>
     <row r="149" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A149" s="161"/>
+      <c r="A149" s="170"/>
       <c r="B149" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="C149" s="157" t="s">
+      <c r="C149" s="154" t="s">
         <v>243</v>
       </c>
-      <c r="D149" s="158"/>
-      <c r="E149" s="158"/>
-      <c r="F149" s="159"/>
+      <c r="D149" s="155"/>
+      <c r="E149" s="155"/>
+      <c r="F149" s="156"/>
     </row>
     <row r="150" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A150" s="161"/>
+      <c r="A150" s="170"/>
       <c r="B150" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="C150" s="157" t="s">
+      <c r="C150" s="154" t="s">
         <v>243</v>
       </c>
-      <c r="D150" s="158"/>
-      <c r="E150" s="158"/>
-      <c r="F150" s="159"/>
+      <c r="D150" s="155"/>
+      <c r="E150" s="155"/>
+      <c r="F150" s="156"/>
     </row>
     <row r="151" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A151" s="161"/>
+      <c r="A151" s="170"/>
       <c r="B151" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="C151" s="164" t="s">
+      <c r="C151" s="151" t="s">
         <v>242</v>
       </c>
-      <c r="D151" s="165"/>
-      <c r="E151" s="165"/>
-      <c r="F151" s="166"/>
+      <c r="D151" s="152"/>
+      <c r="E151" s="152"/>
+      <c r="F151" s="153"/>
     </row>
     <row r="152" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A152" s="161"/>
+      <c r="A152" s="170"/>
       <c r="B152" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="C152" s="157" t="s">
+      <c r="C152" s="154" t="s">
         <v>243</v>
       </c>
-      <c r="D152" s="158"/>
-      <c r="E152" s="158"/>
-      <c r="F152" s="159"/>
+      <c r="D152" s="155"/>
+      <c r="E152" s="155"/>
+      <c r="F152" s="156"/>
     </row>
     <row r="153" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A153" s="161"/>
+      <c r="A153" s="170"/>
       <c r="B153" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="C153" s="164" t="s">
+      <c r="C153" s="151" t="s">
         <v>242</v>
       </c>
-      <c r="D153" s="165"/>
-      <c r="E153" s="165"/>
-      <c r="F153" s="166"/>
+      <c r="D153" s="152"/>
+      <c r="E153" s="152"/>
+      <c r="F153" s="153"/>
     </row>
     <row r="154" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A154" s="161"/>
+      <c r="A154" s="170"/>
       <c r="B154" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="C154" s="164" t="s">
+      <c r="C154" s="151" t="s">
         <v>242</v>
       </c>
-      <c r="D154" s="165"/>
-      <c r="E154" s="165"/>
-      <c r="F154" s="166"/>
+      <c r="D154" s="152"/>
+      <c r="E154" s="152"/>
+      <c r="F154" s="153"/>
     </row>
     <row r="155" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A155" s="161"/>
+      <c r="A155" s="170"/>
       <c r="B155" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="C155" s="157" t="s">
+      <c r="C155" s="154" t="s">
         <v>243</v>
       </c>
-      <c r="D155" s="158"/>
-      <c r="E155" s="158"/>
-      <c r="F155" s="159"/>
+      <c r="D155" s="155"/>
+      <c r="E155" s="155"/>
+      <c r="F155" s="156"/>
     </row>
     <row r="156" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A156" s="161"/>
+      <c r="A156" s="170"/>
       <c r="B156" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="C156" s="164" t="s">
+      <c r="C156" s="151" t="s">
         <v>242</v>
       </c>
-      <c r="D156" s="165"/>
-      <c r="E156" s="165"/>
-      <c r="F156" s="166"/>
+      <c r="D156" s="152"/>
+      <c r="E156" s="152"/>
+      <c r="F156" s="153"/>
     </row>
     <row r="157" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A157" s="161"/>
+      <c r="A157" s="170"/>
       <c r="B157" s="61" t="s">
         <v>189</v>
       </c>
@@ -32470,7 +32504,7 @@
       <c r="F157" s="65"/>
     </row>
     <row r="158" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A158" s="161"/>
+      <c r="A158" s="170"/>
       <c r="B158" s="61" t="s">
         <v>190</v>
       </c>
@@ -32482,7 +32516,7 @@
       <c r="F158" s="65"/>
     </row>
     <row r="159" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A159" s="161"/>
+      <c r="A159" s="170"/>
       <c r="B159" s="61" t="s">
         <v>191</v>
       </c>
@@ -32494,7 +32528,7 @@
       <c r="F159" s="65"/>
     </row>
     <row r="160" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A160" s="161"/>
+      <c r="A160" s="170"/>
       <c r="B160" s="76" t="s">
         <v>192</v>
       </c>
@@ -32520,56 +32554,6 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C154:F154"/>
-    <mergeCell ref="C156:F156"/>
-    <mergeCell ref="C151:F151"/>
-    <mergeCell ref="C153:F153"/>
-    <mergeCell ref="C138:F138"/>
-    <mergeCell ref="C139:F139"/>
-    <mergeCell ref="C140:F140"/>
-    <mergeCell ref="C149:F149"/>
-    <mergeCell ref="C150:F150"/>
-    <mergeCell ref="C130:F130"/>
-    <mergeCell ref="C132:F132"/>
-    <mergeCell ref="C135:F135"/>
-    <mergeCell ref="C136:F136"/>
-    <mergeCell ref="C137:F137"/>
-    <mergeCell ref="C129:F129"/>
-    <mergeCell ref="C107:F107"/>
-    <mergeCell ref="C108:F108"/>
-    <mergeCell ref="C109:F109"/>
-    <mergeCell ref="C110:F110"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="C112:F112"/>
-    <mergeCell ref="C113:F113"/>
-    <mergeCell ref="C114:F114"/>
-    <mergeCell ref="C115:F115"/>
-    <mergeCell ref="C116:F116"/>
-    <mergeCell ref="C117:F117"/>
-    <mergeCell ref="C106:F106"/>
-    <mergeCell ref="C118:F118"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="C127:F127"/>
-    <mergeCell ref="C128:F128"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="C99:F99"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="C101:F101"/>
-    <mergeCell ref="C105:F105"/>
-    <mergeCell ref="C102:F102"/>
-    <mergeCell ref="C103:F103"/>
-    <mergeCell ref="C104:F104"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="C96:F96"/>
-    <mergeCell ref="C97:F97"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="C88:F88"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="C155:F155"/>
     <mergeCell ref="A4:A124"/>
@@ -32586,6 +32570,56 @@
     <mergeCell ref="C89:F89"/>
     <mergeCell ref="C90:F90"/>
     <mergeCell ref="C91:F91"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="C101:F101"/>
+    <mergeCell ref="C105:F105"/>
+    <mergeCell ref="C102:F102"/>
+    <mergeCell ref="C103:F103"/>
+    <mergeCell ref="C104:F104"/>
+    <mergeCell ref="C106:F106"/>
+    <mergeCell ref="C118:F118"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="C127:F127"/>
+    <mergeCell ref="C128:F128"/>
+    <mergeCell ref="C129:F129"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="C109:F109"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="C112:F112"/>
+    <mergeCell ref="C113:F113"/>
+    <mergeCell ref="C114:F114"/>
+    <mergeCell ref="C115:F115"/>
+    <mergeCell ref="C116:F116"/>
+    <mergeCell ref="C117:F117"/>
+    <mergeCell ref="C130:F130"/>
+    <mergeCell ref="C132:F132"/>
+    <mergeCell ref="C135:F135"/>
+    <mergeCell ref="C136:F136"/>
+    <mergeCell ref="C137:F137"/>
+    <mergeCell ref="C154:F154"/>
+    <mergeCell ref="C156:F156"/>
+    <mergeCell ref="C151:F151"/>
+    <mergeCell ref="C153:F153"/>
+    <mergeCell ref="C138:F138"/>
+    <mergeCell ref="C139:F139"/>
+    <mergeCell ref="C140:F140"/>
+    <mergeCell ref="C149:F149"/>
+    <mergeCell ref="C150:F150"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>

--- a/trunk/SRS/Trazabilidad/SRS[Alimnova]TrazabilidadRequerimientosV1.6.0.xlsx
+++ b/trunk/SRS/Trazabilidad/SRS[Alimnova]TrazabilidadRequerimientosV1.6.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="9615" windowHeight="8595"/>
+    <workbookView xWindow="12795" yWindow="-15" windowWidth="6450" windowHeight="8745"/>
   </bookViews>
   <sheets>
     <sheet name="ESTADO DEL REQ" sheetId="7" r:id="rId1"/>
@@ -1750,32 +1750,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1826,6 +1802,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1891,33 +1894,6 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -1951,40 +1927,31 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2005,6 +1972,15 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -2017,8 +1993,32 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2396,9 +2396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G116" sqref="G116"/>
+      <selection pane="topRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2411,88 +2411,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="98" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
     </row>
     <row r="2" spans="1:20" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="99" t="s">
+      <c r="A2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="81"/>
-      <c r="H2" s="99" t="s">
+      <c r="H2" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="103"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="95"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="86" t="s">
+      <c r="A3" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="104" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="97"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="89"/>
     </row>
     <row r="4" spans="1:20" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="87"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="80" t="s">
         <v>213</v>
       </c>
@@ -3310,11 +3310,11 @@
         <v>40261</v>
       </c>
       <c r="F19" s="46">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G19" s="46">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H19" s="50"/>
       <c r="I19" s="46">
@@ -3410,11 +3410,11 @@
         <v>40261</v>
       </c>
       <c r="F21" s="46">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G21" s="46">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H21" s="50"/>
       <c r="I21" s="46">
@@ -3460,11 +3460,11 @@
         <v>40262</v>
       </c>
       <c r="F22" s="46">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G22" s="46">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H22" s="50"/>
       <c r="I22" s="46">
@@ -5949,7 +5949,7 @@
       <c r="T69" s="50"/>
     </row>
     <row r="70" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A70" s="173" t="s">
+      <c r="A70" s="84" t="s">
         <v>76</v>
       </c>
       <c r="B70" s="14">
@@ -5999,7 +5999,7 @@
       <c r="T70" s="50"/>
     </row>
     <row r="71" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A71" s="173" t="s">
+      <c r="A71" s="84" t="s">
         <v>77</v>
       </c>
       <c r="B71" s="14">
@@ -6049,7 +6049,7 @@
       <c r="T71" s="50"/>
     </row>
     <row r="72" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" s="173" t="s">
+      <c r="A72" s="84" t="s">
         <v>78</v>
       </c>
       <c r="B72" s="14">
@@ -6099,7 +6099,7 @@
       <c r="T72" s="50"/>
     </row>
     <row r="73" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A73" s="173" t="s">
+      <c r="A73" s="84" t="s">
         <v>79</v>
       </c>
       <c r="B73" s="14">
@@ -6201,7 +6201,7 @@
       <c r="T74" s="50"/>
     </row>
     <row r="75" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A75" s="173" t="s">
+      <c r="A75" s="84" t="s">
         <v>81</v>
       </c>
       <c r="B75" s="14">
@@ -7635,7 +7635,7 @@
         <v>107</v>
       </c>
       <c r="B101" s="14">
-        <f t="shared" ref="B101:B132" si="6">C101/100</f>
+        <f t="shared" ref="B101:B125" si="6">C101/100</f>
         <v>2</v>
       </c>
       <c r="C101" s="56">
@@ -7651,7 +7651,7 @@
         <v>100</v>
       </c>
       <c r="G101" s="46">
-        <f t="shared" ref="G101:G132" si="7">F101*B101</f>
+        <f t="shared" ref="G101:G125" si="7">F101*B101</f>
         <v>200</v>
       </c>
       <c r="H101" s="53">
@@ -9090,30 +9090,30 @@
       <c r="T125" s="50"/>
     </row>
     <row r="126" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A126" s="84" t="s">
+      <c r="A126" s="102" t="s">
         <v>215</v>
       </c>
-      <c r="B126" s="85"/>
+      <c r="B126" s="103"/>
       <c r="C126" s="59">
         <f>SUM(C5:C125)</f>
         <v>12700</v>
       </c>
-      <c r="D126" s="90" t="s">
+      <c r="D126" s="108" t="s">
         <v>217</v>
       </c>
-      <c r="E126" s="91"/>
-      <c r="F126" s="92"/>
+      <c r="E126" s="109"/>
+      <c r="F126" s="110"/>
       <c r="G126" s="46">
         <f>SUM(G5:G125)</f>
-        <v>6950</v>
-      </c>
-      <c r="H126" s="88" t="s">
+        <v>7150</v>
+      </c>
+      <c r="H126" s="106" t="s">
         <v>218</v>
       </c>
-      <c r="I126" s="89"/>
+      <c r="I126" s="107"/>
       <c r="J126" s="69">
         <f>(G126*100)/C126</f>
-        <v>54.724409448818896</v>
+        <v>56.2992125984252</v>
       </c>
       <c r="K126" s="46"/>
       <c r="L126" s="50"/>
@@ -9127,33 +9127,33 @@
       <c r="T126" s="50"/>
     </row>
     <row r="127" spans="1:20" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A127" s="93" t="s">
+      <c r="A127" s="85" t="s">
         <v>0</v>
       </c>
       <c r="B127" s="43"/>
       <c r="C127" s="43"/>
-      <c r="D127" s="95" t="s">
+      <c r="D127" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="E127" s="96"/>
-      <c r="F127" s="96"/>
-      <c r="G127" s="96"/>
-      <c r="H127" s="96"/>
-      <c r="I127" s="96"/>
-      <c r="J127" s="96"/>
-      <c r="K127" s="96"/>
-      <c r="L127" s="96"/>
-      <c r="M127" s="96"/>
-      <c r="N127" s="96"/>
-      <c r="O127" s="96"/>
-      <c r="P127" s="96"/>
-      <c r="Q127" s="96"/>
-      <c r="R127" s="96"/>
-      <c r="S127" s="96"/>
-      <c r="T127" s="97"/>
+      <c r="E127" s="88"/>
+      <c r="F127" s="88"/>
+      <c r="G127" s="88"/>
+      <c r="H127" s="88"/>
+      <c r="I127" s="88"/>
+      <c r="J127" s="88"/>
+      <c r="K127" s="88"/>
+      <c r="L127" s="88"/>
+      <c r="M127" s="88"/>
+      <c r="N127" s="88"/>
+      <c r="O127" s="88"/>
+      <c r="P127" s="88"/>
+      <c r="Q127" s="88"/>
+      <c r="R127" s="88"/>
+      <c r="S127" s="88"/>
+      <c r="T127" s="89"/>
     </row>
     <row r="128" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A128" s="94"/>
+      <c r="A128" s="86"/>
       <c r="B128" s="55" t="s">
         <v>214</v>
       </c>
@@ -11392,33 +11392,33 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" thickTop="1" thickBot="1">
       <c r="A1" s="29"/>
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="115" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="111" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="113"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
@@ -11430,7 +11430,7 @@
     </row>
     <row r="2" spans="1:32" ht="29.25" thickBot="1">
       <c r="A2" s="29"/>
-      <c r="B2" s="115"/>
+      <c r="B2" s="116"/>
       <c r="C2" s="22" t="s">
         <v>132</v>
       </c>
@@ -11450,15 +11450,15 @@
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -11470,7 +11470,7 @@
     </row>
     <row r="3" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="29"/>
-      <c r="B3" s="115"/>
+      <c r="B3" s="116"/>
       <c r="C3" s="11" t="s">
         <v>163</v>
       </c>
@@ -11539,7 +11539,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="117" t="s">
         <v>165</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -11569,7 +11569,7 @@
       <c r="X4" s="31"/>
     </row>
     <row r="5" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="117"/>
+      <c r="A5" s="118"/>
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
@@ -11641,7 +11641,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="117"/>
+      <c r="A6" s="118"/>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
@@ -11713,7 +11713,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="117"/>
+      <c r="A7" s="118"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
@@ -11785,7 +11785,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="117"/>
+      <c r="A8" s="118"/>
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
@@ -11857,7 +11857,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="117"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
@@ -11929,7 +11929,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="117"/>
+      <c r="A10" s="118"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
@@ -12001,7 +12001,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="117"/>
+      <c r="A11" s="118"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
@@ -12073,7 +12073,7 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="117"/>
+      <c r="A12" s="118"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
@@ -12145,7 +12145,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="117"/>
+      <c r="A13" s="118"/>
       <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
@@ -12173,7 +12173,7 @@
       <c r="X13" s="34"/>
     </row>
     <row r="14" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="117"/>
+      <c r="A14" s="118"/>
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
@@ -12245,7 +12245,7 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="117"/>
+      <c r="A15" s="118"/>
       <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
@@ -12317,7 +12317,7 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="117"/>
+      <c r="A16" s="118"/>
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
@@ -12389,7 +12389,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="117"/>
+      <c r="A17" s="118"/>
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
@@ -12461,7 +12461,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="117"/>
+      <c r="A18" s="118"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
@@ -12533,7 +12533,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="117"/>
+      <c r="A19" s="118"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -12605,7 +12605,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="117"/>
+      <c r="A20" s="118"/>
       <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
@@ -12677,7 +12677,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="117"/>
+      <c r="A21" s="118"/>
       <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
@@ -12749,7 +12749,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="117"/>
+      <c r="A22" s="118"/>
       <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
@@ -12821,7 +12821,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="117"/>
+      <c r="A23" s="118"/>
       <c r="B23" s="4" t="s">
         <v>30</v>
       </c>
@@ -12849,7 +12849,7 @@
       <c r="X23" s="34"/>
     </row>
     <row r="24" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="117"/>
+      <c r="A24" s="118"/>
       <c r="B24" s="4" t="s">
         <v>31</v>
       </c>
@@ -12921,7 +12921,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="117"/>
+      <c r="A25" s="118"/>
       <c r="B25" s="4" t="s">
         <v>32</v>
       </c>
@@ -12993,7 +12993,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="117"/>
+      <c r="A26" s="118"/>
       <c r="B26" s="4" t="s">
         <v>33</v>
       </c>
@@ -13021,7 +13021,7 @@
       <c r="X26" s="34"/>
     </row>
     <row r="27" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="117"/>
+      <c r="A27" s="118"/>
       <c r="B27" s="4" t="s">
         <v>34</v>
       </c>
@@ -13093,7 +13093,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="117"/>
+      <c r="A28" s="118"/>
       <c r="B28" s="4" t="s">
         <v>35</v>
       </c>
@@ -13165,7 +13165,7 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="117"/>
+      <c r="A29" s="118"/>
       <c r="B29" s="4" t="s">
         <v>36</v>
       </c>
@@ -13237,7 +13237,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="117"/>
+      <c r="A30" s="118"/>
       <c r="B30" s="4" t="s">
         <v>37</v>
       </c>
@@ -13309,7 +13309,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="117"/>
+      <c r="A31" s="118"/>
       <c r="B31" s="4" t="s">
         <v>38</v>
       </c>
@@ -13381,7 +13381,7 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="117"/>
+      <c r="A32" s="118"/>
       <c r="B32" s="4" t="s">
         <v>39</v>
       </c>
@@ -13453,7 +13453,7 @@
       </c>
     </row>
     <row r="33" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="117"/>
+      <c r="A33" s="118"/>
       <c r="B33" s="4" t="s">
         <v>40</v>
       </c>
@@ -13525,7 +13525,7 @@
       </c>
     </row>
     <row r="34" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="117"/>
+      <c r="A34" s="118"/>
       <c r="B34" s="4" t="s">
         <v>41</v>
       </c>
@@ -13597,7 +13597,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="117"/>
+      <c r="A35" s="118"/>
       <c r="B35" s="4" t="s">
         <v>42</v>
       </c>
@@ -13669,7 +13669,7 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="117"/>
+      <c r="A36" s="118"/>
       <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
@@ -13741,7 +13741,7 @@
       </c>
     </row>
     <row r="37" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="117"/>
+      <c r="A37" s="118"/>
       <c r="B37" s="4" t="s">
         <v>44</v>
       </c>
@@ -13813,7 +13813,7 @@
       </c>
     </row>
     <row r="38" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="117"/>
+      <c r="A38" s="118"/>
       <c r="B38" s="4" t="s">
         <v>45</v>
       </c>
@@ -13885,7 +13885,7 @@
       </c>
     </row>
     <row r="39" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="117"/>
+      <c r="A39" s="118"/>
       <c r="B39" s="4" t="s">
         <v>46</v>
       </c>
@@ -13957,7 +13957,7 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="117"/>
+      <c r="A40" s="118"/>
       <c r="B40" s="4" t="s">
         <v>47</v>
       </c>
@@ -14029,7 +14029,7 @@
       </c>
     </row>
     <row r="41" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="117"/>
+      <c r="A41" s="118"/>
       <c r="B41" s="4" t="s">
         <v>38</v>
       </c>
@@ -14101,7 +14101,7 @@
       </c>
     </row>
     <row r="42" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="117"/>
+      <c r="A42" s="118"/>
       <c r="B42" s="4" t="s">
         <v>49</v>
       </c>
@@ -14173,7 +14173,7 @@
       </c>
     </row>
     <row r="43" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="117"/>
+      <c r="A43" s="118"/>
       <c r="B43" s="4" t="s">
         <v>50</v>
       </c>
@@ -14201,7 +14201,7 @@
       <c r="X43" s="40"/>
     </row>
     <row r="44" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="117"/>
+      <c r="A44" s="118"/>
       <c r="B44" s="4" t="s">
         <v>51</v>
       </c>
@@ -14273,7 +14273,7 @@
       </c>
     </row>
     <row r="45" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="117"/>
+      <c r="A45" s="118"/>
       <c r="B45" s="4" t="s">
         <v>52</v>
       </c>
@@ -14345,7 +14345,7 @@
       </c>
     </row>
     <row r="46" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="117"/>
+      <c r="A46" s="118"/>
       <c r="B46" s="4" t="s">
         <v>53</v>
       </c>
@@ -14417,7 +14417,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="117"/>
+      <c r="A47" s="118"/>
       <c r="B47" s="4" t="s">
         <v>54</v>
       </c>
@@ -14489,7 +14489,7 @@
       </c>
     </row>
     <row r="48" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="117"/>
+      <c r="A48" s="118"/>
       <c r="B48" s="4" t="s">
         <v>55</v>
       </c>
@@ -14517,7 +14517,7 @@
       <c r="X48" s="31"/>
     </row>
     <row r="49" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A49" s="117"/>
+      <c r="A49" s="118"/>
       <c r="B49" s="4" t="s">
         <v>56</v>
       </c>
@@ -14589,7 +14589,7 @@
       </c>
     </row>
     <row r="50" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A50" s="117"/>
+      <c r="A50" s="118"/>
       <c r="B50" s="4" t="s">
         <v>57</v>
       </c>
@@ -14661,7 +14661,7 @@
       </c>
     </row>
     <row r="51" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A51" s="117"/>
+      <c r="A51" s="118"/>
       <c r="B51" s="4" t="s">
         <v>39</v>
       </c>
@@ -14733,7 +14733,7 @@
       </c>
     </row>
     <row r="52" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="117"/>
+      <c r="A52" s="118"/>
       <c r="B52" s="4" t="s">
         <v>59</v>
       </c>
@@ -14805,7 +14805,7 @@
       </c>
     </row>
     <row r="53" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A53" s="117"/>
+      <c r="A53" s="118"/>
       <c r="B53" s="4" t="s">
         <v>60</v>
       </c>
@@ -14877,7 +14877,7 @@
       </c>
     </row>
     <row r="54" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A54" s="117"/>
+      <c r="A54" s="118"/>
       <c r="B54" s="4" t="s">
         <v>61</v>
       </c>
@@ -14949,7 +14949,7 @@
       </c>
     </row>
     <row r="55" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A55" s="117"/>
+      <c r="A55" s="118"/>
       <c r="B55" s="4" t="s">
         <v>62</v>
       </c>
@@ -14977,7 +14977,7 @@
       <c r="X55" s="31"/>
     </row>
     <row r="56" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="117"/>
+      <c r="A56" s="118"/>
       <c r="B56" s="4" t="s">
         <v>63</v>
       </c>
@@ -15049,7 +15049,7 @@
       </c>
     </row>
     <row r="57" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="117"/>
+      <c r="A57" s="118"/>
       <c r="B57" s="4" t="s">
         <v>64</v>
       </c>
@@ -15121,7 +15121,7 @@
       </c>
     </row>
     <row r="58" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A58" s="117"/>
+      <c r="A58" s="118"/>
       <c r="B58" s="4" t="s">
         <v>65</v>
       </c>
@@ -15193,7 +15193,7 @@
       </c>
     </row>
     <row r="59" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A59" s="117"/>
+      <c r="A59" s="118"/>
       <c r="B59" s="4" t="s">
         <v>66</v>
       </c>
@@ -15265,7 +15265,7 @@
       </c>
     </row>
     <row r="60" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A60" s="117"/>
+      <c r="A60" s="118"/>
       <c r="B60" s="4" t="s">
         <v>67</v>
       </c>
@@ -15337,7 +15337,7 @@
       </c>
     </row>
     <row r="61" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A61" s="117"/>
+      <c r="A61" s="118"/>
       <c r="B61" s="4" t="s">
         <v>68</v>
       </c>
@@ -15409,7 +15409,7 @@
       </c>
     </row>
     <row r="62" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="117"/>
+      <c r="A62" s="118"/>
       <c r="B62" s="4" t="s">
         <v>69</v>
       </c>
@@ -15437,7 +15437,7 @@
       <c r="X62" s="31"/>
     </row>
     <row r="63" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A63" s="117"/>
+      <c r="A63" s="118"/>
       <c r="B63" s="4" t="s">
         <v>70</v>
       </c>
@@ -15465,7 +15465,7 @@
       <c r="X63" s="31"/>
     </row>
     <row r="64" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A64" s="117"/>
+      <c r="A64" s="118"/>
       <c r="B64" s="4" t="s">
         <v>31</v>
       </c>
@@ -15537,7 +15537,7 @@
       </c>
     </row>
     <row r="65" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A65" s="117"/>
+      <c r="A65" s="118"/>
       <c r="B65" s="4" t="s">
         <v>72</v>
       </c>
@@ -15609,7 +15609,7 @@
       </c>
     </row>
     <row r="66" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A66" s="117"/>
+      <c r="A66" s="118"/>
       <c r="B66" s="4" t="s">
         <v>73</v>
       </c>
@@ -15681,7 +15681,7 @@
       </c>
     </row>
     <row r="67" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A67" s="117"/>
+      <c r="A67" s="118"/>
       <c r="B67" s="4" t="s">
         <v>74</v>
       </c>
@@ -15753,7 +15753,7 @@
       </c>
     </row>
     <row r="68" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A68" s="117"/>
+      <c r="A68" s="118"/>
       <c r="B68" s="4" t="s">
         <v>75</v>
       </c>
@@ -15825,7 +15825,7 @@
       </c>
     </row>
     <row r="69" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A69" s="117"/>
+      <c r="A69" s="118"/>
       <c r="B69" s="5" t="s">
         <v>76</v>
       </c>
@@ -15897,7 +15897,7 @@
       </c>
     </row>
     <row r="70" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A70" s="117"/>
+      <c r="A70" s="118"/>
       <c r="B70" s="5" t="s">
         <v>77</v>
       </c>
@@ -15969,7 +15969,7 @@
       </c>
     </row>
     <row r="71" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A71" s="117"/>
+      <c r="A71" s="118"/>
       <c r="B71" s="5" t="s">
         <v>78</v>
       </c>
@@ -16001,7 +16001,7 @@
       <c r="X71" s="32"/>
     </row>
     <row r="72" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" s="117"/>
+      <c r="A72" s="118"/>
       <c r="B72" s="5" t="s">
         <v>79</v>
       </c>
@@ -16033,7 +16033,7 @@
       <c r="X72" s="32"/>
     </row>
     <row r="73" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A73" s="117"/>
+      <c r="A73" s="118"/>
       <c r="B73" s="5" t="s">
         <v>80</v>
       </c>
@@ -16065,7 +16065,7 @@
       <c r="X73" s="32"/>
     </row>
     <row r="74" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A74" s="117"/>
+      <c r="A74" s="118"/>
       <c r="B74" s="5" t="s">
         <v>81</v>
       </c>
@@ -16097,7 +16097,7 @@
       <c r="X74" s="32"/>
     </row>
     <row r="75" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A75" s="117"/>
+      <c r="A75" s="118"/>
       <c r="B75" s="5" t="s">
         <v>82</v>
       </c>
@@ -16125,7 +16125,7 @@
       <c r="X75" s="31"/>
     </row>
     <row r="76" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A76" s="117"/>
+      <c r="A76" s="118"/>
       <c r="B76" s="5" t="s">
         <v>83</v>
       </c>
@@ -16153,7 +16153,7 @@
       <c r="X76" s="31"/>
     </row>
     <row r="77" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A77" s="117"/>
+      <c r="A77" s="118"/>
       <c r="B77" s="5" t="s">
         <v>84</v>
       </c>
@@ -16181,7 +16181,7 @@
       <c r="X77" s="31"/>
     </row>
     <row r="78" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A78" s="117"/>
+      <c r="A78" s="118"/>
       <c r="B78" s="5" t="s">
         <v>85</v>
       </c>
@@ -16209,7 +16209,7 @@
       <c r="X78" s="31"/>
     </row>
     <row r="79" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A79" s="117"/>
+      <c r="A79" s="118"/>
       <c r="B79" s="5" t="s">
         <v>86</v>
       </c>
@@ -16237,7 +16237,7 @@
       <c r="X79" s="31"/>
     </row>
     <row r="80" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A80" s="117"/>
+      <c r="A80" s="118"/>
       <c r="B80" s="5" t="s">
         <v>87</v>
       </c>
@@ -16267,7 +16267,7 @@
       <c r="X80" s="32"/>
     </row>
     <row r="81" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A81" s="117"/>
+      <c r="A81" s="118"/>
       <c r="B81" s="5" t="s">
         <v>202</v>
       </c>
@@ -16297,7 +16297,7 @@
       <c r="X81" s="32"/>
     </row>
     <row r="82" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A82" s="117"/>
+      <c r="A82" s="118"/>
       <c r="B82" s="5" t="s">
         <v>89</v>
       </c>
@@ -16329,7 +16329,7 @@
       <c r="X82" s="32"/>
     </row>
     <row r="83" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A83" s="117"/>
+      <c r="A83" s="118"/>
       <c r="B83" s="5" t="s">
         <v>90</v>
       </c>
@@ -16359,7 +16359,7 @@
       <c r="X83" s="32"/>
     </row>
     <row r="84" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A84" s="117"/>
+      <c r="A84" s="118"/>
       <c r="B84" s="5" t="s">
         <v>91</v>
       </c>
@@ -16389,7 +16389,7 @@
       <c r="X84" s="32"/>
     </row>
     <row r="85" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A85" s="117"/>
+      <c r="A85" s="118"/>
       <c r="B85" s="5" t="s">
         <v>92</v>
       </c>
@@ -16421,7 +16421,7 @@
       <c r="X85" s="32"/>
     </row>
     <row r="86" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A86" s="117"/>
+      <c r="A86" s="118"/>
       <c r="B86" s="5" t="s">
         <v>93</v>
       </c>
@@ -16449,7 +16449,7 @@
       <c r="X86" s="31"/>
     </row>
     <row r="87" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A87" s="117"/>
+      <c r="A87" s="118"/>
       <c r="B87" s="5" t="s">
         <v>94</v>
       </c>
@@ -16481,7 +16481,7 @@
       <c r="X87" s="32"/>
     </row>
     <row r="88" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A88" s="117"/>
+      <c r="A88" s="118"/>
       <c r="B88" s="5" t="s">
         <v>95</v>
       </c>
@@ -16513,7 +16513,7 @@
       <c r="X88" s="32"/>
     </row>
     <row r="89" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A89" s="117"/>
+      <c r="A89" s="118"/>
       <c r="B89" s="5" t="s">
         <v>96</v>
       </c>
@@ -16549,7 +16549,7 @@
       <c r="X89" s="32"/>
     </row>
     <row r="90" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A90" s="117"/>
+      <c r="A90" s="118"/>
       <c r="B90" s="5" t="s">
         <v>97</v>
       </c>
@@ -16577,7 +16577,7 @@
       <c r="X90" s="31"/>
     </row>
     <row r="91" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A91" s="117"/>
+      <c r="A91" s="118"/>
       <c r="B91" s="5" t="s">
         <v>98</v>
       </c>
@@ -16649,7 +16649,7 @@
       </c>
     </row>
     <row r="92" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A92" s="117"/>
+      <c r="A92" s="118"/>
       <c r="B92" s="5" t="s">
         <v>99</v>
       </c>
@@ -16721,7 +16721,7 @@
       </c>
     </row>
     <row r="93" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A93" s="117"/>
+      <c r="A93" s="118"/>
       <c r="B93" s="5" t="s">
         <v>100</v>
       </c>
@@ -16793,7 +16793,7 @@
       </c>
     </row>
     <row r="94" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A94" s="117"/>
+      <c r="A94" s="118"/>
       <c r="B94" s="5" t="s">
         <v>101</v>
       </c>
@@ -16865,7 +16865,7 @@
       </c>
     </row>
     <row r="95" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A95" s="117"/>
+      <c r="A95" s="118"/>
       <c r="B95" s="5" t="s">
         <v>102</v>
       </c>
@@ -16937,7 +16937,7 @@
       </c>
     </row>
     <row r="96" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A96" s="117"/>
+      <c r="A96" s="118"/>
       <c r="B96" s="5" t="s">
         <v>103</v>
       </c>
@@ -17009,7 +17009,7 @@
       </c>
     </row>
     <row r="97" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A97" s="117"/>
+      <c r="A97" s="118"/>
       <c r="B97" s="5" t="s">
         <v>104</v>
       </c>
@@ -17081,7 +17081,7 @@
       </c>
     </row>
     <row r="98" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A98" s="117"/>
+      <c r="A98" s="118"/>
       <c r="B98" s="5" t="s">
         <v>105</v>
       </c>
@@ -17153,7 +17153,7 @@
       </c>
     </row>
     <row r="99" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A99" s="117"/>
+      <c r="A99" s="118"/>
       <c r="B99" s="5" t="s">
         <v>106</v>
       </c>
@@ -17225,7 +17225,7 @@
       </c>
     </row>
     <row r="100" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A100" s="117"/>
+      <c r="A100" s="118"/>
       <c r="B100" s="5" t="s">
         <v>107</v>
       </c>
@@ -17297,7 +17297,7 @@
       </c>
     </row>
     <row r="101" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A101" s="117"/>
+      <c r="A101" s="118"/>
       <c r="B101" s="5" t="s">
         <v>108</v>
       </c>
@@ -17369,7 +17369,7 @@
       </c>
     </row>
     <row r="102" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A102" s="117"/>
+      <c r="A102" s="118"/>
       <c r="B102" s="5" t="s">
         <v>109</v>
       </c>
@@ -17441,7 +17441,7 @@
       </c>
     </row>
     <row r="103" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A103" s="117"/>
+      <c r="A103" s="118"/>
       <c r="B103" s="5" t="s">
         <v>110</v>
       </c>
@@ -17513,7 +17513,7 @@
       </c>
     </row>
     <row r="104" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A104" s="117"/>
+      <c r="A104" s="118"/>
       <c r="B104" s="5" t="s">
         <v>111</v>
       </c>
@@ -17585,7 +17585,7 @@
       </c>
     </row>
     <row r="105" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A105" s="117"/>
+      <c r="A105" s="118"/>
       <c r="B105" s="5" t="s">
         <v>112</v>
       </c>
@@ -17613,7 +17613,7 @@
       <c r="X105" s="31"/>
     </row>
     <row r="106" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A106" s="117"/>
+      <c r="A106" s="118"/>
       <c r="B106" s="5" t="s">
         <v>113</v>
       </c>
@@ -17685,7 +17685,7 @@
       </c>
     </row>
     <row r="107" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A107" s="117"/>
+      <c r="A107" s="118"/>
       <c r="B107" s="5" t="s">
         <v>114</v>
       </c>
@@ -17713,7 +17713,7 @@
       <c r="X107" s="31"/>
     </row>
     <row r="108" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A108" s="117"/>
+      <c r="A108" s="118"/>
       <c r="B108" s="5" t="s">
         <v>115</v>
       </c>
@@ -17741,7 +17741,7 @@
       <c r="X108" s="31"/>
     </row>
     <row r="109" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A109" s="117"/>
+      <c r="A109" s="118"/>
       <c r="B109" s="5" t="s">
         <v>116</v>
       </c>
@@ -17769,7 +17769,7 @@
       <c r="X109" s="31"/>
     </row>
     <row r="110" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A110" s="117"/>
+      <c r="A110" s="118"/>
       <c r="B110" s="5" t="s">
         <v>117</v>
       </c>
@@ -17797,7 +17797,7 @@
       <c r="X110" s="31"/>
     </row>
     <row r="111" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A111" s="117"/>
+      <c r="A111" s="118"/>
       <c r="B111" s="5" t="s">
         <v>118</v>
       </c>
@@ -17825,7 +17825,7 @@
       <c r="X111" s="31"/>
     </row>
     <row r="112" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A112" s="117"/>
+      <c r="A112" s="118"/>
       <c r="B112" s="5" t="s">
         <v>119</v>
       </c>
@@ -17853,7 +17853,7 @@
       <c r="X112" s="31"/>
     </row>
     <row r="113" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A113" s="117"/>
+      <c r="A113" s="118"/>
       <c r="B113" s="5" t="s">
         <v>120</v>
       </c>
@@ -17881,7 +17881,7 @@
       <c r="X113" s="31"/>
     </row>
     <row r="114" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A114" s="117"/>
+      <c r="A114" s="118"/>
       <c r="B114" s="5" t="s">
         <v>121</v>
       </c>
@@ -17909,7 +17909,7 @@
       <c r="X114" s="31"/>
     </row>
     <row r="115" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A115" s="117"/>
+      <c r="A115" s="118"/>
       <c r="B115" s="5" t="s">
         <v>122</v>
       </c>
@@ -17937,7 +17937,7 @@
       <c r="X115" s="31"/>
     </row>
     <row r="116" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A116" s="117"/>
+      <c r="A116" s="118"/>
       <c r="B116" s="5" t="s">
         <v>205</v>
       </c>
@@ -17965,7 +17965,7 @@
       <c r="X116" s="31"/>
     </row>
     <row r="117" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A117" s="117"/>
+      <c r="A117" s="118"/>
       <c r="B117" s="5" t="s">
         <v>124</v>
       </c>
@@ -17993,7 +17993,7 @@
       <c r="X117" s="31"/>
     </row>
     <row r="118" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A118" s="117"/>
+      <c r="A118" s="118"/>
       <c r="B118" s="5" t="s">
         <v>125</v>
       </c>
@@ -18065,7 +18065,7 @@
       </c>
     </row>
     <row r="119" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A119" s="117"/>
+      <c r="A119" s="118"/>
       <c r="B119" s="6" t="s">
         <v>126</v>
       </c>
@@ -18093,7 +18093,7 @@
       <c r="X119" s="31"/>
     </row>
     <row r="120" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A120" s="117"/>
+      <c r="A120" s="118"/>
       <c r="B120" s="5" t="s">
         <v>127</v>
       </c>
@@ -18165,7 +18165,7 @@
       </c>
     </row>
     <row r="121" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A121" s="117"/>
+      <c r="A121" s="118"/>
       <c r="B121" s="5" t="s">
         <v>128</v>
       </c>
@@ -18237,7 +18237,7 @@
       </c>
     </row>
     <row r="122" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A122" s="117"/>
+      <c r="A122" s="118"/>
       <c r="B122" s="5" t="s">
         <v>129</v>
       </c>
@@ -18265,7 +18265,7 @@
       <c r="X122" s="31"/>
     </row>
     <row r="123" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A123" s="117"/>
+      <c r="A123" s="118"/>
       <c r="B123" s="7" t="s">
         <v>206</v>
       </c>
@@ -18293,7 +18293,7 @@
       <c r="X123" s="31"/>
     </row>
     <row r="124" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A124" s="118"/>
+      <c r="A124" s="119"/>
       <c r="B124" s="5" t="s">
         <v>131</v>
       </c>
@@ -18395,42 +18395,42 @@
     <row r="1" spans="1:123" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="120" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="123" t="s">
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="125"/>
-      <c r="Y1" s="126" t="s">
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="127" t="s">
         <v>166</v>
       </c>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="128"/>
-      <c r="AD1" s="129"/>
-      <c r="AE1" s="129"/>
-      <c r="AF1" s="130"/>
+      <c r="Z1" s="128"/>
+      <c r="AA1" s="128"/>
+      <c r="AB1" s="128"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="130"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="131"/>
       <c r="AG1" s="36"/>
       <c r="AH1" s="36"/>
       <c r="AI1" s="36"/>
@@ -18891,7 +18891,7 @@
       </c>
     </row>
     <row r="3" spans="1:123" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="122" t="s">
         <v>177</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -19230,7 +19230,7 @@
       </c>
     </row>
     <row r="4" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="19" t="s">
         <v>136</v>
       </c>
@@ -19567,7 +19567,7 @@
       </c>
     </row>
     <row r="5" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="122"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="19" t="s">
         <v>137</v>
       </c>
@@ -19904,7 +19904,7 @@
       </c>
     </row>
     <row r="6" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="122"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="19" t="s">
         <v>138</v>
       </c>
@@ -20241,7 +20241,7 @@
       </c>
     </row>
     <row r="7" spans="1:123" s="21" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="122"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="19" t="s">
         <v>139</v>
       </c>
@@ -20578,7 +20578,7 @@
       </c>
     </row>
     <row r="8" spans="1:123" s="21" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="19" t="s">
         <v>140</v>
       </c>
@@ -20917,7 +20917,7 @@
       </c>
     </row>
     <row r="9" spans="1:123" s="21" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="122"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="19" t="s">
         <v>141</v>
       </c>
@@ -21256,7 +21256,7 @@
       </c>
     </row>
     <row r="10" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="122"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="19" t="s">
         <v>142</v>
       </c>
@@ -21595,7 +21595,7 @@
       </c>
     </row>
     <row r="11" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="122"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="19" t="s">
         <v>143</v>
       </c>
@@ -21934,7 +21934,7 @@
       </c>
     </row>
     <row r="12" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="122"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="19" t="s">
         <v>145</v>
       </c>
@@ -22061,7 +22061,7 @@
       <c r="DS12" s="33"/>
     </row>
     <row r="13" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="122"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="19" t="s">
         <v>146</v>
       </c>
@@ -22188,7 +22188,7 @@
       <c r="DS13" s="33"/>
     </row>
     <row r="14" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="122"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="19" t="s">
         <v>147</v>
       </c>
@@ -22315,7 +22315,7 @@
       <c r="DS14" s="33"/>
     </row>
     <row r="15" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="122"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="19" t="s">
         <v>148</v>
       </c>
@@ -22442,7 +22442,7 @@
       <c r="DS15" s="33"/>
     </row>
     <row r="16" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="122"/>
+      <c r="A16" s="123"/>
       <c r="B16" s="19" t="s">
         <v>149</v>
       </c>
@@ -22569,7 +22569,7 @@
       <c r="DS16" s="33"/>
     </row>
     <row r="17" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="122"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="19" t="s">
         <v>150</v>
       </c>
@@ -22696,7 +22696,7 @@
       <c r="DS17" s="33"/>
     </row>
     <row r="18" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="122"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="19" t="s">
         <v>151</v>
       </c>
@@ -23035,7 +23035,7 @@
       </c>
     </row>
     <row r="19" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="122"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="19" t="s">
         <v>152</v>
       </c>
@@ -23162,7 +23162,7 @@
       <c r="DS19" s="40"/>
     </row>
     <row r="20" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="122"/>
+      <c r="A20" s="123"/>
       <c r="B20" s="19" t="s">
         <v>153</v>
       </c>
@@ -23501,7 +23501,7 @@
       </c>
     </row>
     <row r="21" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="122"/>
+      <c r="A21" s="123"/>
       <c r="B21" s="19" t="s">
         <v>154</v>
       </c>
@@ -23840,7 +23840,7 @@
       </c>
     </row>
     <row r="22" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="122"/>
+      <c r="A22" s="123"/>
       <c r="B22" s="19" t="s">
         <v>155</v>
       </c>
@@ -24179,7 +24179,7 @@
       </c>
     </row>
     <row r="23" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="122"/>
+      <c r="A23" s="123"/>
       <c r="B23" s="19" t="s">
         <v>156</v>
       </c>
@@ -24518,7 +24518,7 @@
       </c>
     </row>
     <row r="24" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="122"/>
+      <c r="A24" s="123"/>
       <c r="B24" s="19" t="s">
         <v>157</v>
       </c>
@@ -24849,7 +24849,7 @@
       <c r="DS24" s="33"/>
     </row>
     <row r="25" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="122"/>
+      <c r="A25" s="123"/>
       <c r="B25" s="19" t="s">
         <v>158</v>
       </c>
@@ -24976,7 +24976,7 @@
       <c r="DS25" s="34"/>
     </row>
     <row r="26" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="122"/>
+      <c r="A26" s="123"/>
       <c r="B26" s="19" t="s">
         <v>159</v>
       </c>
@@ -25103,7 +25103,7 @@
       <c r="DS26" s="34"/>
     </row>
     <row r="27" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="122"/>
+      <c r="A27" s="123"/>
       <c r="B27" s="19" t="s">
         <v>160</v>
       </c>
@@ -25230,7 +25230,7 @@
       <c r="DS27" s="34"/>
     </row>
     <row r="28" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="122"/>
+      <c r="A28" s="123"/>
       <c r="B28" s="19" t="s">
         <v>208</v>
       </c>
@@ -25409,7 +25409,7 @@
       <c r="DS28" s="33"/>
     </row>
     <row r="29" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="122"/>
+      <c r="A29" s="123"/>
       <c r="B29" s="19" t="s">
         <v>209</v>
       </c>
@@ -25588,7 +25588,7 @@
       <c r="DS29" s="33"/>
     </row>
     <row r="30" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="122"/>
+      <c r="A30" s="123"/>
       <c r="B30" s="19" t="s">
         <v>210</v>
       </c>
@@ -25767,7 +25767,7 @@
       <c r="DS30" s="33"/>
     </row>
     <row r="31" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="122"/>
+      <c r="A31" s="123"/>
       <c r="B31" s="19" t="s">
         <v>211</v>
       </c>
@@ -25946,7 +25946,7 @@
       <c r="DS31" s="33"/>
     </row>
     <row r="32" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="122"/>
+      <c r="A32" s="123"/>
       <c r="B32" s="19" t="s">
         <v>212</v>
       </c>
@@ -26125,7 +26125,7 @@
       <c r="DS32" s="33"/>
     </row>
     <row r="33" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="122"/>
+      <c r="A33" s="123"/>
       <c r="B33" s="19" t="s">
         <v>188</v>
       </c>
@@ -26460,7 +26460,7 @@
       </c>
     </row>
     <row r="34" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="122"/>
+      <c r="A34" s="123"/>
       <c r="B34" s="20" t="s">
         <v>189</v>
       </c>
@@ -26797,7 +26797,7 @@
       </c>
     </row>
     <row r="35" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="122"/>
+      <c r="A35" s="123"/>
       <c r="B35" s="20" t="s">
         <v>190</v>
       </c>
@@ -27136,7 +27136,7 @@
       </c>
     </row>
     <row r="36" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="122"/>
+      <c r="A36" s="123"/>
       <c r="B36" s="20" t="s">
         <v>191</v>
       </c>
@@ -27475,7 +27475,7 @@
       </c>
     </row>
     <row r="37" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="122"/>
+      <c r="A37" s="123"/>
       <c r="B37" s="20" t="s">
         <v>192</v>
       </c>
@@ -28168,14 +28168,14 @@
   <sheetData>
     <row r="1" spans="1:55" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:55" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="134" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
       <c r="G2" s="62"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
@@ -28227,8 +28227,8 @@
       <c r="BC2" s="13"/>
     </row>
     <row r="3" spans="1:55" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A3" s="143"/>
-      <c r="B3" s="143"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
       <c r="C3" s="67" t="s">
         <v>220</v>
       </c>
@@ -28241,41 +28241,41 @@
       <c r="F3" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="144"/>
-      <c r="T3" s="144"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="144"/>
-      <c r="W3" s="144"/>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="144"/>
-      <c r="Z3" s="144"/>
-      <c r="AA3" s="144"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="144"/>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="144"/>
-      <c r="AG3" s="144"/>
-      <c r="AH3" s="144"/>
-      <c r="AI3" s="144"/>
-      <c r="AJ3" s="144"/>
-      <c r="AK3" s="144"/>
-      <c r="AL3" s="144"/>
-      <c r="AM3" s="144"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="136"/>
+      <c r="AJ3" s="136"/>
+      <c r="AK3" s="136"/>
+      <c r="AL3" s="136"/>
+      <c r="AM3" s="136"/>
     </row>
     <row r="4" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="132" t="s">
         <v>165</v>
       </c>
       <c r="B4" s="66" t="s">
@@ -28291,19 +28291,19 @@
       <c r="F4" s="65"/>
     </row>
     <row r="5" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="140"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="137" t="s">
         <v>279</v>
       </c>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="147"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="139"/>
     </row>
     <row r="6" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="140"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="66" t="s">
         <v>13</v>
       </c>
@@ -28317,7 +28317,7 @@
       <c r="F6" s="65"/>
     </row>
     <row r="7" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="140"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="66" t="s">
         <v>14</v>
       </c>
@@ -28331,7 +28331,7 @@
       <c r="F7" s="65"/>
     </row>
     <row r="8" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="140"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="66" t="s">
         <v>15</v>
       </c>
@@ -28345,7 +28345,7 @@
       <c r="F8" s="65"/>
     </row>
     <row r="9" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="140"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="66" t="s">
         <v>16</v>
       </c>
@@ -28359,7 +28359,7 @@
       <c r="F9" s="65"/>
     </row>
     <row r="10" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="140"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="60" t="s">
         <v>17</v>
       </c>
@@ -28373,7 +28373,7 @@
       <c r="F10" s="65"/>
     </row>
     <row r="11" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="140"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="60" t="s">
         <v>18</v>
       </c>
@@ -28387,7 +28387,7 @@
       <c r="F11" s="65"/>
     </row>
     <row r="12" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="140"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="60" t="s">
         <v>19</v>
       </c>
@@ -28401,7 +28401,7 @@
       <c r="F12" s="65"/>
     </row>
     <row r="13" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="140"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="60" t="s">
         <v>20</v>
       </c>
@@ -28415,7 +28415,7 @@
       <c r="F13" s="65"/>
     </row>
     <row r="14" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="140"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="60" t="s">
         <v>22</v>
       </c>
@@ -28429,7 +28429,7 @@
       <c r="F14" s="65"/>
     </row>
     <row r="15" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="140"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="60" t="s">
         <v>23</v>
       </c>
@@ -28443,7 +28443,7 @@
       <c r="F15" s="65"/>
     </row>
     <row r="16" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="140"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="60" t="s">
         <v>21</v>
       </c>
@@ -28457,7 +28457,7 @@
       <c r="F16" s="65"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="140"/>
+      <c r="A17" s="132"/>
       <c r="B17" s="60" t="s">
         <v>24</v>
       </c>
@@ -28471,7 +28471,7 @@
       <c r="F17" s="65"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="140"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="60" t="s">
         <v>25</v>
       </c>
@@ -28485,7 +28485,7 @@
       <c r="F18" s="65"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="140"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="60" t="s">
         <v>26</v>
       </c>
@@ -28499,7 +28499,7 @@
       <c r="F19" s="65"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="140"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="60" t="s">
         <v>27</v>
       </c>
@@ -28513,7 +28513,7 @@
       <c r="F20" s="65"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="140"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="60" t="s">
         <v>28</v>
       </c>
@@ -28527,7 +28527,7 @@
       <c r="F21" s="65"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="140"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="60" t="s">
         <v>29</v>
       </c>
@@ -28541,7 +28541,7 @@
       <c r="F22" s="65"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="140"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="60" t="s">
         <v>30</v>
       </c>
@@ -28555,7 +28555,7 @@
       <c r="F23" s="65"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="140"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="60" t="s">
         <v>31</v>
       </c>
@@ -28569,7 +28569,7 @@
       <c r="F24" s="65"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="140"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="60" t="s">
         <v>32</v>
       </c>
@@ -28583,7 +28583,7 @@
       <c r="F25" s="65"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="140"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="60" t="s">
         <v>33</v>
       </c>
@@ -28597,7 +28597,7 @@
       <c r="F26" s="65"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="140"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="60" t="s">
         <v>34</v>
       </c>
@@ -28611,7 +28611,7 @@
       <c r="F27" s="65"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="140"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="60" t="s">
         <v>35</v>
       </c>
@@ -28625,7 +28625,7 @@
       <c r="F28" s="65"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="140"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="60" t="s">
         <v>36</v>
       </c>
@@ -28639,7 +28639,7 @@
       <c r="F29" s="65"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="140"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="60" t="s">
         <v>37</v>
       </c>
@@ -28653,7 +28653,7 @@
       <c r="F30" s="65"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="140"/>
+      <c r="A31" s="132"/>
       <c r="B31" s="60" t="s">
         <v>38</v>
       </c>
@@ -28667,7 +28667,7 @@
       <c r="F31" s="65"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="140"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="60" t="s">
         <v>39</v>
       </c>
@@ -28681,7 +28681,7 @@
       <c r="F32" s="65"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="140"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="60" t="s">
         <v>40</v>
       </c>
@@ -28695,7 +28695,7 @@
       <c r="F33" s="65"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="140"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="60" t="s">
         <v>41</v>
       </c>
@@ -28709,7 +28709,7 @@
       <c r="F34" s="65"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="140"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="60" t="s">
         <v>42</v>
       </c>
@@ -28723,7 +28723,7 @@
       <c r="F35" s="65"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="140"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="60" t="s">
         <v>43</v>
       </c>
@@ -28737,7 +28737,7 @@
       <c r="F36" s="65"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="140"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="60" t="s">
         <v>44</v>
       </c>
@@ -28751,7 +28751,7 @@
       <c r="F37" s="65"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="140"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="60" t="s">
         <v>45</v>
       </c>
@@ -28765,7 +28765,7 @@
       <c r="F38" s="65"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="140"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="60" t="s">
         <v>46</v>
       </c>
@@ -28779,7 +28779,7 @@
       <c r="F39" s="65"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="140"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="60" t="s">
         <v>47</v>
       </c>
@@ -28793,7 +28793,7 @@
       <c r="F40" s="65"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="140"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="60" t="s">
         <v>48</v>
       </c>
@@ -28807,7 +28807,7 @@
       <c r="F41" s="65"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="140"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="60" t="s">
         <v>49</v>
       </c>
@@ -28821,7 +28821,7 @@
       <c r="F42" s="65"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="140"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="60" t="s">
         <v>50</v>
       </c>
@@ -28835,7 +28835,7 @@
       <c r="F43" s="65"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="140"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="60" t="s">
         <v>51</v>
       </c>
@@ -28849,7 +28849,7 @@
       <c r="F44" s="65"/>
     </row>
     <row r="45" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="140"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="60" t="s">
         <v>52</v>
       </c>
@@ -28863,7 +28863,7 @@
       <c r="F45" s="65"/>
     </row>
     <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="140"/>
+      <c r="A46" s="132"/>
       <c r="B46" s="60" t="s">
         <v>53</v>
       </c>
@@ -28877,7 +28877,7 @@
       <c r="F46" s="65"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="140"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="60" t="s">
         <v>54</v>
       </c>
@@ -28891,7 +28891,7 @@
       <c r="F47" s="65"/>
     </row>
     <row r="48" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="140"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="60" t="s">
         <v>55</v>
       </c>
@@ -28905,7 +28905,7 @@
       <c r="F48" s="65"/>
     </row>
     <row r="49" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A49" s="140"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="60" t="s">
         <v>56</v>
       </c>
@@ -28919,7 +28919,7 @@
       <c r="F49" s="65"/>
     </row>
     <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A50" s="140"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="60" t="s">
         <v>57</v>
       </c>
@@ -28933,7 +28933,7 @@
       <c r="F50" s="65"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A51" s="140"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="60" t="s">
         <v>39</v>
       </c>
@@ -28947,7 +28947,7 @@
       <c r="F51" s="65"/>
     </row>
     <row r="52" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="140"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="60" t="s">
         <v>59</v>
       </c>
@@ -28961,7 +28961,7 @@
       <c r="F52" s="65"/>
     </row>
     <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A53" s="140"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="60" t="s">
         <v>60</v>
       </c>
@@ -28975,7 +28975,7 @@
       <c r="F53" s="65"/>
     </row>
     <row r="54" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A54" s="140"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="60" t="s">
         <v>61</v>
       </c>
@@ -28989,7 +28989,7 @@
       <c r="F54" s="65"/>
     </row>
     <row r="55" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A55" s="140"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="60" t="s">
         <v>62</v>
       </c>
@@ -29003,7 +29003,7 @@
       <c r="F55" s="65"/>
     </row>
     <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="140"/>
+      <c r="A56" s="132"/>
       <c r="B56" s="60" t="s">
         <v>63</v>
       </c>
@@ -29017,7 +29017,7 @@
       <c r="F56" s="65"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="140"/>
+      <c r="A57" s="132"/>
       <c r="B57" s="60" t="s">
         <v>64</v>
       </c>
@@ -29031,7 +29031,7 @@
       <c r="F57" s="65"/>
     </row>
     <row r="58" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A58" s="140"/>
+      <c r="A58" s="132"/>
       <c r="B58" s="60" t="s">
         <v>65</v>
       </c>
@@ -29045,7 +29045,7 @@
       <c r="F58" s="65"/>
     </row>
     <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A59" s="140"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="60" t="s">
         <v>66</v>
       </c>
@@ -29059,7 +29059,7 @@
       <c r="F59" s="65"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A60" s="140"/>
+      <c r="A60" s="132"/>
       <c r="B60" s="60" t="s">
         <v>67</v>
       </c>
@@ -29073,7 +29073,7 @@
       <c r="F60" s="65"/>
     </row>
     <row r="61" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A61" s="140"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="60" t="s">
         <v>68</v>
       </c>
@@ -29087,19 +29087,19 @@
       <c r="F61" s="65"/>
     </row>
     <row r="62" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="140"/>
+      <c r="A62" s="132"/>
       <c r="B62" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="145" t="s">
+      <c r="C62" s="137" t="s">
         <v>279</v>
       </c>
-      <c r="D62" s="146"/>
-      <c r="E62" s="146"/>
-      <c r="F62" s="147"/>
+      <c r="D62" s="138"/>
+      <c r="E62" s="138"/>
+      <c r="F62" s="139"/>
     </row>
     <row r="63" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A63" s="140"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="60" t="s">
         <v>70</v>
       </c>
@@ -29113,67 +29113,67 @@
       <c r="F63" s="65"/>
     </row>
     <row r="64" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A64" s="140"/>
+      <c r="A64" s="132"/>
       <c r="B64" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="C64" s="145" t="s">
+      <c r="C64" s="137" t="s">
         <v>279</v>
       </c>
-      <c r="D64" s="146"/>
-      <c r="E64" s="146"/>
-      <c r="F64" s="147"/>
+      <c r="D64" s="138"/>
+      <c r="E64" s="138"/>
+      <c r="F64" s="139"/>
     </row>
     <row r="65" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A65" s="140"/>
+      <c r="A65" s="132"/>
       <c r="B65" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="145" t="s">
+      <c r="C65" s="137" t="s">
         <v>279</v>
       </c>
-      <c r="D65" s="146"/>
-      <c r="E65" s="146"/>
-      <c r="F65" s="147"/>
+      <c r="D65" s="138"/>
+      <c r="E65" s="138"/>
+      <c r="F65" s="139"/>
     </row>
     <row r="66" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A66" s="140"/>
+      <c r="A66" s="132"/>
       <c r="B66" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C66" s="145" t="s">
+      <c r="C66" s="137" t="s">
         <v>279</v>
       </c>
-      <c r="D66" s="146"/>
-      <c r="E66" s="146"/>
-      <c r="F66" s="147"/>
+      <c r="D66" s="138"/>
+      <c r="E66" s="138"/>
+      <c r="F66" s="139"/>
     </row>
     <row r="67" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A67" s="140"/>
+      <c r="A67" s="132"/>
       <c r="B67" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="145" t="s">
+      <c r="C67" s="137" t="s">
         <v>279</v>
       </c>
-      <c r="D67" s="146"/>
-      <c r="E67" s="146"/>
-      <c r="F67" s="147"/>
+      <c r="D67" s="138"/>
+      <c r="E67" s="138"/>
+      <c r="F67" s="139"/>
     </row>
     <row r="68" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A68" s="140"/>
+      <c r="A68" s="132"/>
       <c r="B68" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="145" t="s">
+      <c r="C68" s="137" t="s">
         <v>279</v>
       </c>
-      <c r="D68" s="146"/>
-      <c r="E68" s="146"/>
-      <c r="F68" s="147"/>
+      <c r="D68" s="138"/>
+      <c r="E68" s="138"/>
+      <c r="F68" s="139"/>
     </row>
     <row r="69" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A69" s="140"/>
+      <c r="A69" s="132"/>
       <c r="B69" s="61" t="s">
         <v>76</v>
       </c>
@@ -29185,7 +29185,7 @@
       <c r="F69" s="65"/>
     </row>
     <row r="70" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A70" s="140"/>
+      <c r="A70" s="132"/>
       <c r="B70" s="61" t="s">
         <v>77</v>
       </c>
@@ -29199,7 +29199,7 @@
       <c r="F70" s="65"/>
     </row>
     <row r="71" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A71" s="140"/>
+      <c r="A71" s="132"/>
       <c r="B71" s="61" t="s">
         <v>78</v>
       </c>
@@ -29213,7 +29213,7 @@
       <c r="F71" s="65"/>
     </row>
     <row r="72" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" s="140"/>
+      <c r="A72" s="132"/>
       <c r="B72" s="61" t="s">
         <v>79</v>
       </c>
@@ -29227,7 +29227,7 @@
       <c r="F72" s="65"/>
     </row>
     <row r="73" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A73" s="140"/>
+      <c r="A73" s="132"/>
       <c r="B73" s="61" t="s">
         <v>80</v>
       </c>
@@ -29241,7 +29241,7 @@
       <c r="F73" s="65"/>
     </row>
     <row r="74" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A74" s="140"/>
+      <c r="A74" s="132"/>
       <c r="B74" s="61" t="s">
         <v>81</v>
       </c>
@@ -29255,7 +29255,7 @@
       <c r="F74" s="65"/>
     </row>
     <row r="75" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A75" s="140"/>
+      <c r="A75" s="132"/>
       <c r="B75" s="61" t="s">
         <v>82</v>
       </c>
@@ -29269,7 +29269,7 @@
       <c r="F75" s="65"/>
     </row>
     <row r="76" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A76" s="140"/>
+      <c r="A76" s="132"/>
       <c r="B76" s="61" t="s">
         <v>83</v>
       </c>
@@ -29283,7 +29283,7 @@
       <c r="F76" s="65"/>
     </row>
     <row r="77" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A77" s="140"/>
+      <c r="A77" s="132"/>
       <c r="B77" s="61" t="s">
         <v>84</v>
       </c>
@@ -29297,7 +29297,7 @@
       <c r="F77" s="65"/>
     </row>
     <row r="78" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A78" s="140"/>
+      <c r="A78" s="132"/>
       <c r="B78" s="61" t="s">
         <v>85</v>
       </c>
@@ -29311,7 +29311,7 @@
       <c r="F78" s="65"/>
     </row>
     <row r="79" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A79" s="140"/>
+      <c r="A79" s="132"/>
       <c r="B79" s="61" t="s">
         <v>86</v>
       </c>
@@ -29325,7 +29325,7 @@
       <c r="F79" s="65"/>
     </row>
     <row r="80" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A80" s="140"/>
+      <c r="A80" s="132"/>
       <c r="B80" s="61" t="s">
         <v>87</v>
       </c>
@@ -29339,7 +29339,7 @@
       <c r="F80" s="65"/>
     </row>
     <row r="81" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A81" s="140"/>
+      <c r="A81" s="132"/>
       <c r="B81" s="61" t="s">
         <v>202</v>
       </c>
@@ -29353,7 +29353,7 @@
       <c r="F81" s="65"/>
     </row>
     <row r="82" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A82" s="140"/>
+      <c r="A82" s="132"/>
       <c r="B82" s="61" t="s">
         <v>89</v>
       </c>
@@ -29367,7 +29367,7 @@
       <c r="F82" s="65"/>
     </row>
     <row r="83" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A83" s="140"/>
+      <c r="A83" s="132"/>
       <c r="B83" s="61" t="s">
         <v>90</v>
       </c>
@@ -29381,7 +29381,7 @@
       <c r="F83" s="65"/>
     </row>
     <row r="84" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A84" s="140"/>
+      <c r="A84" s="132"/>
       <c r="B84" s="61" t="s">
         <v>91</v>
       </c>
@@ -29395,7 +29395,7 @@
       <c r="F84" s="65"/>
     </row>
     <row r="85" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A85" s="140"/>
+      <c r="A85" s="132"/>
       <c r="B85" s="61" t="s">
         <v>92</v>
       </c>
@@ -29409,7 +29409,7 @@
       <c r="F85" s="65"/>
     </row>
     <row r="86" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A86" s="140"/>
+      <c r="A86" s="132"/>
       <c r="B86" s="61" t="s">
         <v>93</v>
       </c>
@@ -29423,7 +29423,7 @@
       <c r="F86" s="65"/>
     </row>
     <row r="87" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A87" s="140"/>
+      <c r="A87" s="132"/>
       <c r="B87" s="61" t="s">
         <v>94</v>
       </c>
@@ -29437,7 +29437,7 @@
       <c r="F87" s="65"/>
     </row>
     <row r="88" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A88" s="140"/>
+      <c r="A88" s="132"/>
       <c r="B88" s="61" t="s">
         <v>95</v>
       </c>
@@ -29451,7 +29451,7 @@
       <c r="F88" s="65"/>
     </row>
     <row r="89" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A89" s="140"/>
+      <c r="A89" s="132"/>
       <c r="B89" s="61" t="s">
         <v>96</v>
       </c>
@@ -29465,7 +29465,7 @@
       <c r="F89" s="65"/>
     </row>
     <row r="90" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A90" s="140"/>
+      <c r="A90" s="132"/>
       <c r="B90" s="61" t="s">
         <v>97</v>
       </c>
@@ -29479,7 +29479,7 @@
       <c r="F90" s="65"/>
     </row>
     <row r="91" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A91" s="140"/>
+      <c r="A91" s="132"/>
       <c r="B91" s="61" t="s">
         <v>98</v>
       </c>
@@ -29493,7 +29493,7 @@
       <c r="F91" s="65"/>
     </row>
     <row r="92" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A92" s="140"/>
+      <c r="A92" s="132"/>
       <c r="B92" s="61" t="s">
         <v>100</v>
       </c>
@@ -29507,7 +29507,7 @@
       <c r="F92" s="65"/>
     </row>
     <row r="93" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A93" s="140"/>
+      <c r="A93" s="132"/>
       <c r="B93" s="61" t="s">
         <v>101</v>
       </c>
@@ -29521,7 +29521,7 @@
       <c r="F93" s="65"/>
     </row>
     <row r="94" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A94" s="140"/>
+      <c r="A94" s="132"/>
       <c r="B94" s="61" t="s">
         <v>102</v>
       </c>
@@ -29535,7 +29535,7 @@
       <c r="F94" s="65"/>
     </row>
     <row r="95" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A95" s="140"/>
+      <c r="A95" s="132"/>
       <c r="B95" s="61" t="s">
         <v>103</v>
       </c>
@@ -29549,7 +29549,7 @@
       <c r="F95" s="65"/>
     </row>
     <row r="96" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A96" s="140"/>
+      <c r="A96" s="132"/>
       <c r="B96" s="61" t="s">
         <v>104</v>
       </c>
@@ -29563,7 +29563,7 @@
       <c r="F96" s="65"/>
     </row>
     <row r="97" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A97" s="140"/>
+      <c r="A97" s="132"/>
       <c r="B97" s="61" t="s">
         <v>105</v>
       </c>
@@ -29577,7 +29577,7 @@
       <c r="F97" s="65"/>
     </row>
     <row r="98" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A98" s="140"/>
+      <c r="A98" s="132"/>
       <c r="B98" s="61" t="s">
         <v>106</v>
       </c>
@@ -29591,7 +29591,7 @@
       <c r="F98" s="65"/>
     </row>
     <row r="99" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A99" s="140"/>
+      <c r="A99" s="132"/>
       <c r="B99" s="61" t="s">
         <v>107</v>
       </c>
@@ -29605,7 +29605,7 @@
       <c r="F99" s="65"/>
     </row>
     <row r="100" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A100" s="140"/>
+      <c r="A100" s="132"/>
       <c r="B100" s="61" t="s">
         <v>108</v>
       </c>
@@ -29619,7 +29619,7 @@
       <c r="F100" s="65"/>
     </row>
     <row r="101" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A101" s="140"/>
+      <c r="A101" s="132"/>
       <c r="B101" s="61" t="s">
         <v>109</v>
       </c>
@@ -29633,7 +29633,7 @@
       <c r="F101" s="65"/>
     </row>
     <row r="102" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A102" s="140"/>
+      <c r="A102" s="132"/>
       <c r="B102" s="61" t="s">
         <v>110</v>
       </c>
@@ -29647,7 +29647,7 @@
       <c r="F102" s="65"/>
     </row>
     <row r="103" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A103" s="140"/>
+      <c r="A103" s="132"/>
       <c r="B103" s="61" t="s">
         <v>111</v>
       </c>
@@ -29661,7 +29661,7 @@
       <c r="F103" s="65"/>
     </row>
     <row r="104" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A104" s="140"/>
+      <c r="A104" s="132"/>
       <c r="B104" s="61" t="s">
         <v>112</v>
       </c>
@@ -29675,7 +29675,7 @@
       <c r="F104" s="65"/>
     </row>
     <row r="105" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A105" s="140"/>
+      <c r="A105" s="132"/>
       <c r="B105" s="61" t="s">
         <v>113</v>
       </c>
@@ -29689,139 +29689,139 @@
       <c r="F105" s="73"/>
     </row>
     <row r="106" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A106" s="140"/>
+      <c r="A106" s="132"/>
       <c r="B106" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="C106" s="134" t="s">
+      <c r="C106" s="143" t="s">
         <v>243</v>
       </c>
-      <c r="D106" s="135"/>
-      <c r="E106" s="135"/>
-      <c r="F106" s="136"/>
+      <c r="D106" s="144"/>
+      <c r="E106" s="144"/>
+      <c r="F106" s="145"/>
     </row>
     <row r="107" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A107" s="140"/>
+      <c r="A107" s="132"/>
       <c r="B107" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="C107" s="134" t="s">
+      <c r="C107" s="143" t="s">
         <v>243</v>
       </c>
-      <c r="D107" s="135"/>
-      <c r="E107" s="135"/>
-      <c r="F107" s="136"/>
+      <c r="D107" s="144"/>
+      <c r="E107" s="144"/>
+      <c r="F107" s="145"/>
     </row>
     <row r="108" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A108" s="140"/>
+      <c r="A108" s="132"/>
       <c r="B108" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="C108" s="134" t="s">
+      <c r="C108" s="143" t="s">
         <v>243</v>
       </c>
-      <c r="D108" s="135"/>
-      <c r="E108" s="135"/>
-      <c r="F108" s="136"/>
+      <c r="D108" s="144"/>
+      <c r="E108" s="144"/>
+      <c r="F108" s="145"/>
     </row>
     <row r="109" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A109" s="140"/>
+      <c r="A109" s="132"/>
       <c r="B109" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="C109" s="134" t="s">
+      <c r="C109" s="143" t="s">
         <v>243</v>
       </c>
-      <c r="D109" s="135"/>
-      <c r="E109" s="135"/>
-      <c r="F109" s="136"/>
+      <c r="D109" s="144"/>
+      <c r="E109" s="144"/>
+      <c r="F109" s="145"/>
     </row>
     <row r="110" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A110" s="140"/>
+      <c r="A110" s="132"/>
       <c r="B110" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="C110" s="134" t="s">
+      <c r="C110" s="143" t="s">
         <v>243</v>
       </c>
-      <c r="D110" s="135"/>
-      <c r="E110" s="135"/>
-      <c r="F110" s="136"/>
+      <c r="D110" s="144"/>
+      <c r="E110" s="144"/>
+      <c r="F110" s="145"/>
     </row>
     <row r="111" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A111" s="140"/>
+      <c r="A111" s="132"/>
       <c r="B111" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="C111" s="134" t="s">
+      <c r="C111" s="143" t="s">
         <v>243</v>
       </c>
-      <c r="D111" s="135"/>
-      <c r="E111" s="135"/>
-      <c r="F111" s="136"/>
+      <c r="D111" s="144"/>
+      <c r="E111" s="144"/>
+      <c r="F111" s="145"/>
     </row>
     <row r="112" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A112" s="140"/>
+      <c r="A112" s="132"/>
       <c r="B112" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="C112" s="134" t="s">
+      <c r="C112" s="143" t="s">
         <v>243</v>
       </c>
-      <c r="D112" s="135"/>
-      <c r="E112" s="135"/>
-      <c r="F112" s="136"/>
+      <c r="D112" s="144"/>
+      <c r="E112" s="144"/>
+      <c r="F112" s="145"/>
     </row>
     <row r="113" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A113" s="140"/>
+      <c r="A113" s="132"/>
       <c r="B113" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="C113" s="134" t="s">
+      <c r="C113" s="143" t="s">
         <v>243</v>
       </c>
-      <c r="D113" s="135"/>
-      <c r="E113" s="135"/>
-      <c r="F113" s="136"/>
+      <c r="D113" s="144"/>
+      <c r="E113" s="144"/>
+      <c r="F113" s="145"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A114" s="140"/>
+      <c r="A114" s="132"/>
       <c r="B114" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="C114" s="134" t="s">
+      <c r="C114" s="143" t="s">
         <v>243</v>
       </c>
-      <c r="D114" s="135"/>
-      <c r="E114" s="135"/>
-      <c r="F114" s="136"/>
+      <c r="D114" s="144"/>
+      <c r="E114" s="144"/>
+      <c r="F114" s="145"/>
     </row>
     <row r="115" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A115" s="140"/>
+      <c r="A115" s="132"/>
       <c r="B115" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="C115" s="134" t="s">
+      <c r="C115" s="143" t="s">
         <v>243</v>
       </c>
-      <c r="D115" s="135"/>
-      <c r="E115" s="135"/>
-      <c r="F115" s="136"/>
+      <c r="D115" s="144"/>
+      <c r="E115" s="144"/>
+      <c r="F115" s="145"/>
     </row>
     <row r="116" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A116" s="140"/>
+      <c r="A116" s="132"/>
       <c r="B116" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="C116" s="134" t="s">
+      <c r="C116" s="143" t="s">
         <v>243</v>
       </c>
-      <c r="D116" s="135"/>
-      <c r="E116" s="135"/>
-      <c r="F116" s="136"/>
+      <c r="D116" s="144"/>
+      <c r="E116" s="144"/>
+      <c r="F116" s="145"/>
     </row>
     <row r="117" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A117" s="140"/>
+      <c r="A117" s="132"/>
       <c r="B117" s="72" t="s">
         <v>125</v>
       </c>
@@ -29835,7 +29835,7 @@
       <c r="F117" s="73"/>
     </row>
     <row r="118" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A118" s="140"/>
+      <c r="A118" s="132"/>
       <c r="B118" s="72" t="s">
         <v>126</v>
       </c>
@@ -29849,7 +29849,7 @@
       <c r="F118" s="73"/>
     </row>
     <row r="119" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A119" s="140"/>
+      <c r="A119" s="132"/>
       <c r="B119" s="72" t="s">
         <v>127</v>
       </c>
@@ -29863,7 +29863,7 @@
       <c r="F119" s="73"/>
     </row>
     <row r="120" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A120" s="140"/>
+      <c r="A120" s="132"/>
       <c r="B120" s="61" t="s">
         <v>128</v>
       </c>
@@ -29877,7 +29877,7 @@
       <c r="F120" s="73"/>
     </row>
     <row r="121" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A121" s="140"/>
+      <c r="A121" s="132"/>
       <c r="B121" s="61" t="s">
         <v>129</v>
       </c>
@@ -29891,7 +29891,7 @@
       <c r="F121" s="73"/>
     </row>
     <row r="122" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A122" s="140"/>
+      <c r="A122" s="132"/>
       <c r="B122" s="61" t="s">
         <v>131</v>
       </c>
@@ -29905,7 +29905,7 @@
       <c r="F122" s="73"/>
     </row>
     <row r="123" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A123" s="140"/>
+      <c r="A123" s="132"/>
       <c r="B123" s="58"/>
       <c r="C123" s="73"/>
       <c r="D123" s="73"/>
@@ -29913,7 +29913,7 @@
       <c r="F123" s="73"/>
     </row>
     <row r="124" spans="1:6" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A124" s="140"/>
+      <c r="A124" s="132"/>
       <c r="B124" s="58"/>
       <c r="C124" s="73"/>
       <c r="D124" s="73"/>
@@ -29921,65 +29921,65 @@
       <c r="F124" s="73"/>
     </row>
     <row r="125" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A125" s="148"/>
-      <c r="B125" s="149"/>
-      <c r="C125" s="149"/>
-      <c r="D125" s="149"/>
-      <c r="E125" s="149"/>
-      <c r="F125" s="150"/>
+      <c r="A125" s="140"/>
+      <c r="B125" s="141"/>
+      <c r="C125" s="141"/>
+      <c r="D125" s="141"/>
+      <c r="E125" s="141"/>
+      <c r="F125" s="142"/>
     </row>
     <row r="126" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A126" s="141" t="s">
+      <c r="A126" s="133" t="s">
         <v>177</v>
       </c>
       <c r="B126" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="C126" s="134" t="s">
+      <c r="C126" s="143" t="s">
         <v>243</v>
       </c>
-      <c r="D126" s="135"/>
-      <c r="E126" s="135"/>
-      <c r="F126" s="136"/>
+      <c r="D126" s="144"/>
+      <c r="E126" s="144"/>
+      <c r="F126" s="145"/>
     </row>
     <row r="127" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A127" s="141"/>
+      <c r="A127" s="133"/>
       <c r="B127" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C127" s="134" t="s">
+      <c r="C127" s="143" t="s">
         <v>243</v>
       </c>
-      <c r="D127" s="135"/>
-      <c r="E127" s="135"/>
-      <c r="F127" s="136"/>
+      <c r="D127" s="144"/>
+      <c r="E127" s="144"/>
+      <c r="F127" s="145"/>
     </row>
     <row r="128" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A128" s="141"/>
+      <c r="A128" s="133"/>
       <c r="B128" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="C128" s="134" t="s">
+      <c r="C128" s="143" t="s">
         <v>243</v>
       </c>
-      <c r="D128" s="135"/>
-      <c r="E128" s="135"/>
-      <c r="F128" s="136"/>
+      <c r="D128" s="144"/>
+      <c r="E128" s="144"/>
+      <c r="F128" s="145"/>
     </row>
     <row r="129" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A129" s="141"/>
+      <c r="A129" s="133"/>
       <c r="B129" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="C129" s="134" t="s">
+      <c r="C129" s="143" t="s">
         <v>243</v>
       </c>
-      <c r="D129" s="135"/>
-      <c r="E129" s="135"/>
-      <c r="F129" s="136"/>
+      <c r="D129" s="144"/>
+      <c r="E129" s="144"/>
+      <c r="F129" s="145"/>
     </row>
     <row r="130" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A130" s="141"/>
+      <c r="A130" s="133"/>
       <c r="B130" s="60" t="s">
         <v>139</v>
       </c>
@@ -29993,31 +29993,31 @@
       <c r="F130" s="77"/>
     </row>
     <row r="131" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A131" s="141"/>
+      <c r="A131" s="133"/>
       <c r="B131" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="C131" s="131" t="s">
+      <c r="C131" s="146" t="s">
         <v>243</v>
       </c>
-      <c r="D131" s="132"/>
-      <c r="E131" s="132"/>
-      <c r="F131" s="133"/>
+      <c r="D131" s="147"/>
+      <c r="E131" s="147"/>
+      <c r="F131" s="148"/>
     </row>
     <row r="132" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A132" s="141"/>
+      <c r="A132" s="133"/>
       <c r="B132" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="C132" s="131" t="s">
+      <c r="C132" s="146" t="s">
         <v>243</v>
       </c>
-      <c r="D132" s="132"/>
-      <c r="E132" s="132"/>
-      <c r="F132" s="133"/>
+      <c r="D132" s="147"/>
+      <c r="E132" s="147"/>
+      <c r="F132" s="148"/>
     </row>
     <row r="133" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A133" s="141"/>
+      <c r="A133" s="133"/>
       <c r="B133" s="60" t="s">
         <v>142</v>
       </c>
@@ -30031,7 +30031,7 @@
       <c r="F133" s="65"/>
     </row>
     <row r="134" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A134" s="141"/>
+      <c r="A134" s="133"/>
       <c r="B134" s="60" t="s">
         <v>143</v>
       </c>
@@ -30045,79 +30045,79 @@
       <c r="F134" s="65"/>
     </row>
     <row r="135" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A135" s="141"/>
+      <c r="A135" s="133"/>
       <c r="B135" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="C135" s="131" t="s">
+      <c r="C135" s="146" t="s">
         <v>243</v>
       </c>
-      <c r="D135" s="132"/>
-      <c r="E135" s="132"/>
-      <c r="F135" s="133"/>
+      <c r="D135" s="147"/>
+      <c r="E135" s="147"/>
+      <c r="F135" s="148"/>
     </row>
     <row r="136" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A136" s="141"/>
+      <c r="A136" s="133"/>
       <c r="B136" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="C136" s="131" t="s">
+      <c r="C136" s="146" t="s">
         <v>243</v>
       </c>
-      <c r="D136" s="132"/>
-      <c r="E136" s="132"/>
-      <c r="F136" s="133"/>
+      <c r="D136" s="147"/>
+      <c r="E136" s="147"/>
+      <c r="F136" s="148"/>
     </row>
     <row r="137" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A137" s="141"/>
+      <c r="A137" s="133"/>
       <c r="B137" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="C137" s="131" t="s">
+      <c r="C137" s="146" t="s">
         <v>243</v>
       </c>
-      <c r="D137" s="132"/>
-      <c r="E137" s="132"/>
-      <c r="F137" s="133"/>
+      <c r="D137" s="147"/>
+      <c r="E137" s="147"/>
+      <c r="F137" s="148"/>
     </row>
     <row r="138" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A138" s="141"/>
+      <c r="A138" s="133"/>
       <c r="B138" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C138" s="131" t="s">
+      <c r="C138" s="146" t="s">
         <v>243</v>
       </c>
-      <c r="D138" s="132"/>
-      <c r="E138" s="132"/>
-      <c r="F138" s="133"/>
+      <c r="D138" s="147"/>
+      <c r="E138" s="147"/>
+      <c r="F138" s="148"/>
     </row>
     <row r="139" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A139" s="141"/>
+      <c r="A139" s="133"/>
       <c r="B139" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="C139" s="131" t="s">
+      <c r="C139" s="146" t="s">
         <v>243</v>
       </c>
-      <c r="D139" s="132"/>
-      <c r="E139" s="132"/>
-      <c r="F139" s="133"/>
+      <c r="D139" s="147"/>
+      <c r="E139" s="147"/>
+      <c r="F139" s="148"/>
     </row>
     <row r="140" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A140" s="141"/>
+      <c r="A140" s="133"/>
       <c r="B140" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="C140" s="131" t="s">
+      <c r="C140" s="146" t="s">
         <v>243</v>
       </c>
-      <c r="D140" s="132"/>
-      <c r="E140" s="132"/>
-      <c r="F140" s="133"/>
+      <c r="D140" s="147"/>
+      <c r="E140" s="147"/>
+      <c r="F140" s="148"/>
     </row>
     <row r="141" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A141" s="141"/>
+      <c r="A141" s="133"/>
       <c r="B141" s="60" t="s">
         <v>151</v>
       </c>
@@ -30131,7 +30131,7 @@
       <c r="F141" s="65"/>
     </row>
     <row r="142" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A142" s="141"/>
+      <c r="A142" s="133"/>
       <c r="B142" s="60" t="s">
         <v>152</v>
       </c>
@@ -30145,7 +30145,7 @@
       <c r="F142" s="65"/>
     </row>
     <row r="143" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A143" s="141"/>
+      <c r="A143" s="133"/>
       <c r="B143" s="60" t="s">
         <v>153</v>
       </c>
@@ -30159,7 +30159,7 @@
       <c r="F143" s="65"/>
     </row>
     <row r="144" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A144" s="141"/>
+      <c r="A144" s="133"/>
       <c r="B144" s="60" t="s">
         <v>154</v>
       </c>
@@ -30173,19 +30173,19 @@
       <c r="F144" s="65"/>
     </row>
     <row r="145" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A145" s="141"/>
+      <c r="A145" s="133"/>
       <c r="B145" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="C145" s="137" t="s">
+      <c r="C145" s="149" t="s">
         <v>280</v>
       </c>
-      <c r="D145" s="138"/>
-      <c r="E145" s="138"/>
-      <c r="F145" s="139"/>
+      <c r="D145" s="150"/>
+      <c r="E145" s="150"/>
+      <c r="F145" s="151"/>
     </row>
     <row r="146" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A146" s="141"/>
+      <c r="A146" s="133"/>
       <c r="B146" s="60" t="s">
         <v>156</v>
       </c>
@@ -30199,7 +30199,7 @@
       <c r="F146" s="65"/>
     </row>
     <row r="147" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A147" s="141"/>
+      <c r="A147" s="133"/>
       <c r="B147" s="60" t="s">
         <v>157</v>
       </c>
@@ -30213,7 +30213,7 @@
       <c r="F147" s="65"/>
     </row>
     <row r="148" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A148" s="141"/>
+      <c r="A148" s="133"/>
       <c r="B148" s="60" t="s">
         <v>158</v>
       </c>
@@ -30227,31 +30227,31 @@
       <c r="F148" s="65"/>
     </row>
     <row r="149" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A149" s="141"/>
+      <c r="A149" s="133"/>
       <c r="B149" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="C149" s="131" t="s">
+      <c r="C149" s="146" t="s">
         <v>243</v>
       </c>
-      <c r="D149" s="132"/>
-      <c r="E149" s="132"/>
-      <c r="F149" s="133"/>
+      <c r="D149" s="147"/>
+      <c r="E149" s="147"/>
+      <c r="F149" s="148"/>
     </row>
     <row r="150" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A150" s="141"/>
+      <c r="A150" s="133"/>
       <c r="B150" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="C150" s="131" t="s">
+      <c r="C150" s="146" t="s">
         <v>243</v>
       </c>
-      <c r="D150" s="132"/>
-      <c r="E150" s="132"/>
-      <c r="F150" s="133"/>
+      <c r="D150" s="147"/>
+      <c r="E150" s="147"/>
+      <c r="F150" s="148"/>
     </row>
     <row r="151" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A151" s="141"/>
+      <c r="A151" s="133"/>
       <c r="B151" s="60" t="s">
         <v>208</v>
       </c>
@@ -30263,19 +30263,19 @@
       <c r="F151" s="65"/>
     </row>
     <row r="152" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A152" s="141"/>
+      <c r="A152" s="133"/>
       <c r="B152" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="C152" s="131" t="s">
+      <c r="C152" s="146" t="s">
         <v>243</v>
       </c>
-      <c r="D152" s="132"/>
-      <c r="E152" s="132"/>
-      <c r="F152" s="133"/>
+      <c r="D152" s="147"/>
+      <c r="E152" s="147"/>
+      <c r="F152" s="148"/>
     </row>
     <row r="153" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A153" s="141"/>
+      <c r="A153" s="133"/>
       <c r="B153" s="60" t="s">
         <v>210</v>
       </c>
@@ -30289,7 +30289,7 @@
       <c r="F153" s="65"/>
     </row>
     <row r="154" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A154" s="141"/>
+      <c r="A154" s="133"/>
       <c r="B154" s="60" t="s">
         <v>211</v>
       </c>
@@ -30303,19 +30303,19 @@
       <c r="F154" s="65"/>
     </row>
     <row r="155" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A155" s="141"/>
+      <c r="A155" s="133"/>
       <c r="B155" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="C155" s="131" t="s">
+      <c r="C155" s="146" t="s">
         <v>243</v>
       </c>
-      <c r="D155" s="132"/>
-      <c r="E155" s="132"/>
-      <c r="F155" s="133"/>
+      <c r="D155" s="147"/>
+      <c r="E155" s="147"/>
+      <c r="F155" s="148"/>
     </row>
     <row r="156" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A156" s="141"/>
+      <c r="A156" s="133"/>
       <c r="B156" s="60" t="s">
         <v>188</v>
       </c>
@@ -30327,7 +30327,7 @@
       <c r="F156" s="65"/>
     </row>
     <row r="157" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A157" s="141"/>
+      <c r="A157" s="133"/>
       <c r="B157" s="61" t="s">
         <v>189</v>
       </c>
@@ -30339,7 +30339,7 @@
       <c r="F157" s="65"/>
     </row>
     <row r="158" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A158" s="141"/>
+      <c r="A158" s="133"/>
       <c r="B158" s="61" t="s">
         <v>190</v>
       </c>
@@ -30351,7 +30351,7 @@
       <c r="F158" s="65"/>
     </row>
     <row r="159" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A159" s="141"/>
+      <c r="A159" s="133"/>
       <c r="B159" s="61" t="s">
         <v>191</v>
       </c>
@@ -30363,7 +30363,7 @@
       <c r="F159" s="65"/>
     </row>
     <row r="160" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A160" s="141"/>
+      <c r="A160" s="133"/>
       <c r="B160" s="61" t="s">
         <v>192</v>
       </c>
@@ -30377,6 +30377,31 @@
     <row r="161" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="C150:F150"/>
+    <mergeCell ref="C152:F152"/>
+    <mergeCell ref="C155:F155"/>
+    <mergeCell ref="C116:F116"/>
+    <mergeCell ref="C145:F145"/>
+    <mergeCell ref="C135:F135"/>
+    <mergeCell ref="C136:F136"/>
+    <mergeCell ref="C137:F137"/>
+    <mergeCell ref="C138:F138"/>
+    <mergeCell ref="C139:F139"/>
+    <mergeCell ref="C140:F140"/>
+    <mergeCell ref="C128:F128"/>
+    <mergeCell ref="C129:F129"/>
+    <mergeCell ref="C131:F131"/>
+    <mergeCell ref="C132:F132"/>
+    <mergeCell ref="C112:F112"/>
+    <mergeCell ref="C113:F113"/>
+    <mergeCell ref="C114:F114"/>
+    <mergeCell ref="C115:F115"/>
+    <mergeCell ref="C149:F149"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="C109:F109"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="C111:F111"/>
     <mergeCell ref="A4:A124"/>
     <mergeCell ref="A126:A160"/>
     <mergeCell ref="A2:F2"/>
@@ -30393,31 +30418,6 @@
     <mergeCell ref="C126:F126"/>
     <mergeCell ref="C127:F127"/>
     <mergeCell ref="C106:F106"/>
-    <mergeCell ref="C107:F107"/>
-    <mergeCell ref="C108:F108"/>
-    <mergeCell ref="C109:F109"/>
-    <mergeCell ref="C110:F110"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="C112:F112"/>
-    <mergeCell ref="C113:F113"/>
-    <mergeCell ref="C114:F114"/>
-    <mergeCell ref="C115:F115"/>
-    <mergeCell ref="C149:F149"/>
-    <mergeCell ref="C150:F150"/>
-    <mergeCell ref="C152:F152"/>
-    <mergeCell ref="C155:F155"/>
-    <mergeCell ref="C116:F116"/>
-    <mergeCell ref="C145:F145"/>
-    <mergeCell ref="C135:F135"/>
-    <mergeCell ref="C136:F136"/>
-    <mergeCell ref="C137:F137"/>
-    <mergeCell ref="C138:F138"/>
-    <mergeCell ref="C139:F139"/>
-    <mergeCell ref="C140:F140"/>
-    <mergeCell ref="C128:F128"/>
-    <mergeCell ref="C129:F129"/>
-    <mergeCell ref="C131:F131"/>
-    <mergeCell ref="C132:F132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30445,26 +30445,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="152" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="165"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="168"/>
+      <c r="A2" s="155"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="157"/>
     </row>
     <row r="3" spans="1:6" s="71" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="171"/>
-      <c r="B3" s="172"/>
+      <c r="A3" s="163"/>
+      <c r="B3" s="164"/>
       <c r="C3" s="70" t="s">
         <v>220</v>
       </c>
@@ -30479,7 +30479,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="132" t="s">
         <v>165</v>
       </c>
       <c r="B4" s="60" t="s">
@@ -30497,7 +30497,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="140"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="60" t="s">
         <v>12</v>
       </c>
@@ -30513,7 +30513,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="140"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="60" t="s">
         <v>13</v>
       </c>
@@ -30529,7 +30529,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="140"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="60" t="s">
         <v>14</v>
       </c>
@@ -30541,7 +30541,7 @@
       <c r="F7" s="65"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="140"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="60" t="s">
         <v>15</v>
       </c>
@@ -30557,7 +30557,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="140"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="60" t="s">
         <v>16</v>
       </c>
@@ -30573,19 +30573,19 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="140"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="151" t="s">
+      <c r="C10" s="165" t="s">
         <v>242</v>
       </c>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="153"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="167"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="140"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="60" t="s">
         <v>18</v>
       </c>
@@ -30599,7 +30599,7 @@
       <c r="F11" s="65"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="140"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="60" t="s">
         <v>19</v>
       </c>
@@ -30615,7 +30615,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="140"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="60" t="s">
         <v>20</v>
       </c>
@@ -30629,7 +30629,7 @@
       <c r="F13" s="65"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="140"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="60" t="s">
         <v>21</v>
       </c>
@@ -30645,7 +30645,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="140"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="60" t="s">
         <v>22</v>
       </c>
@@ -30661,7 +30661,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="140"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="60" t="s">
         <v>23</v>
       </c>
@@ -30677,7 +30677,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="140"/>
+      <c r="A17" s="132"/>
       <c r="B17" s="60" t="s">
         <v>24</v>
       </c>
@@ -30693,7 +30693,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="140"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="60" t="s">
         <v>25</v>
       </c>
@@ -30707,7 +30707,7 @@
       <c r="F18" s="65"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="140"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="60" t="s">
         <v>26</v>
       </c>
@@ -30721,7 +30721,7 @@
       <c r="F19" s="65"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="140"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="60" t="s">
         <v>27</v>
       </c>
@@ -30735,7 +30735,7 @@
       <c r="F20" s="65"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="140"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="60" t="s">
         <v>28</v>
       </c>
@@ -30749,7 +30749,7 @@
       <c r="F21" s="65"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="140"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="60" t="s">
         <v>29</v>
       </c>
@@ -30763,7 +30763,7 @@
       <c r="F22" s="65"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="140"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="60" t="s">
         <v>30</v>
       </c>
@@ -30777,7 +30777,7 @@
       <c r="F23" s="65"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="140"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="60" t="s">
         <v>31</v>
       </c>
@@ -30791,7 +30791,7 @@
       <c r="F24" s="65"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="140"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="60" t="s">
         <v>32</v>
       </c>
@@ -30805,7 +30805,7 @@
       <c r="F25" s="65"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="140"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="60" t="s">
         <v>33</v>
       </c>
@@ -30819,19 +30819,19 @@
       <c r="F26" s="65"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="140"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="151" t="s">
+      <c r="C27" s="165" t="s">
         <v>242</v>
       </c>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="153"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="167"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="140"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="60" t="s">
         <v>35</v>
       </c>
@@ -30845,7 +30845,7 @@
       <c r="F28" s="65"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="140"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="60" t="s">
         <v>36</v>
       </c>
@@ -30859,7 +30859,7 @@
       <c r="F29" s="65"/>
     </row>
     <row r="30" spans="1:6" ht="17.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A30" s="140"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="60" t="s">
         <v>37</v>
       </c>
@@ -30875,7 +30875,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="140"/>
+      <c r="A31" s="132"/>
       <c r="B31" s="60" t="s">
         <v>38</v>
       </c>
@@ -30889,7 +30889,7 @@
       <c r="F31" s="65"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="140"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="60" t="s">
         <v>39</v>
       </c>
@@ -30903,7 +30903,7 @@
       <c r="F32" s="65"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="140"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="60" t="s">
         <v>40</v>
       </c>
@@ -30917,7 +30917,7 @@
       <c r="F33" s="65"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="140"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="60" t="s">
         <v>41</v>
       </c>
@@ -30931,7 +30931,7 @@
       <c r="F34" s="65"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="140"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="60" t="s">
         <v>42</v>
       </c>
@@ -30945,7 +30945,7 @@
       <c r="F35" s="65"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="140"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="60" t="s">
         <v>43</v>
       </c>
@@ -30959,7 +30959,7 @@
       <c r="F36" s="65"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="140"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="60" t="s">
         <v>44</v>
       </c>
@@ -30973,7 +30973,7 @@
       <c r="F37" s="65"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="140"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="60" t="s">
         <v>45</v>
       </c>
@@ -30987,7 +30987,7 @@
       <c r="F38" s="65"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="140"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="60" t="s">
         <v>46</v>
       </c>
@@ -31001,7 +31001,7 @@
       <c r="F39" s="65"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="140"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="60" t="s">
         <v>47</v>
       </c>
@@ -31015,7 +31015,7 @@
       <c r="F40" s="65"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="140"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="60" t="s">
         <v>38</v>
       </c>
@@ -31029,7 +31029,7 @@
       <c r="F41" s="65"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="140"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="60" t="s">
         <v>49</v>
       </c>
@@ -31043,7 +31043,7 @@
       <c r="F42" s="65"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="140"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="60" t="s">
         <v>50</v>
       </c>
@@ -31057,7 +31057,7 @@
       <c r="F43" s="65"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="140"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="60" t="s">
         <v>51</v>
       </c>
@@ -31071,7 +31071,7 @@
       <c r="F44" s="65"/>
     </row>
     <row r="45" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="140"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="60" t="s">
         <v>52</v>
       </c>
@@ -31085,7 +31085,7 @@
       <c r="F45" s="65"/>
     </row>
     <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="140"/>
+      <c r="A46" s="132"/>
       <c r="B46" s="60" t="s">
         <v>53</v>
       </c>
@@ -31099,7 +31099,7 @@
       <c r="F46" s="65"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="140"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="60" t="s">
         <v>54</v>
       </c>
@@ -31113,7 +31113,7 @@
       <c r="F47" s="65"/>
     </row>
     <row r="48" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="140"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="60" t="s">
         <v>55</v>
       </c>
@@ -31127,7 +31127,7 @@
       <c r="F48" s="65"/>
     </row>
     <row r="49" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A49" s="140"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="60" t="s">
         <v>56</v>
       </c>
@@ -31141,7 +31141,7 @@
       <c r="F49" s="65"/>
     </row>
     <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A50" s="140"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="60" t="s">
         <v>57</v>
       </c>
@@ -31155,7 +31155,7 @@
       <c r="F50" s="65"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A51" s="140"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="60" t="s">
         <v>219</v>
       </c>
@@ -31169,7 +31169,7 @@
       <c r="F51" s="65"/>
     </row>
     <row r="52" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="140"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="60" t="s">
         <v>59</v>
       </c>
@@ -31183,7 +31183,7 @@
       <c r="F52" s="65"/>
     </row>
     <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A53" s="140"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="60" t="s">
         <v>60</v>
       </c>
@@ -31197,7 +31197,7 @@
       <c r="F53" s="65"/>
     </row>
     <row r="54" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A54" s="140"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="60" t="s">
         <v>61</v>
       </c>
@@ -31211,7 +31211,7 @@
       <c r="F54" s="65"/>
     </row>
     <row r="55" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A55" s="140"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="60" t="s">
         <v>62</v>
       </c>
@@ -31225,7 +31225,7 @@
       <c r="F55" s="65"/>
     </row>
     <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="140"/>
+      <c r="A56" s="132"/>
       <c r="B56" s="60" t="s">
         <v>63</v>
       </c>
@@ -31239,7 +31239,7 @@
       <c r="F56" s="65"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="140"/>
+      <c r="A57" s="132"/>
       <c r="B57" s="60" t="s">
         <v>64</v>
       </c>
@@ -31253,7 +31253,7 @@
       <c r="F57" s="65"/>
     </row>
     <row r="58" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A58" s="140"/>
+      <c r="A58" s="132"/>
       <c r="B58" s="60" t="s">
         <v>65</v>
       </c>
@@ -31267,7 +31267,7 @@
       <c r="F58" s="65"/>
     </row>
     <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A59" s="140"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="60" t="s">
         <v>66</v>
       </c>
@@ -31281,7 +31281,7 @@
       <c r="F59" s="65"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A60" s="140"/>
+      <c r="A60" s="132"/>
       <c r="B60" s="60" t="s">
         <v>67</v>
       </c>
@@ -31295,7 +31295,7 @@
       <c r="F60" s="65"/>
     </row>
     <row r="61" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A61" s="140"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="60" t="s">
         <v>68</v>
       </c>
@@ -31309,7 +31309,7 @@
       <c r="F61" s="65"/>
     </row>
     <row r="62" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="140"/>
+      <c r="A62" s="132"/>
       <c r="B62" s="60" t="s">
         <v>69</v>
       </c>
@@ -31323,7 +31323,7 @@
       <c r="F62" s="65"/>
     </row>
     <row r="63" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A63" s="140"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="60" t="s">
         <v>70</v>
       </c>
@@ -31337,7 +31337,7 @@
       <c r="F63" s="65"/>
     </row>
     <row r="64" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A64" s="140"/>
+      <c r="A64" s="132"/>
       <c r="B64" s="60" t="s">
         <v>71</v>
       </c>
@@ -31351,7 +31351,7 @@
       <c r="F64" s="65"/>
     </row>
     <row r="65" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A65" s="140"/>
+      <c r="A65" s="132"/>
       <c r="B65" s="60" t="s">
         <v>72</v>
       </c>
@@ -31365,7 +31365,7 @@
       <c r="F65" s="65"/>
     </row>
     <row r="66" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A66" s="140"/>
+      <c r="A66" s="132"/>
       <c r="B66" s="60" t="s">
         <v>73</v>
       </c>
@@ -31379,7 +31379,7 @@
       <c r="F66" s="65"/>
     </row>
     <row r="67" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A67" s="140"/>
+      <c r="A67" s="132"/>
       <c r="B67" s="60" t="s">
         <v>74</v>
       </c>
@@ -31393,7 +31393,7 @@
       <c r="F67" s="65"/>
     </row>
     <row r="68" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A68" s="140"/>
+      <c r="A68" s="132"/>
       <c r="B68" s="60" t="s">
         <v>75</v>
       </c>
@@ -31407,7 +31407,7 @@
       <c r="F68" s="65"/>
     </row>
     <row r="69" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A69" s="140"/>
+      <c r="A69" s="132"/>
       <c r="B69" s="61" t="s">
         <v>76</v>
       </c>
@@ -31421,7 +31421,7 @@
       <c r="F69" s="65"/>
     </row>
     <row r="70" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A70" s="140"/>
+      <c r="A70" s="132"/>
       <c r="B70" s="61" t="s">
         <v>77</v>
       </c>
@@ -31435,7 +31435,7 @@
       <c r="F70" s="65"/>
     </row>
     <row r="71" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A71" s="140"/>
+      <c r="A71" s="132"/>
       <c r="B71" s="61" t="s">
         <v>78</v>
       </c>
@@ -31449,7 +31449,7 @@
       <c r="F71" s="65"/>
     </row>
     <row r="72" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" s="140"/>
+      <c r="A72" s="132"/>
       <c r="B72" s="61" t="s">
         <v>79</v>
       </c>
@@ -31463,7 +31463,7 @@
       <c r="F72" s="65"/>
     </row>
     <row r="73" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A73" s="140"/>
+      <c r="A73" s="132"/>
       <c r="B73" s="61" t="s">
         <v>80</v>
       </c>
@@ -31477,7 +31477,7 @@
       <c r="F73" s="65"/>
     </row>
     <row r="74" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A74" s="140"/>
+      <c r="A74" s="132"/>
       <c r="B74" s="61" t="s">
         <v>81</v>
       </c>
@@ -31491,7 +31491,7 @@
       <c r="F74" s="65"/>
     </row>
     <row r="75" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A75" s="140"/>
+      <c r="A75" s="132"/>
       <c r="B75" s="61" t="s">
         <v>82</v>
       </c>
@@ -31505,7 +31505,7 @@
       <c r="F75" s="65"/>
     </row>
     <row r="76" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A76" s="140"/>
+      <c r="A76" s="132"/>
       <c r="B76" s="61" t="s">
         <v>83</v>
       </c>
@@ -31519,7 +31519,7 @@
       <c r="F76" s="65"/>
     </row>
     <row r="77" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A77" s="140"/>
+      <c r="A77" s="132"/>
       <c r="B77" s="61" t="s">
         <v>84</v>
       </c>
@@ -31533,7 +31533,7 @@
       <c r="F77" s="65"/>
     </row>
     <row r="78" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A78" s="140"/>
+      <c r="A78" s="132"/>
       <c r="B78" s="61" t="s">
         <v>85</v>
       </c>
@@ -31547,7 +31547,7 @@
       <c r="F78" s="65"/>
     </row>
     <row r="79" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A79" s="140"/>
+      <c r="A79" s="132"/>
       <c r="B79" s="61" t="s">
         <v>86</v>
       </c>
@@ -31561,475 +31561,475 @@
       <c r="F79" s="65"/>
     </row>
     <row r="80" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A80" s="140"/>
+      <c r="A80" s="132"/>
       <c r="B80" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="160" t="s">
+      <c r="C80" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D80" s="161"/>
-      <c r="E80" s="161"/>
-      <c r="F80" s="162"/>
+      <c r="D80" s="169"/>
+      <c r="E80" s="169"/>
+      <c r="F80" s="170"/>
     </row>
     <row r="81" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A81" s="140"/>
+      <c r="A81" s="132"/>
       <c r="B81" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="C81" s="160" t="s">
+      <c r="C81" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D81" s="161"/>
-      <c r="E81" s="161"/>
-      <c r="F81" s="162"/>
+      <c r="D81" s="169"/>
+      <c r="E81" s="169"/>
+      <c r="F81" s="170"/>
     </row>
     <row r="82" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A82" s="140"/>
+      <c r="A82" s="132"/>
       <c r="B82" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="160" t="s">
+      <c r="C82" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D82" s="161"/>
-      <c r="E82" s="161"/>
-      <c r="F82" s="162"/>
+      <c r="D82" s="169"/>
+      <c r="E82" s="169"/>
+      <c r="F82" s="170"/>
     </row>
     <row r="83" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A83" s="140"/>
+      <c r="A83" s="132"/>
       <c r="B83" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C83" s="160" t="s">
+      <c r="C83" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D83" s="161"/>
-      <c r="E83" s="161"/>
-      <c r="F83" s="162"/>
+      <c r="D83" s="169"/>
+      <c r="E83" s="169"/>
+      <c r="F83" s="170"/>
     </row>
     <row r="84" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A84" s="140"/>
+      <c r="A84" s="132"/>
       <c r="B84" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="C84" s="160" t="s">
+      <c r="C84" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D84" s="161"/>
-      <c r="E84" s="161"/>
-      <c r="F84" s="162"/>
+      <c r="D84" s="169"/>
+      <c r="E84" s="169"/>
+      <c r="F84" s="170"/>
     </row>
     <row r="85" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A85" s="140"/>
+      <c r="A85" s="132"/>
       <c r="B85" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="C85" s="160" t="s">
+      <c r="C85" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D85" s="161"/>
-      <c r="E85" s="161"/>
-      <c r="F85" s="162"/>
+      <c r="D85" s="169"/>
+      <c r="E85" s="169"/>
+      <c r="F85" s="170"/>
     </row>
     <row r="86" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A86" s="140"/>
+      <c r="A86" s="132"/>
       <c r="B86" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="C86" s="160" t="s">
+      <c r="C86" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D86" s="161"/>
-      <c r="E86" s="161"/>
-      <c r="F86" s="162"/>
+      <c r="D86" s="169"/>
+      <c r="E86" s="169"/>
+      <c r="F86" s="170"/>
     </row>
     <row r="87" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A87" s="140"/>
+      <c r="A87" s="132"/>
       <c r="B87" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="C87" s="160" t="s">
+      <c r="C87" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D87" s="161"/>
-      <c r="E87" s="161"/>
-      <c r="F87" s="162"/>
+      <c r="D87" s="169"/>
+      <c r="E87" s="169"/>
+      <c r="F87" s="170"/>
     </row>
     <row r="88" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A88" s="140"/>
+      <c r="A88" s="132"/>
       <c r="B88" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="C88" s="160" t="s">
+      <c r="C88" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D88" s="161"/>
-      <c r="E88" s="161"/>
-      <c r="F88" s="162"/>
+      <c r="D88" s="169"/>
+      <c r="E88" s="169"/>
+      <c r="F88" s="170"/>
     </row>
     <row r="89" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A89" s="140"/>
+      <c r="A89" s="132"/>
       <c r="B89" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="C89" s="160" t="s">
+      <c r="C89" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D89" s="161"/>
-      <c r="E89" s="161"/>
-      <c r="F89" s="162"/>
+      <c r="D89" s="169"/>
+      <c r="E89" s="169"/>
+      <c r="F89" s="170"/>
     </row>
     <row r="90" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A90" s="140"/>
+      <c r="A90" s="132"/>
       <c r="B90" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="C90" s="160" t="s">
+      <c r="C90" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D90" s="161"/>
-      <c r="E90" s="161"/>
-      <c r="F90" s="162"/>
+      <c r="D90" s="169"/>
+      <c r="E90" s="169"/>
+      <c r="F90" s="170"/>
     </row>
     <row r="91" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A91" s="140"/>
+      <c r="A91" s="132"/>
       <c r="B91" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="160" t="s">
+      <c r="C91" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D91" s="161"/>
-      <c r="E91" s="161"/>
-      <c r="F91" s="162"/>
+      <c r="D91" s="169"/>
+      <c r="E91" s="169"/>
+      <c r="F91" s="170"/>
     </row>
     <row r="92" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A92" s="140"/>
+      <c r="A92" s="132"/>
       <c r="B92" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="C92" s="160" t="s">
+      <c r="C92" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D92" s="161"/>
-      <c r="E92" s="161"/>
-      <c r="F92" s="162"/>
+      <c r="D92" s="169"/>
+      <c r="E92" s="169"/>
+      <c r="F92" s="170"/>
     </row>
     <row r="93" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A93" s="140"/>
+      <c r="A93" s="132"/>
       <c r="B93" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="C93" s="160" t="s">
+      <c r="C93" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D93" s="161"/>
-      <c r="E93" s="161"/>
-      <c r="F93" s="162"/>
+      <c r="D93" s="169"/>
+      <c r="E93" s="169"/>
+      <c r="F93" s="170"/>
     </row>
     <row r="94" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A94" s="140"/>
+      <c r="A94" s="132"/>
       <c r="B94" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="160" t="s">
+      <c r="C94" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D94" s="161"/>
-      <c r="E94" s="161"/>
-      <c r="F94" s="162"/>
+      <c r="D94" s="169"/>
+      <c r="E94" s="169"/>
+      <c r="F94" s="170"/>
     </row>
     <row r="95" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A95" s="140"/>
+      <c r="A95" s="132"/>
       <c r="B95" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="C95" s="160" t="s">
+      <c r="C95" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D95" s="161"/>
-      <c r="E95" s="161"/>
-      <c r="F95" s="162"/>
+      <c r="D95" s="169"/>
+      <c r="E95" s="169"/>
+      <c r="F95" s="170"/>
     </row>
     <row r="96" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A96" s="140"/>
+      <c r="A96" s="132"/>
       <c r="B96" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="C96" s="160" t="s">
+      <c r="C96" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D96" s="161"/>
-      <c r="E96" s="161"/>
-      <c r="F96" s="162"/>
+      <c r="D96" s="169"/>
+      <c r="E96" s="169"/>
+      <c r="F96" s="170"/>
     </row>
     <row r="97" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A97" s="140"/>
+      <c r="A97" s="132"/>
       <c r="B97" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="C97" s="160" t="s">
+      <c r="C97" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D97" s="161"/>
-      <c r="E97" s="161"/>
-      <c r="F97" s="162"/>
+      <c r="D97" s="169"/>
+      <c r="E97" s="169"/>
+      <c r="F97" s="170"/>
     </row>
     <row r="98" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A98" s="140"/>
+      <c r="A98" s="132"/>
       <c r="B98" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="C98" s="160" t="s">
+      <c r="C98" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D98" s="161"/>
-      <c r="E98" s="161"/>
-      <c r="F98" s="162"/>
+      <c r="D98" s="169"/>
+      <c r="E98" s="169"/>
+      <c r="F98" s="170"/>
     </row>
     <row r="99" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A99" s="140"/>
+      <c r="A99" s="132"/>
       <c r="B99" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C99" s="160" t="s">
+      <c r="C99" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D99" s="161"/>
-      <c r="E99" s="161"/>
-      <c r="F99" s="162"/>
+      <c r="D99" s="169"/>
+      <c r="E99" s="169"/>
+      <c r="F99" s="170"/>
     </row>
     <row r="100" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A100" s="140"/>
+      <c r="A100" s="132"/>
       <c r="B100" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="C100" s="160" t="s">
+      <c r="C100" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D100" s="161"/>
-      <c r="E100" s="161"/>
-      <c r="F100" s="162"/>
+      <c r="D100" s="169"/>
+      <c r="E100" s="169"/>
+      <c r="F100" s="170"/>
     </row>
     <row r="101" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A101" s="140"/>
+      <c r="A101" s="132"/>
       <c r="B101" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="C101" s="160" t="s">
+      <c r="C101" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D101" s="161"/>
-      <c r="E101" s="161"/>
-      <c r="F101" s="162"/>
+      <c r="D101" s="169"/>
+      <c r="E101" s="169"/>
+      <c r="F101" s="170"/>
     </row>
     <row r="102" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A102" s="140"/>
+      <c r="A102" s="132"/>
       <c r="B102" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="C102" s="160" t="s">
+      <c r="C102" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D102" s="161"/>
-      <c r="E102" s="161"/>
-      <c r="F102" s="162"/>
+      <c r="D102" s="169"/>
+      <c r="E102" s="169"/>
+      <c r="F102" s="170"/>
     </row>
     <row r="103" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A103" s="140"/>
+      <c r="A103" s="132"/>
       <c r="B103" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="C103" s="160" t="s">
+      <c r="C103" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D103" s="161"/>
-      <c r="E103" s="161"/>
-      <c r="F103" s="162"/>
+      <c r="D103" s="169"/>
+      <c r="E103" s="169"/>
+      <c r="F103" s="170"/>
     </row>
     <row r="104" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A104" s="140"/>
+      <c r="A104" s="132"/>
       <c r="B104" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C104" s="160" t="s">
+      <c r="C104" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D104" s="161"/>
-      <c r="E104" s="161"/>
-      <c r="F104" s="162"/>
+      <c r="D104" s="169"/>
+      <c r="E104" s="169"/>
+      <c r="F104" s="170"/>
     </row>
     <row r="105" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A105" s="140"/>
+      <c r="A105" s="132"/>
       <c r="B105" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C105" s="160" t="s">
+      <c r="C105" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D105" s="161"/>
-      <c r="E105" s="161"/>
-      <c r="F105" s="162"/>
+      <c r="D105" s="169"/>
+      <c r="E105" s="169"/>
+      <c r="F105" s="170"/>
     </row>
     <row r="106" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A106" s="140"/>
+      <c r="A106" s="132"/>
       <c r="B106" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="C106" s="160" t="s">
+      <c r="C106" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D106" s="161"/>
-      <c r="E106" s="161"/>
-      <c r="F106" s="162"/>
+      <c r="D106" s="169"/>
+      <c r="E106" s="169"/>
+      <c r="F106" s="170"/>
     </row>
     <row r="107" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A107" s="140"/>
+      <c r="A107" s="132"/>
       <c r="B107" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="C107" s="157" t="s">
+      <c r="C107" s="171" t="s">
         <v>243</v>
       </c>
-      <c r="D107" s="158"/>
-      <c r="E107" s="158"/>
-      <c r="F107" s="159"/>
+      <c r="D107" s="172"/>
+      <c r="E107" s="172"/>
+      <c r="F107" s="173"/>
     </row>
     <row r="108" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A108" s="140"/>
+      <c r="A108" s="132"/>
       <c r="B108" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="C108" s="157" t="s">
+      <c r="C108" s="171" t="s">
         <v>243</v>
       </c>
-      <c r="D108" s="158"/>
-      <c r="E108" s="158"/>
-      <c r="F108" s="159"/>
+      <c r="D108" s="172"/>
+      <c r="E108" s="172"/>
+      <c r="F108" s="173"/>
     </row>
     <row r="109" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A109" s="140"/>
+      <c r="A109" s="132"/>
       <c r="B109" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="C109" s="157" t="s">
+      <c r="C109" s="171" t="s">
         <v>243</v>
       </c>
-      <c r="D109" s="158"/>
-      <c r="E109" s="158"/>
-      <c r="F109" s="159"/>
+      <c r="D109" s="172"/>
+      <c r="E109" s="172"/>
+      <c r="F109" s="173"/>
     </row>
     <row r="110" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A110" s="140"/>
+      <c r="A110" s="132"/>
       <c r="B110" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="C110" s="157" t="s">
+      <c r="C110" s="171" t="s">
         <v>243</v>
       </c>
-      <c r="D110" s="158"/>
-      <c r="E110" s="158"/>
-      <c r="F110" s="159"/>
+      <c r="D110" s="172"/>
+      <c r="E110" s="172"/>
+      <c r="F110" s="173"/>
     </row>
     <row r="111" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A111" s="140"/>
+      <c r="A111" s="132"/>
       <c r="B111" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="C111" s="157" t="s">
+      <c r="C111" s="171" t="s">
         <v>243</v>
       </c>
-      <c r="D111" s="158"/>
-      <c r="E111" s="158"/>
-      <c r="F111" s="159"/>
+      <c r="D111" s="172"/>
+      <c r="E111" s="172"/>
+      <c r="F111" s="173"/>
     </row>
     <row r="112" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A112" s="140"/>
+      <c r="A112" s="132"/>
       <c r="B112" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="C112" s="157" t="s">
+      <c r="C112" s="171" t="s">
         <v>243</v>
       </c>
-      <c r="D112" s="158"/>
-      <c r="E112" s="158"/>
-      <c r="F112" s="159"/>
+      <c r="D112" s="172"/>
+      <c r="E112" s="172"/>
+      <c r="F112" s="173"/>
     </row>
     <row r="113" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A113" s="140"/>
+      <c r="A113" s="132"/>
       <c r="B113" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="C113" s="157" t="s">
+      <c r="C113" s="171" t="s">
         <v>243</v>
       </c>
-      <c r="D113" s="158"/>
-      <c r="E113" s="158"/>
-      <c r="F113" s="159"/>
+      <c r="D113" s="172"/>
+      <c r="E113" s="172"/>
+      <c r="F113" s="173"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A114" s="140"/>
+      <c r="A114" s="132"/>
       <c r="B114" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="C114" s="157" t="s">
+      <c r="C114" s="171" t="s">
         <v>243</v>
       </c>
-      <c r="D114" s="158"/>
-      <c r="E114" s="158"/>
-      <c r="F114" s="159"/>
+      <c r="D114" s="172"/>
+      <c r="E114" s="172"/>
+      <c r="F114" s="173"/>
     </row>
     <row r="115" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A115" s="140"/>
+      <c r="A115" s="132"/>
       <c r="B115" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C115" s="157" t="s">
+      <c r="C115" s="171" t="s">
         <v>243</v>
       </c>
-      <c r="D115" s="158"/>
-      <c r="E115" s="158"/>
-      <c r="F115" s="159"/>
+      <c r="D115" s="172"/>
+      <c r="E115" s="172"/>
+      <c r="F115" s="173"/>
     </row>
     <row r="116" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A116" s="140"/>
+      <c r="A116" s="132"/>
       <c r="B116" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="C116" s="157" t="s">
+      <c r="C116" s="171" t="s">
         <v>243</v>
       </c>
-      <c r="D116" s="158"/>
-      <c r="E116" s="158"/>
-      <c r="F116" s="159"/>
+      <c r="D116" s="172"/>
+      <c r="E116" s="172"/>
+      <c r="F116" s="173"/>
     </row>
     <row r="117" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A117" s="140"/>
+      <c r="A117" s="132"/>
       <c r="B117" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="C117" s="157" t="s">
+      <c r="C117" s="171" t="s">
         <v>243</v>
       </c>
-      <c r="D117" s="158"/>
-      <c r="E117" s="158"/>
-      <c r="F117" s="159"/>
+      <c r="D117" s="172"/>
+      <c r="E117" s="172"/>
+      <c r="F117" s="173"/>
     </row>
     <row r="118" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A118" s="140"/>
+      <c r="A118" s="132"/>
       <c r="B118" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="C118" s="160" t="s">
+      <c r="C118" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="D118" s="161"/>
-      <c r="E118" s="161"/>
-      <c r="F118" s="162"/>
+      <c r="D118" s="169"/>
+      <c r="E118" s="169"/>
+      <c r="F118" s="170"/>
     </row>
     <row r="119" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A119" s="140"/>
+      <c r="A119" s="132"/>
       <c r="B119" s="61" t="s">
         <v>126</v>
       </c>
@@ -32041,7 +32041,7 @@
       <c r="F119" s="65"/>
     </row>
     <row r="120" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A120" s="140"/>
+      <c r="A120" s="132"/>
       <c r="B120" s="61" t="s">
         <v>127</v>
       </c>
@@ -32053,7 +32053,7 @@
       <c r="F120" s="65"/>
     </row>
     <row r="121" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A121" s="140"/>
+      <c r="A121" s="132"/>
       <c r="B121" s="61" t="s">
         <v>128</v>
       </c>
@@ -32065,7 +32065,7 @@
       <c r="F121" s="65"/>
     </row>
     <row r="122" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A122" s="140"/>
+      <c r="A122" s="132"/>
       <c r="B122" s="61" t="s">
         <v>129</v>
       </c>
@@ -32075,7 +32075,7 @@
       <c r="F122" s="64"/>
     </row>
     <row r="123" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A123" s="140"/>
+      <c r="A123" s="132"/>
       <c r="B123" s="61" t="s">
         <v>249</v>
       </c>
@@ -32087,7 +32087,7 @@
       <c r="F123" s="65"/>
     </row>
     <row r="124" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A124" s="140"/>
+      <c r="A124" s="132"/>
       <c r="B124" s="61" t="s">
         <v>131</v>
       </c>
@@ -32106,93 +32106,93 @@
       <c r="F125" s="65"/>
     </row>
     <row r="126" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A126" s="169" t="s">
+      <c r="A126" s="161" t="s">
         <v>177</v>
       </c>
       <c r="B126" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="C126" s="157" t="s">
+      <c r="C126" s="171" t="s">
         <v>243</v>
       </c>
-      <c r="D126" s="158"/>
-      <c r="E126" s="158"/>
-      <c r="F126" s="159"/>
+      <c r="D126" s="172"/>
+      <c r="E126" s="172"/>
+      <c r="F126" s="173"/>
     </row>
     <row r="127" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A127" s="170"/>
+      <c r="A127" s="162"/>
       <c r="B127" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C127" s="157" t="s">
+      <c r="C127" s="171" t="s">
         <v>243</v>
       </c>
-      <c r="D127" s="158"/>
-      <c r="E127" s="158"/>
-      <c r="F127" s="159"/>
+      <c r="D127" s="172"/>
+      <c r="E127" s="172"/>
+      <c r="F127" s="173"/>
     </row>
     <row r="128" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A128" s="170"/>
+      <c r="A128" s="162"/>
       <c r="B128" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="C128" s="157" t="s">
+      <c r="C128" s="171" t="s">
         <v>243</v>
       </c>
-      <c r="D128" s="158"/>
-      <c r="E128" s="158"/>
-      <c r="F128" s="159"/>
+      <c r="D128" s="172"/>
+      <c r="E128" s="172"/>
+      <c r="F128" s="173"/>
     </row>
     <row r="129" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A129" s="170"/>
+      <c r="A129" s="162"/>
       <c r="B129" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="C129" s="157" t="s">
+      <c r="C129" s="171" t="s">
         <v>243</v>
       </c>
-      <c r="D129" s="158"/>
-      <c r="E129" s="158"/>
-      <c r="F129" s="159"/>
+      <c r="D129" s="172"/>
+      <c r="E129" s="172"/>
+      <c r="F129" s="173"/>
     </row>
     <row r="130" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A130" s="170"/>
+      <c r="A130" s="162"/>
       <c r="B130" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="C130" s="151" t="s">
+      <c r="C130" s="165" t="s">
         <v>242</v>
       </c>
-      <c r="D130" s="152"/>
-      <c r="E130" s="152"/>
-      <c r="F130" s="153"/>
+      <c r="D130" s="166"/>
+      <c r="E130" s="166"/>
+      <c r="F130" s="167"/>
     </row>
     <row r="131" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A131" s="170"/>
+      <c r="A131" s="162"/>
       <c r="B131" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="C131" s="154" t="s">
+      <c r="C131" s="158" t="s">
         <v>243</v>
       </c>
-      <c r="D131" s="155"/>
-      <c r="E131" s="155"/>
-      <c r="F131" s="156"/>
+      <c r="D131" s="159"/>
+      <c r="E131" s="159"/>
+      <c r="F131" s="160"/>
     </row>
     <row r="132" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A132" s="170"/>
+      <c r="A132" s="162"/>
       <c r="B132" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="C132" s="154" t="s">
+      <c r="C132" s="158" t="s">
         <v>243</v>
       </c>
-      <c r="D132" s="155"/>
-      <c r="E132" s="155"/>
-      <c r="F132" s="156"/>
+      <c r="D132" s="159"/>
+      <c r="E132" s="159"/>
+      <c r="F132" s="160"/>
     </row>
     <row r="133" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A133" s="170"/>
+      <c r="A133" s="162"/>
       <c r="B133" s="60" t="s">
         <v>142</v>
       </c>
@@ -32203,7 +32203,7 @@
       <c r="F133" s="65"/>
     </row>
     <row r="134" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A134" s="170"/>
+      <c r="A134" s="162"/>
       <c r="B134" s="60" t="s">
         <v>143</v>
       </c>
@@ -32215,79 +32215,79 @@
       <c r="F134" s="65"/>
     </row>
     <row r="135" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A135" s="170"/>
+      <c r="A135" s="162"/>
       <c r="B135" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="C135" s="154" t="s">
+      <c r="C135" s="158" t="s">
         <v>243</v>
       </c>
-      <c r="D135" s="155"/>
-      <c r="E135" s="155"/>
-      <c r="F135" s="156"/>
+      <c r="D135" s="159"/>
+      <c r="E135" s="159"/>
+      <c r="F135" s="160"/>
     </row>
     <row r="136" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A136" s="170"/>
+      <c r="A136" s="162"/>
       <c r="B136" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="C136" s="154" t="s">
+      <c r="C136" s="158" t="s">
         <v>243</v>
       </c>
-      <c r="D136" s="155"/>
-      <c r="E136" s="155"/>
-      <c r="F136" s="156"/>
+      <c r="D136" s="159"/>
+      <c r="E136" s="159"/>
+      <c r="F136" s="160"/>
     </row>
     <row r="137" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A137" s="170"/>
+      <c r="A137" s="162"/>
       <c r="B137" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="C137" s="154" t="s">
+      <c r="C137" s="158" t="s">
         <v>243</v>
       </c>
-      <c r="D137" s="155"/>
-      <c r="E137" s="155"/>
-      <c r="F137" s="156"/>
+      <c r="D137" s="159"/>
+      <c r="E137" s="159"/>
+      <c r="F137" s="160"/>
     </row>
     <row r="138" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A138" s="170"/>
+      <c r="A138" s="162"/>
       <c r="B138" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C138" s="154" t="s">
+      <c r="C138" s="158" t="s">
         <v>243</v>
       </c>
-      <c r="D138" s="155"/>
-      <c r="E138" s="155"/>
-      <c r="F138" s="156"/>
+      <c r="D138" s="159"/>
+      <c r="E138" s="159"/>
+      <c r="F138" s="160"/>
     </row>
     <row r="139" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A139" s="170"/>
+      <c r="A139" s="162"/>
       <c r="B139" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="C139" s="154" t="s">
+      <c r="C139" s="158" t="s">
         <v>243</v>
       </c>
-      <c r="D139" s="155"/>
-      <c r="E139" s="155"/>
-      <c r="F139" s="156"/>
+      <c r="D139" s="159"/>
+      <c r="E139" s="159"/>
+      <c r="F139" s="160"/>
     </row>
     <row r="140" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A140" s="170"/>
+      <c r="A140" s="162"/>
       <c r="B140" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="C140" s="154" t="s">
+      <c r="C140" s="158" t="s">
         <v>243</v>
       </c>
-      <c r="D140" s="155"/>
-      <c r="E140" s="155"/>
-      <c r="F140" s="156"/>
+      <c r="D140" s="159"/>
+      <c r="E140" s="159"/>
+      <c r="F140" s="160"/>
     </row>
     <row r="141" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A141" s="170"/>
+      <c r="A141" s="162"/>
       <c r="B141" s="60" t="s">
         <v>151</v>
       </c>
@@ -32298,7 +32298,7 @@
       <c r="F141" s="65"/>
     </row>
     <row r="142" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A142" s="170"/>
+      <c r="A142" s="162"/>
       <c r="B142" s="60" t="s">
         <v>152</v>
       </c>
@@ -32310,7 +32310,7 @@
       <c r="F142" s="65"/>
     </row>
     <row r="143" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A143" s="170"/>
+      <c r="A143" s="162"/>
       <c r="B143" s="60" t="s">
         <v>153</v>
       </c>
@@ -32324,7 +32324,7 @@
       <c r="F143" s="78"/>
     </row>
     <row r="144" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A144" s="170"/>
+      <c r="A144" s="162"/>
       <c r="B144" s="60" t="s">
         <v>154</v>
       </c>
@@ -32338,7 +32338,7 @@
       <c r="F144" s="78"/>
     </row>
     <row r="145" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A145" s="170"/>
+      <c r="A145" s="162"/>
       <c r="B145" s="60" t="s">
         <v>155</v>
       </c>
@@ -32352,7 +32352,7 @@
       <c r="F145" s="65"/>
     </row>
     <row r="146" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A146" s="170"/>
+      <c r="A146" s="162"/>
       <c r="B146" s="60" t="s">
         <v>156</v>
       </c>
@@ -32366,7 +32366,7 @@
       <c r="F146" s="65"/>
     </row>
     <row r="147" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A147" s="170"/>
+      <c r="A147" s="162"/>
       <c r="B147" s="60" t="s">
         <v>157</v>
       </c>
@@ -32380,7 +32380,7 @@
       <c r="F147" s="65"/>
     </row>
     <row r="148" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A148" s="170"/>
+      <c r="A148" s="162"/>
       <c r="B148" s="60" t="s">
         <v>158</v>
       </c>
@@ -32394,103 +32394,103 @@
       <c r="F148" s="65"/>
     </row>
     <row r="149" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A149" s="170"/>
+      <c r="A149" s="162"/>
       <c r="B149" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="C149" s="154" t="s">
+      <c r="C149" s="158" t="s">
         <v>243</v>
       </c>
-      <c r="D149" s="155"/>
-      <c r="E149" s="155"/>
-      <c r="F149" s="156"/>
+      <c r="D149" s="159"/>
+      <c r="E149" s="159"/>
+      <c r="F149" s="160"/>
     </row>
     <row r="150" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A150" s="170"/>
+      <c r="A150" s="162"/>
       <c r="B150" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="C150" s="154" t="s">
+      <c r="C150" s="158" t="s">
         <v>243</v>
       </c>
-      <c r="D150" s="155"/>
-      <c r="E150" s="155"/>
-      <c r="F150" s="156"/>
+      <c r="D150" s="159"/>
+      <c r="E150" s="159"/>
+      <c r="F150" s="160"/>
     </row>
     <row r="151" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A151" s="170"/>
+      <c r="A151" s="162"/>
       <c r="B151" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="C151" s="151" t="s">
+      <c r="C151" s="165" t="s">
         <v>242</v>
       </c>
-      <c r="D151" s="152"/>
-      <c r="E151" s="152"/>
-      <c r="F151" s="153"/>
+      <c r="D151" s="166"/>
+      <c r="E151" s="166"/>
+      <c r="F151" s="167"/>
     </row>
     <row r="152" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A152" s="170"/>
+      <c r="A152" s="162"/>
       <c r="B152" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="C152" s="154" t="s">
+      <c r="C152" s="158" t="s">
         <v>243</v>
       </c>
-      <c r="D152" s="155"/>
-      <c r="E152" s="155"/>
-      <c r="F152" s="156"/>
+      <c r="D152" s="159"/>
+      <c r="E152" s="159"/>
+      <c r="F152" s="160"/>
     </row>
     <row r="153" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A153" s="170"/>
+      <c r="A153" s="162"/>
       <c r="B153" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="C153" s="151" t="s">
+      <c r="C153" s="165" t="s">
         <v>242</v>
       </c>
-      <c r="D153" s="152"/>
-      <c r="E153" s="152"/>
-      <c r="F153" s="153"/>
+      <c r="D153" s="166"/>
+      <c r="E153" s="166"/>
+      <c r="F153" s="167"/>
     </row>
     <row r="154" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A154" s="170"/>
+      <c r="A154" s="162"/>
       <c r="B154" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="C154" s="151" t="s">
+      <c r="C154" s="165" t="s">
         <v>242</v>
       </c>
-      <c r="D154" s="152"/>
-      <c r="E154" s="152"/>
-      <c r="F154" s="153"/>
+      <c r="D154" s="166"/>
+      <c r="E154" s="166"/>
+      <c r="F154" s="167"/>
     </row>
     <row r="155" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A155" s="170"/>
+      <c r="A155" s="162"/>
       <c r="B155" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="C155" s="154" t="s">
+      <c r="C155" s="158" t="s">
         <v>243</v>
       </c>
-      <c r="D155" s="155"/>
-      <c r="E155" s="155"/>
-      <c r="F155" s="156"/>
+      <c r="D155" s="159"/>
+      <c r="E155" s="159"/>
+      <c r="F155" s="160"/>
     </row>
     <row r="156" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A156" s="170"/>
+      <c r="A156" s="162"/>
       <c r="B156" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="C156" s="151" t="s">
+      <c r="C156" s="165" t="s">
         <v>242</v>
       </c>
-      <c r="D156" s="152"/>
-      <c r="E156" s="152"/>
-      <c r="F156" s="153"/>
+      <c r="D156" s="166"/>
+      <c r="E156" s="166"/>
+      <c r="F156" s="167"/>
     </row>
     <row r="157" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A157" s="170"/>
+      <c r="A157" s="162"/>
       <c r="B157" s="61" t="s">
         <v>189</v>
       </c>
@@ -32504,7 +32504,7 @@
       <c r="F157" s="65"/>
     </row>
     <row r="158" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A158" s="170"/>
+      <c r="A158" s="162"/>
       <c r="B158" s="61" t="s">
         <v>190</v>
       </c>
@@ -32516,7 +32516,7 @@
       <c r="F158" s="65"/>
     </row>
     <row r="159" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A159" s="170"/>
+      <c r="A159" s="162"/>
       <c r="B159" s="61" t="s">
         <v>191</v>
       </c>
@@ -32528,7 +32528,7 @@
       <c r="F159" s="65"/>
     </row>
     <row r="160" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A160" s="170"/>
+      <c r="A160" s="162"/>
       <c r="B160" s="76" t="s">
         <v>192</v>
       </c>
@@ -32554,6 +32554,56 @@
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="C154:F154"/>
+    <mergeCell ref="C156:F156"/>
+    <mergeCell ref="C151:F151"/>
+    <mergeCell ref="C153:F153"/>
+    <mergeCell ref="C138:F138"/>
+    <mergeCell ref="C139:F139"/>
+    <mergeCell ref="C140:F140"/>
+    <mergeCell ref="C149:F149"/>
+    <mergeCell ref="C150:F150"/>
+    <mergeCell ref="C130:F130"/>
+    <mergeCell ref="C132:F132"/>
+    <mergeCell ref="C135:F135"/>
+    <mergeCell ref="C136:F136"/>
+    <mergeCell ref="C137:F137"/>
+    <mergeCell ref="C129:F129"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="C109:F109"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="C112:F112"/>
+    <mergeCell ref="C113:F113"/>
+    <mergeCell ref="C114:F114"/>
+    <mergeCell ref="C115:F115"/>
+    <mergeCell ref="C116:F116"/>
+    <mergeCell ref="C117:F117"/>
+    <mergeCell ref="C106:F106"/>
+    <mergeCell ref="C118:F118"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="C127:F127"/>
+    <mergeCell ref="C128:F128"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="C101:F101"/>
+    <mergeCell ref="C105:F105"/>
+    <mergeCell ref="C102:F102"/>
+    <mergeCell ref="C103:F103"/>
+    <mergeCell ref="C104:F104"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="C88:F88"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="C155:F155"/>
     <mergeCell ref="A4:A124"/>
@@ -32570,56 +32620,6 @@
     <mergeCell ref="C89:F89"/>
     <mergeCell ref="C90:F90"/>
     <mergeCell ref="C91:F91"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="C96:F96"/>
-    <mergeCell ref="C97:F97"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="C99:F99"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="C101:F101"/>
-    <mergeCell ref="C105:F105"/>
-    <mergeCell ref="C102:F102"/>
-    <mergeCell ref="C103:F103"/>
-    <mergeCell ref="C104:F104"/>
-    <mergeCell ref="C106:F106"/>
-    <mergeCell ref="C118:F118"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="C127:F127"/>
-    <mergeCell ref="C128:F128"/>
-    <mergeCell ref="C129:F129"/>
-    <mergeCell ref="C107:F107"/>
-    <mergeCell ref="C108:F108"/>
-    <mergeCell ref="C109:F109"/>
-    <mergeCell ref="C110:F110"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="C112:F112"/>
-    <mergeCell ref="C113:F113"/>
-    <mergeCell ref="C114:F114"/>
-    <mergeCell ref="C115:F115"/>
-    <mergeCell ref="C116:F116"/>
-    <mergeCell ref="C117:F117"/>
-    <mergeCell ref="C130:F130"/>
-    <mergeCell ref="C132:F132"/>
-    <mergeCell ref="C135:F135"/>
-    <mergeCell ref="C136:F136"/>
-    <mergeCell ref="C137:F137"/>
-    <mergeCell ref="C154:F154"/>
-    <mergeCell ref="C156:F156"/>
-    <mergeCell ref="C151:F151"/>
-    <mergeCell ref="C153:F153"/>
-    <mergeCell ref="C138:F138"/>
-    <mergeCell ref="C139:F139"/>
-    <mergeCell ref="C140:F140"/>
-    <mergeCell ref="C149:F149"/>
-    <mergeCell ref="C150:F150"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
